--- a/manual/output_1223_chunk_2.xlsx
+++ b/manual/output_1223_chunk_2.xlsx
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>145.2795604450658</v>
+        <v>145.537566958256</v>
       </c>
       <c r="E72" t="s">
         <v>2641</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>2324.472967121053</v>
+        <v>2328.601071332097</v>
       </c>
       <c r="E73" t="s">
         <v>2640</v>
@@ -9595,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>145.5613696329986</v>
+        <v>145.820378956749</v>
       </c>
       <c r="E76" t="s">
         <v>2641</v>
@@ -9612,7 +9612,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>2328.981914127978</v>
+        <v>2333.126063307985</v>
       </c>
       <c r="E77" t="s">
         <v>2640</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>147.5</v>
+        <v>150.25</v>
       </c>
       <c r="E78" t="s">
         <v>2641</v>
@@ -9646,7 +9646,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2360</v>
+        <v>2404</v>
       </c>
       <c r="E79" t="s">
         <v>2640</v>
@@ -10037,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>588.6362484405709</v>
+        <v>588.6362278319672</v>
       </c>
       <c r="E102" t="s">
         <v>2640</v>
@@ -10054,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>609.8139537538807</v>
+        <v>609.8138630605629</v>
       </c>
       <c r="E103" t="s">
         <v>2640</v>
@@ -10224,7 +10224,7 @@
         <v>23</v>
       </c>
       <c r="D113">
-        <v>145.9042886372236</v>
+        <v>147.154809552723</v>
       </c>
       <c r="E113" t="s">
         <v>2641</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>875.4257318233415</v>
+        <v>882.9288573163381</v>
       </c>
       <c r="E114" t="s">
         <v>2640</v>
@@ -10258,7 +10258,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3501.702927293366</v>
+        <v>3531.715429265352</v>
       </c>
       <c r="E115" t="s">
         <v>2640</v>
@@ -10275,7 +10275,7 @@
         <v>23</v>
       </c>
       <c r="D116">
-        <v>145.574902672663</v>
+        <v>146.8197596521662</v>
       </c>
       <c r="E116" t="s">
         <v>2641</v>
@@ -10292,7 +10292,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>873.4494160359779</v>
+        <v>880.918557912997</v>
       </c>
       <c r="E117" t="s">
         <v>2640</v>
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>3493.797664143912</v>
+        <v>3523.674231651988</v>
       </c>
       <c r="E118" t="s">
         <v>2640</v>
@@ -10598,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>266.25</v>
+        <v>270.75</v>
       </c>
       <c r="E135" t="s">
         <v>2640</v>
@@ -10717,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="D142">
-        <v>383</v>
+        <v>376.25</v>
       </c>
       <c r="E142" t="s">
         <v>2640</v>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>353.3704705497865</v>
+        <v>353.4031171345993</v>
       </c>
       <c r="E144" t="s">
         <v>2640</v>
@@ -11023,7 +11023,7 @@
         <v>5</v>
       </c>
       <c r="D160">
-        <v>637.5</v>
+        <v>641.5</v>
       </c>
       <c r="E160" t="s">
         <v>2640</v>
@@ -11499,7 +11499,7 @@
         <v>3</v>
       </c>
       <c r="D188">
-        <v>113.75</v>
+        <v>114</v>
       </c>
       <c r="E188" t="s">
         <v>2641</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1137.5</v>
+        <v>1140</v>
       </c>
       <c r="E189" t="s">
         <v>2640</v>
@@ -12094,7 +12094,7 @@
         <v>3</v>
       </c>
       <c r="D223">
-        <v>835.8587913991795</v>
+        <v>835.8619958951435</v>
       </c>
       <c r="E223" t="s">
         <v>2641</v>
@@ -12111,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>5015.152748395077</v>
+        <v>5015.171975370861</v>
       </c>
       <c r="E224" t="s">
         <v>2640</v>
@@ -12128,7 +12128,7 @@
         <v>3</v>
       </c>
       <c r="D225">
-        <v>834.9262544951648</v>
+        <v>834.9819496675291</v>
       </c>
       <c r="E225" t="s">
         <v>2641</v>
@@ -12145,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>5009.557526970989</v>
+        <v>5009.891698005174</v>
       </c>
       <c r="E226" t="s">
         <v>2640</v>
@@ -12383,7 +12383,7 @@
         <v>2</v>
       </c>
       <c r="D240">
-        <v>157.5</v>
+        <v>160.5</v>
       </c>
       <c r="E240" t="s">
         <v>2640</v>
@@ -12485,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="D246">
-        <v>123.5</v>
+        <v>125</v>
       </c>
       <c r="E246" t="s">
         <v>2640</v>
@@ -12978,7 +12978,7 @@
         <v>2</v>
       </c>
       <c r="D275">
-        <v>506.7687073537251</v>
+        <v>506.7687073952561</v>
       </c>
       <c r="E275" t="s">
         <v>2640</v>
@@ -13947,7 +13947,7 @@
         <v>3</v>
       </c>
       <c r="D332">
-        <v>48.26117044340349</v>
+        <v>48.17290119757088</v>
       </c>
       <c r="E332" t="s">
         <v>2641</v>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="D333">
-        <v>579.1340453208418</v>
+        <v>578.0748143708506</v>
       </c>
       <c r="E333" t="s">
         <v>2640</v>
@@ -13981,7 +13981,7 @@
         <v>3</v>
       </c>
       <c r="D334">
-        <v>48.1913943091287</v>
+        <v>48.13497574628588</v>
       </c>
       <c r="E334" t="s">
         <v>2641</v>
@@ -13998,7 +13998,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>578.2967317095445</v>
+        <v>577.6197089554306</v>
       </c>
       <c r="E335" t="s">
         <v>2640</v>
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>193.25</v>
+        <v>194.25</v>
       </c>
       <c r="E339" t="s">
         <v>2640</v>
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>195.25</v>
+        <v>196</v>
       </c>
       <c r="E340" t="s">
         <v>2640</v>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
       <c r="D341">
-        <v>191.1098061194242</v>
+        <v>191.1038191763551</v>
       </c>
       <c r="E341" t="s">
         <v>2640</v>
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>191.5058022888968</v>
+        <v>192.4827798124014</v>
       </c>
       <c r="E342" t="s">
         <v>2640</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>191.5768116488202</v>
+        <v>192.5526602594868</v>
       </c>
       <c r="E343" t="s">
         <v>2640</v>
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="D344">
-        <v>191.5007770276108</v>
+        <v>192.4777289144648</v>
       </c>
       <c r="E344" t="s">
         <v>2640</v>
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="D345">
-        <v>191.9328990912174</v>
+        <v>192.9120554728622</v>
       </c>
       <c r="E345" t="s">
         <v>2640</v>
@@ -15120,7 +15120,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>201.6063816193125</v>
+        <v>195.9605958393381</v>
       </c>
       <c r="E401" t="s">
         <v>2640</v>
@@ -15324,7 +15324,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>224</v>
+        <v>225.75</v>
       </c>
       <c r="E413" t="s">
         <v>2640</v>
@@ -15528,7 +15528,7 @@
         <v>5</v>
       </c>
       <c r="D425">
-        <v>529.25</v>
+        <v>532</v>
       </c>
       <c r="E425" t="s">
         <v>2640</v>
@@ -15800,7 +15800,7 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>178.5</v>
+        <v>180.25</v>
       </c>
       <c r="E441" t="s">
         <v>2640</v>
@@ -15817,7 +15817,7 @@
         <v>1</v>
       </c>
       <c r="D442">
-        <v>202.5</v>
+        <v>204.5</v>
       </c>
       <c r="E442" t="s">
         <v>2640</v>
@@ -15834,7 +15834,7 @@
         <v>1</v>
       </c>
       <c r="D443">
-        <v>167.5</v>
+        <v>169</v>
       </c>
       <c r="E443" t="s">
         <v>2640</v>
@@ -16480,7 +16480,7 @@
         <v>2</v>
       </c>
       <c r="D481">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E481" t="s">
         <v>2640</v>
@@ -19438,7 +19438,7 @@
         <v>7</v>
       </c>
       <c r="D655">
-        <v>104.25</v>
+        <v>104</v>
       </c>
       <c r="E655" t="s">
         <v>2641</v>
@@ -19455,7 +19455,7 @@
         <v>1</v>
       </c>
       <c r="D656">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="E656" t="s">
         <v>2640</v>
@@ -19472,7 +19472,7 @@
         <v>7</v>
       </c>
       <c r="D657">
-        <v>194</v>
+        <v>193.25</v>
       </c>
       <c r="E657" t="s">
         <v>2641</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="D658">
-        <v>2328</v>
+        <v>2319</v>
       </c>
       <c r="E658" t="s">
         <v>2640</v>
@@ -19506,7 +19506,7 @@
         <v>7</v>
       </c>
       <c r="D659">
-        <v>191.25</v>
+        <v>190.75</v>
       </c>
       <c r="E659" t="s">
         <v>2641</v>
@@ -19523,7 +19523,7 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="E660" t="s">
         <v>2640</v>
@@ -19540,7 +19540,7 @@
         <v>7</v>
       </c>
       <c r="D661">
-        <v>118</v>
+        <v>117.75</v>
       </c>
       <c r="E661" t="s">
         <v>2641</v>
@@ -19557,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="D662">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="E662" t="s">
         <v>2640</v>
@@ -20424,7 +20424,7 @@
         <v>1</v>
       </c>
       <c r="D713">
-        <v>166.932518750764</v>
+        <v>166.8851245615558</v>
       </c>
       <c r="E713" t="s">
         <v>2640</v>
@@ -20441,7 +20441,7 @@
         <v>1</v>
       </c>
       <c r="D714">
-        <v>166.4244137230934</v>
+        <v>166.3014088605332</v>
       </c>
       <c r="E714" t="s">
         <v>2640</v>
@@ -20764,7 +20764,7 @@
         <v>3</v>
       </c>
       <c r="D733">
-        <v>95.41306306063072</v>
+        <v>95.44329379459764</v>
       </c>
       <c r="E733" t="s">
         <v>2641</v>
@@ -20781,7 +20781,7 @@
         <v>1</v>
       </c>
       <c r="D734">
-        <v>2289.913513455137</v>
+        <v>2290.639051070343</v>
       </c>
       <c r="E734" t="s">
         <v>2640</v>
@@ -20832,7 +20832,7 @@
         <v>3</v>
       </c>
       <c r="D737">
-        <v>132.8360001035744</v>
+        <v>132.831531914122</v>
       </c>
       <c r="E737" t="s">
         <v>2641</v>
@@ -20849,7 +20849,7 @@
         <v>1</v>
       </c>
       <c r="D738">
-        <v>3188.064002485786</v>
+        <v>3187.956765938928</v>
       </c>
       <c r="E738" t="s">
         <v>2640</v>
@@ -20866,7 +20866,7 @@
         <v>3</v>
       </c>
       <c r="D739">
-        <v>132.8529978843796</v>
+        <v>132.8468629356327</v>
       </c>
       <c r="E739" t="s">
         <v>2641</v>
@@ -20883,7 +20883,7 @@
         <v>1</v>
       </c>
       <c r="D740">
-        <v>3188.47194922511</v>
+        <v>3188.324710455185</v>
       </c>
       <c r="E740" t="s">
         <v>2640</v>
@@ -21002,7 +21002,7 @@
         <v>7</v>
       </c>
       <c r="D747">
-        <v>213.25</v>
+        <v>213.5</v>
       </c>
       <c r="E747" t="s">
         <v>2641</v>
@@ -21019,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="D748">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="E748" t="s">
         <v>2640</v>
@@ -21121,7 +21121,7 @@
         <v>2</v>
       </c>
       <c r="D754">
-        <v>558.25</v>
+        <v>559.5</v>
       </c>
       <c r="E754" t="s">
         <v>2640</v>
@@ -21376,7 +21376,7 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>195.25</v>
+        <v>196.5</v>
       </c>
       <c r="E769" t="s">
         <v>2640</v>
@@ -21733,7 +21733,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>522.5</v>
+        <v>518</v>
       </c>
       <c r="E790" t="s">
         <v>2640</v>
@@ -22056,7 +22056,7 @@
         <v>29</v>
       </c>
       <c r="D809">
-        <v>271.75</v>
+        <v>274</v>
       </c>
       <c r="E809" t="s">
         <v>2640</v>
@@ -23501,7 +23501,7 @@
         <v>3</v>
       </c>
       <c r="D894">
-        <v>90.25</v>
+        <v>89.75</v>
       </c>
       <c r="E894" t="s">
         <v>2641</v>
@@ -23518,7 +23518,7 @@
         <v>1</v>
       </c>
       <c r="D895">
-        <v>2166</v>
+        <v>2154</v>
       </c>
       <c r="E895" t="s">
         <v>2640</v>
@@ -23535,7 +23535,7 @@
         <v>7</v>
       </c>
       <c r="D896">
-        <v>236.25</v>
+        <v>229.5</v>
       </c>
       <c r="E896" t="s">
         <v>2641</v>
@@ -23552,7 +23552,7 @@
         <v>1</v>
       </c>
       <c r="D897">
-        <v>2835</v>
+        <v>2754</v>
       </c>
       <c r="E897" t="s">
         <v>2640</v>
@@ -24266,7 +24266,7 @@
         <v>5</v>
       </c>
       <c r="D939">
-        <v>179.25</v>
+        <v>180.5</v>
       </c>
       <c r="E939" t="s">
         <v>2640</v>
@@ -24572,7 +24572,7 @@
         <v>3</v>
       </c>
       <c r="D957">
-        <v>373.25</v>
+        <v>372</v>
       </c>
       <c r="E957" t="s">
         <v>2641</v>
@@ -24589,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="D958">
-        <v>2239.5</v>
+        <v>2232</v>
       </c>
       <c r="E958" t="s">
         <v>2640</v>
@@ -24606,7 +24606,7 @@
         <v>3</v>
       </c>
       <c r="D959">
-        <v>297.25</v>
+        <v>296.75</v>
       </c>
       <c r="E959" t="s">
         <v>2641</v>
@@ -24623,7 +24623,7 @@
         <v>1</v>
       </c>
       <c r="D960">
-        <v>1783.5</v>
+        <v>1780.5</v>
       </c>
       <c r="E960" t="s">
         <v>2640</v>
@@ -24640,7 +24640,7 @@
         <v>3</v>
       </c>
       <c r="D961">
-        <v>373.25</v>
+        <v>372</v>
       </c>
       <c r="E961" t="s">
         <v>2641</v>
@@ -24657,7 +24657,7 @@
         <v>1</v>
       </c>
       <c r="D962">
-        <v>4479</v>
+        <v>4464</v>
       </c>
       <c r="E962" t="s">
         <v>2640</v>
@@ -24674,7 +24674,7 @@
         <v>3</v>
       </c>
       <c r="D963">
-        <v>296.25</v>
+        <v>295.75</v>
       </c>
       <c r="E963" t="s">
         <v>2641</v>
@@ -24691,7 +24691,7 @@
         <v>1</v>
       </c>
       <c r="D964">
-        <v>3555</v>
+        <v>3549</v>
       </c>
       <c r="E964" t="s">
         <v>2640</v>
@@ -26068,7 +26068,7 @@
         <v>1</v>
       </c>
       <c r="D1045">
-        <v>300</v>
+        <v>303.25</v>
       </c>
       <c r="E1045" t="s">
         <v>2640</v>
@@ -26527,7 +26527,7 @@
         <v>7</v>
       </c>
       <c r="D1072">
-        <v>45.31776562566988</v>
+        <v>45.32437408544578</v>
       </c>
       <c r="E1072" t="s">
         <v>2641</v>
@@ -26544,7 +26544,7 @@
         <v>1</v>
       </c>
       <c r="D1073">
-        <v>906.3553125133976</v>
+        <v>906.4874817089157</v>
       </c>
       <c r="E1073" t="s">
         <v>2640</v>
@@ -26850,7 +26850,7 @@
         <v>7</v>
       </c>
       <c r="D1091">
-        <v>112.4439648136793</v>
+        <v>112.0182299598336</v>
       </c>
       <c r="E1091" t="s">
         <v>2641</v>
@@ -26867,7 +26867,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>1911.547401832548</v>
+        <v>1904.309909317172</v>
       </c>
       <c r="E1092" t="s">
         <v>2640</v>
@@ -28057,7 +28057,7 @@
         <v>1</v>
       </c>
       <c r="D1162">
-        <v>97.25</v>
+        <v>98</v>
       </c>
       <c r="E1162" t="s">
         <v>2640</v>
@@ -28703,7 +28703,7 @@
         <v>2</v>
       </c>
       <c r="D1200">
-        <v>265</v>
+        <v>264.75</v>
       </c>
       <c r="E1200" t="s">
         <v>2640</v>
@@ -28822,7 +28822,7 @@
         <v>1</v>
       </c>
       <c r="D1207">
-        <v>170.5</v>
+        <v>171.75</v>
       </c>
       <c r="E1207" t="s">
         <v>2640</v>
@@ -28890,7 +28890,7 @@
         <v>25</v>
       </c>
       <c r="D1211">
-        <v>154.75</v>
+        <v>159.25</v>
       </c>
       <c r="E1211" t="s">
         <v>2641</v>
@@ -28907,7 +28907,7 @@
         <v>29</v>
       </c>
       <c r="D1212">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="E1212" t="s">
         <v>2640</v>
@@ -28924,7 +28924,7 @@
         <v>7</v>
       </c>
       <c r="D1213">
-        <v>18</v>
+        <v>17.75</v>
       </c>
       <c r="E1213" t="s">
         <v>2641</v>
@@ -28941,7 +28941,7 @@
         <v>2</v>
       </c>
       <c r="D1214">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E1214" t="s">
         <v>2640</v>
@@ -29740,7 +29740,7 @@
         <v>29</v>
       </c>
       <c r="D1261">
-        <v>329</v>
+        <v>331.5</v>
       </c>
       <c r="E1261" t="s">
         <v>2640</v>
@@ -29876,7 +29876,7 @@
         <v>3</v>
       </c>
       <c r="D1269">
-        <v>101.4159718537522</v>
+        <v>101.5</v>
       </c>
       <c r="E1269" t="s">
         <v>2641</v>
@@ -29893,7 +29893,7 @@
         <v>1</v>
       </c>
       <c r="D1270">
-        <v>1622.655549660035</v>
+        <v>1624</v>
       </c>
       <c r="E1270" t="s">
         <v>2640</v>
@@ -30012,7 +30012,7 @@
         <v>1</v>
       </c>
       <c r="D1277">
-        <v>233.75</v>
+        <v>234.75</v>
       </c>
       <c r="E1277" t="s">
         <v>2640</v>
@@ -30182,7 +30182,7 @@
         <v>29</v>
       </c>
       <c r="D1287">
-        <v>249.25</v>
+        <v>251</v>
       </c>
       <c r="E1287" t="s">
         <v>2640</v>
@@ -30505,7 +30505,7 @@
         <v>1</v>
       </c>
       <c r="D1306">
-        <v>170.25</v>
+        <v>171.5</v>
       </c>
       <c r="E1306" t="s">
         <v>2640</v>
@@ -33344,7 +33344,7 @@
         <v>7</v>
       </c>
       <c r="D1473">
-        <v>141.0648109621683</v>
+        <v>141.036227660471</v>
       </c>
       <c r="E1473" t="s">
         <v>2641</v>
@@ -33361,7 +33361,7 @@
         <v>1</v>
       </c>
       <c r="D1474">
-        <v>1410.648109621683</v>
+        <v>1410.36227660471</v>
       </c>
       <c r="E1474" t="s">
         <v>2640</v>
@@ -33378,7 +33378,7 @@
         <v>7</v>
       </c>
       <c r="D1475">
-        <v>140.9750995762646</v>
+        <v>140.9714985933035</v>
       </c>
       <c r="E1475" t="s">
         <v>2641</v>
@@ -33395,7 +33395,7 @@
         <v>1</v>
       </c>
       <c r="D1476">
-        <v>1409.750995762646</v>
+        <v>1409.714985933035</v>
       </c>
       <c r="E1476" t="s">
         <v>2640</v>
@@ -33412,7 +33412,7 @@
         <v>3</v>
       </c>
       <c r="D1477">
-        <v>58.282014509871</v>
+        <v>59.5</v>
       </c>
       <c r="E1477" t="s">
         <v>2641</v>
@@ -33429,7 +33429,7 @@
         <v>1</v>
       </c>
       <c r="D1478">
-        <v>1049.076261177678</v>
+        <v>1071</v>
       </c>
       <c r="E1478" t="s">
         <v>2640</v>
@@ -33446,7 +33446,7 @@
         <v>3</v>
       </c>
       <c r="D1479">
-        <v>58.25608550321014</v>
+        <v>58.5</v>
       </c>
       <c r="E1479" t="s">
         <v>2641</v>
@@ -33463,7 +33463,7 @@
         <v>1</v>
       </c>
       <c r="D1480">
-        <v>1048.609539057783</v>
+        <v>1053</v>
       </c>
       <c r="E1480" t="s">
         <v>2640</v>
@@ -33480,7 +33480,7 @@
         <v>3</v>
       </c>
       <c r="D1481">
-        <v>107.8120576090415</v>
+        <v>107.7362094133874</v>
       </c>
       <c r="E1481" t="s">
         <v>2641</v>
@@ -33497,7 +33497,7 @@
         <v>1</v>
       </c>
       <c r="D1482">
-        <v>1940.617036962748</v>
+        <v>1939.251769440974</v>
       </c>
       <c r="E1482" t="s">
         <v>2640</v>
@@ -33956,7 +33956,7 @@
         <v>29</v>
       </c>
       <c r="D1509">
-        <v>343.25</v>
+        <v>346.25</v>
       </c>
       <c r="E1509" t="s">
         <v>2640</v>
@@ -34143,7 +34143,7 @@
         <v>1</v>
       </c>
       <c r="D1520">
-        <v>355.517346557706</v>
+        <v>358.3224681817649</v>
       </c>
       <c r="E1520" t="s">
         <v>2640</v>
@@ -34160,7 +34160,7 @@
         <v>2</v>
       </c>
       <c r="D1521">
-        <v>227.1134692006204</v>
+        <v>227.1134761109032</v>
       </c>
       <c r="E1521" t="s">
         <v>2640</v>
@@ -34636,7 +34636,7 @@
         <v>2</v>
       </c>
       <c r="D1549">
-        <v>164.7055216005252</v>
+        <v>163.9407605326027</v>
       </c>
       <c r="E1549" t="s">
         <v>2640</v>
@@ -34653,7 +34653,7 @@
         <v>2</v>
       </c>
       <c r="D1550">
-        <v>164.7055494148363</v>
+        <v>163.9407851960295</v>
       </c>
       <c r="E1550" t="s">
         <v>2640</v>
@@ -34670,7 +34670,7 @@
         <v>2</v>
       </c>
       <c r="D1551">
-        <v>164.7055173885283</v>
+        <v>163.9407562532141</v>
       </c>
       <c r="E1551" t="s">
         <v>2640</v>
@@ -34687,7 +34687,7 @@
         <v>2</v>
       </c>
       <c r="D1552">
-        <v>164.7055164829273</v>
+        <v>163.9407554339067</v>
       </c>
       <c r="E1552" t="s">
         <v>2640</v>
@@ -34704,7 +34704,7 @@
         <v>2</v>
       </c>
       <c r="D1553">
-        <v>164.7055167327845</v>
+        <v>163.9407556579544</v>
       </c>
       <c r="E1553" t="s">
         <v>2640</v>
@@ -34721,7 +34721,7 @@
         <v>2</v>
       </c>
       <c r="D1554">
-        <v>164.705521061832</v>
+        <v>163.9407593957066</v>
       </c>
       <c r="E1554" t="s">
         <v>2640</v>
@@ -34738,7 +34738,7 @@
         <v>2</v>
       </c>
       <c r="D1555">
-        <v>164.7055332290702</v>
+        <v>163.9407708863593</v>
       </c>
       <c r="E1555" t="s">
         <v>2640</v>
@@ -34823,7 +34823,7 @@
         <v>3</v>
       </c>
       <c r="D1560">
-        <v>137.75</v>
+        <v>139.25</v>
       </c>
       <c r="E1560" t="s">
         <v>2641</v>
@@ -34840,7 +34840,7 @@
         <v>1</v>
       </c>
       <c r="D1561">
-        <v>826.5</v>
+        <v>835.5</v>
       </c>
       <c r="E1561" t="s">
         <v>2640</v>
@@ -35928,7 +35928,7 @@
         <v>2</v>
       </c>
       <c r="D1625">
-        <v>209.6086468816145</v>
+        <v>210.4455070692009</v>
       </c>
       <c r="E1625" t="s">
         <v>2641</v>
@@ -35945,7 +35945,7 @@
         <v>1</v>
       </c>
       <c r="D1626">
-        <v>1676.869175052916</v>
+        <v>1683.564056553607</v>
       </c>
       <c r="E1626" t="s">
         <v>2640</v>
@@ -35996,7 +35996,7 @@
         <v>2</v>
       </c>
       <c r="D1629">
-        <v>198</v>
+        <v>198.5</v>
       </c>
       <c r="E1629" t="s">
         <v>2641</v>
@@ -36013,7 +36013,7 @@
         <v>1</v>
       </c>
       <c r="D1630">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="E1630" t="s">
         <v>2640</v>
@@ -36115,7 +36115,7 @@
         <v>3</v>
       </c>
       <c r="D1636">
-        <v>43.5</v>
+        <v>43.25</v>
       </c>
       <c r="E1636" t="s">
         <v>2641</v>
@@ -36132,7 +36132,7 @@
         <v>1</v>
       </c>
       <c r="D1637">
-        <v>261</v>
+        <v>259.5</v>
       </c>
       <c r="E1637" t="s">
         <v>2640</v>
@@ -37594,7 +37594,7 @@
         <v>10</v>
       </c>
       <c r="D1723">
-        <v>127.25</v>
+        <v>130.75</v>
       </c>
       <c r="E1723" t="s">
         <v>2641</v>
@@ -37611,7 +37611,7 @@
         <v>1</v>
       </c>
       <c r="D1724">
-        <v>763.5</v>
+        <v>784.5</v>
       </c>
       <c r="E1724" t="s">
         <v>2640</v>
@@ -37628,7 +37628,7 @@
         <v>10</v>
       </c>
       <c r="D1725">
-        <v>37.48263177964211</v>
+        <v>38.23645939902578</v>
       </c>
       <c r="E1725" t="s">
         <v>2641</v>
@@ -37645,7 +37645,7 @@
         <v>1</v>
       </c>
       <c r="D1726">
-        <v>899.5831627114108</v>
+        <v>917.6750255766186</v>
       </c>
       <c r="E1726" t="s">
         <v>2640</v>
@@ -37662,7 +37662,7 @@
         <v>10</v>
       </c>
       <c r="D1727">
-        <v>71.78139339536951</v>
+        <v>74.23912855695119</v>
       </c>
       <c r="E1727" t="s">
         <v>2641</v>
@@ -37679,7 +37679,7 @@
         <v>1</v>
       </c>
       <c r="D1728">
-        <v>861.3767207444341</v>
+        <v>890.8695426834142</v>
       </c>
       <c r="E1728" t="s">
         <v>2640</v>
@@ -37696,7 +37696,7 @@
         <v>10</v>
       </c>
       <c r="D1729">
-        <v>71.66182986244009</v>
+        <v>73.17261502111465</v>
       </c>
       <c r="E1729" t="s">
         <v>2641</v>
@@ -37713,7 +37713,7 @@
         <v>1</v>
       </c>
       <c r="D1730">
-        <v>859.9419583492811</v>
+        <v>878.0713802533758</v>
       </c>
       <c r="E1730" t="s">
         <v>2640</v>
@@ -37730,7 +37730,7 @@
         <v>10</v>
       </c>
       <c r="D1731">
-        <v>37.5650917155311</v>
+        <v>38.32227325100614</v>
       </c>
       <c r="E1731" t="s">
         <v>2641</v>
@@ -37747,7 +37747,7 @@
         <v>1</v>
       </c>
       <c r="D1732">
-        <v>901.5622011727464</v>
+        <v>919.7345580241474</v>
       </c>
       <c r="E1732" t="s">
         <v>2640</v>
@@ -38172,7 +38172,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>188.5</v>
+        <v>189.75</v>
       </c>
       <c r="E1757" t="s">
         <v>2640</v>
@@ -38342,7 +38342,7 @@
         <v>3</v>
       </c>
       <c r="D1767">
-        <v>83.72119740279902</v>
+        <v>83.72644033476973</v>
       </c>
       <c r="E1767" t="s">
         <v>2641</v>
@@ -38359,7 +38359,7 @@
         <v>1</v>
       </c>
       <c r="D1768">
-        <v>1674.42394805598</v>
+        <v>1674.528806695395</v>
       </c>
       <c r="E1768" t="s">
         <v>2640</v>
@@ -38563,7 +38563,7 @@
         <v>2</v>
       </c>
       <c r="D1780">
-        <v>59.82472831302964</v>
+        <v>59.6956891475733</v>
       </c>
       <c r="E1780" t="s">
         <v>2641</v>
@@ -38580,7 +38580,7 @@
         <v>1</v>
       </c>
       <c r="D1781">
-        <v>717.8967397563556</v>
+        <v>716.3482697708796</v>
       </c>
       <c r="E1781" t="s">
         <v>2640</v>
@@ -38597,7 +38597,7 @@
         <v>2</v>
       </c>
       <c r="D1782">
-        <v>59.94001017079359</v>
+        <v>59.81047374934013</v>
       </c>
       <c r="E1782" t="s">
         <v>2641</v>
@@ -38614,7 +38614,7 @@
         <v>1</v>
       </c>
       <c r="D1783">
-        <v>719.2801220495231</v>
+        <v>717.7256849920816</v>
       </c>
       <c r="E1783" t="s">
         <v>2640</v>
@@ -39260,7 +39260,7 @@
         <v>1</v>
       </c>
       <c r="D1821">
-        <v>275.25</v>
+        <v>277.5</v>
       </c>
       <c r="E1821" t="s">
         <v>2640</v>
@@ -39277,7 +39277,7 @@
         <v>1</v>
       </c>
       <c r="D1822">
-        <v>275.25</v>
+        <v>277.5</v>
       </c>
       <c r="E1822" t="s">
         <v>2640</v>
@@ -39294,7 +39294,7 @@
         <v>1</v>
       </c>
       <c r="D1823">
-        <v>178.5911401147506</v>
+        <v>179.9328472750796</v>
       </c>
       <c r="E1823" t="s">
         <v>2640</v>
@@ -41215,7 +41215,7 @@
         <v>1</v>
       </c>
       <c r="D1936">
-        <v>195.0919341566107</v>
+        <v>196.5108803939182</v>
       </c>
       <c r="E1936" t="s">
         <v>2640</v>
@@ -41232,7 +41232,7 @@
         <v>1</v>
       </c>
       <c r="D1937">
-        <v>195.6780181419867</v>
+        <v>197.1177272413042</v>
       </c>
       <c r="E1937" t="s">
         <v>2640</v>
@@ -41470,7 +41470,7 @@
         <v>3</v>
       </c>
       <c r="D1951">
-        <v>83.67373701172951</v>
+        <v>83.67590462019609</v>
       </c>
       <c r="E1951" t="s">
         <v>2641</v>
@@ -41487,7 +41487,7 @@
         <v>1</v>
       </c>
       <c r="D1952">
-        <v>1673.47474023459</v>
+        <v>1673.518092403922</v>
       </c>
       <c r="E1952" t="s">
         <v>2640</v>
@@ -41810,7 +41810,7 @@
         <v>1</v>
       </c>
       <c r="D1971">
-        <v>239.25</v>
+        <v>241.5</v>
       </c>
       <c r="E1971" t="s">
         <v>2640</v>
@@ -42252,7 +42252,7 @@
         <v>3</v>
       </c>
       <c r="D1997">
-        <v>152.8081959760175</v>
+        <v>152.8081955566749</v>
       </c>
       <c r="E1997" t="s">
         <v>2641</v>
@@ -42269,7 +42269,7 @@
         <v>1</v>
       </c>
       <c r="D1998">
-        <v>4584.245879280526</v>
+        <v>4584.245866700247</v>
       </c>
       <c r="E1998" t="s">
         <v>2640</v>
@@ -42286,7 +42286,7 @@
         <v>14</v>
       </c>
       <c r="D1999">
-        <v>77.04242589020676</v>
+        <v>77.04242752170958</v>
       </c>
       <c r="E1999" t="s">
         <v>2641</v>
@@ -42303,7 +42303,7 @@
         <v>1</v>
       </c>
       <c r="D2000">
-        <v>1155.636388353101</v>
+        <v>1155.636412825644</v>
       </c>
       <c r="E2000" t="s">
         <v>2640</v>
@@ -43782,7 +43782,7 @@
         <v>5</v>
       </c>
       <c r="D2087">
-        <v>806.5</v>
+        <v>815.5</v>
       </c>
       <c r="E2087" t="s">
         <v>2640</v>
@@ -44547,7 +44547,7 @@
         <v>29</v>
       </c>
       <c r="D2132">
-        <v>256.75</v>
+        <v>259.25</v>
       </c>
       <c r="E2132" t="s">
         <v>2640</v>
@@ -44564,7 +44564,7 @@
         <v>1</v>
       </c>
       <c r="D2133">
-        <v>454.25</v>
+        <v>454.5</v>
       </c>
       <c r="E2133" t="s">
         <v>2640</v>
@@ -45091,7 +45091,7 @@
         <v>1</v>
       </c>
       <c r="D2164">
-        <v>326.5</v>
+        <v>331.5</v>
       </c>
       <c r="E2164" t="s">
         <v>2640</v>
@@ -45176,7 +45176,7 @@
         <v>1</v>
       </c>
       <c r="D2169">
-        <v>737.6950865266639</v>
+        <v>737.696422157882</v>
       </c>
       <c r="E2169" t="s">
         <v>2640</v>
@@ -45414,7 +45414,7 @@
         <v>25</v>
       </c>
       <c r="D2183">
-        <v>272.5</v>
+        <v>272</v>
       </c>
       <c r="E2183" t="s">
         <v>2641</v>
@@ -45431,7 +45431,7 @@
         <v>29</v>
       </c>
       <c r="D2184">
-        <v>817.5</v>
+        <v>816</v>
       </c>
       <c r="E2184" t="s">
         <v>2640</v>
@@ -46094,7 +46094,7 @@
         <v>2</v>
       </c>
       <c r="D2223">
-        <v>94.89528393706308</v>
+        <v>95.67289995430527</v>
       </c>
       <c r="E2223" t="s">
         <v>2641</v>
@@ -46111,7 +46111,7 @@
         <v>1</v>
       </c>
       <c r="D2224">
-        <v>759.1622714965047</v>
+        <v>765.3831996344421</v>
       </c>
       <c r="E2224" t="s">
         <v>2640</v>
@@ -46196,7 +46196,7 @@
         <v>1</v>
       </c>
       <c r="D2229">
-        <v>234.5</v>
+        <v>233.75</v>
       </c>
       <c r="E2229" t="s">
         <v>2640</v>
@@ -46213,7 +46213,7 @@
         <v>1</v>
       </c>
       <c r="D2230">
-        <v>884.5</v>
+        <v>875.5</v>
       </c>
       <c r="E2230" t="s">
         <v>2640</v>
@@ -46383,7 +46383,7 @@
         <v>25</v>
       </c>
       <c r="D2240">
-        <v>255</v>
+        <v>254.5</v>
       </c>
       <c r="E2240" t="s">
         <v>2641</v>
@@ -46400,7 +46400,7 @@
         <v>29</v>
       </c>
       <c r="D2241">
-        <v>765</v>
+        <v>763.5</v>
       </c>
       <c r="E2241" t="s">
         <v>2640</v>
@@ -46587,7 +46587,7 @@
         <v>25</v>
       </c>
       <c r="D2252">
-        <v>64.75</v>
+        <v>64.5</v>
       </c>
       <c r="E2252" t="s">
         <v>2641</v>
@@ -46604,7 +46604,7 @@
         <v>15</v>
       </c>
       <c r="D2253">
-        <v>194.25</v>
+        <v>193.5</v>
       </c>
       <c r="E2253" t="s">
         <v>2640</v>
@@ -46621,7 +46621,7 @@
         <v>1</v>
       </c>
       <c r="D2254">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E2254" t="s">
         <v>2640</v>
@@ -46774,7 +46774,7 @@
         <v>1</v>
       </c>
       <c r="D2263">
-        <v>165.680380912755</v>
+        <v>165.5945394320681</v>
       </c>
       <c r="E2263" t="s">
         <v>2640</v>
@@ -47029,7 +47029,7 @@
         <v>23</v>
       </c>
       <c r="D2278">
-        <v>28.0349316138612</v>
+        <v>28.13860025289624</v>
       </c>
       <c r="E2278" t="s">
         <v>2641</v>
@@ -47046,7 +47046,7 @@
         <v>2</v>
       </c>
       <c r="D2279">
-        <v>168.2095896831672</v>
+        <v>168.8316015173775</v>
       </c>
       <c r="E2279" t="s">
         <v>2640</v>
@@ -47063,7 +47063,7 @@
         <v>1</v>
       </c>
       <c r="D2280">
-        <v>1009.257538099003</v>
+        <v>1012.989609104265</v>
       </c>
       <c r="E2280" t="s">
         <v>2640</v>
@@ -47726,7 +47726,7 @@
         <v>1</v>
       </c>
       <c r="D2319">
-        <v>166.25</v>
+        <v>167.25</v>
       </c>
       <c r="E2319" t="s">
         <v>2640</v>
@@ -47743,7 +47743,7 @@
         <v>29</v>
       </c>
       <c r="D2320">
-        <v>332.5</v>
+        <v>335</v>
       </c>
       <c r="E2320" t="s">
         <v>2640</v>
@@ -49579,7 +49579,7 @@
         <v>1</v>
       </c>
       <c r="D2428">
-        <v>287.4004883220326</v>
+        <v>288.9579339682069</v>
       </c>
       <c r="E2428" t="s">
         <v>2640</v>
@@ -49732,7 +49732,7 @@
         <v>1</v>
       </c>
       <c r="D2437">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E2437" t="s">
         <v>2640</v>
@@ -49749,7 +49749,7 @@
         <v>1</v>
       </c>
       <c r="D2438">
-        <v>637.5</v>
+        <v>637.4618169579293</v>
       </c>
       <c r="E2438" t="s">
         <v>2640</v>
@@ -49766,7 +49766,7 @@
         <v>1</v>
       </c>
       <c r="D2439">
-        <v>641</v>
+        <v>640.6244900398999</v>
       </c>
       <c r="E2439" t="s">
         <v>2640</v>
@@ -49783,7 +49783,7 @@
         <v>5</v>
       </c>
       <c r="D2440">
-        <v>317.25</v>
+        <v>321</v>
       </c>
       <c r="E2440" t="s">
         <v>2640</v>
@@ -49800,7 +49800,7 @@
         <v>1</v>
       </c>
       <c r="D2441">
-        <v>56</v>
+        <v>56.25</v>
       </c>
       <c r="E2441" t="s">
         <v>2640</v>
@@ -49834,7 +49834,7 @@
         <v>1</v>
       </c>
       <c r="D2443">
-        <v>78.75</v>
+        <v>79.25</v>
       </c>
       <c r="E2443" t="s">
         <v>2640</v>
@@ -49851,7 +49851,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>87</v>
+        <v>87.75</v>
       </c>
       <c r="E2444" t="s">
         <v>2640</v>
@@ -49868,7 +49868,7 @@
         <v>1</v>
       </c>
       <c r="D2445">
-        <v>33</v>
+        <v>33.25</v>
       </c>
       <c r="E2445" t="s">
         <v>2640</v>
@@ -49885,7 +49885,7 @@
         <v>1</v>
       </c>
       <c r="D2446">
-        <v>33.25</v>
+        <v>33.5</v>
       </c>
       <c r="E2446" t="s">
         <v>2640</v>
@@ -50497,7 +50497,7 @@
         <v>1</v>
       </c>
       <c r="D2482">
-        <v>615</v>
+        <v>615.2146670739234</v>
       </c>
       <c r="E2482" t="s">
         <v>2640</v>
@@ -50752,7 +50752,7 @@
         <v>2</v>
       </c>
       <c r="D2497">
-        <v>154.8858694025477</v>
+        <v>154.9480223989593</v>
       </c>
       <c r="E2497" t="s">
         <v>2641</v>
@@ -50769,7 +50769,7 @@
         <v>1</v>
       </c>
       <c r="D2498">
-        <v>619.543477610191</v>
+        <v>619.7920895958372</v>
       </c>
       <c r="E2498" t="s">
         <v>2640</v>
@@ -50786,7 +50786,7 @@
         <v>2</v>
       </c>
       <c r="D2499">
-        <v>155.4036939099688</v>
+        <v>155.5183854419646</v>
       </c>
       <c r="E2499" t="s">
         <v>2641</v>
@@ -50803,7 +50803,7 @@
         <v>1</v>
       </c>
       <c r="D2500">
-        <v>621.6147756398752</v>
+        <v>622.0735417678584</v>
       </c>
       <c r="E2500" t="s">
         <v>2640</v>
@@ -50854,7 +50854,7 @@
         <v>2</v>
       </c>
       <c r="D2503">
-        <v>155.243334882049</v>
+        <v>155.3085155490106</v>
       </c>
       <c r="E2503" t="s">
         <v>2641</v>
@@ -50871,7 +50871,7 @@
         <v>1</v>
       </c>
       <c r="D2504">
-        <v>620.973339528196</v>
+        <v>621.2340621960425</v>
       </c>
       <c r="E2504" t="s">
         <v>2640</v>
@@ -50888,7 +50888,7 @@
         <v>2</v>
       </c>
       <c r="D2505">
-        <v>276.2516051044403</v>
+        <v>276.3386993197955</v>
       </c>
       <c r="E2505" t="s">
         <v>2641</v>
@@ -50905,7 +50905,7 @@
         <v>1</v>
       </c>
       <c r="D2506">
-        <v>552.5032102088805</v>
+        <v>552.677398639591</v>
       </c>
       <c r="E2506" t="s">
         <v>2640</v>
@@ -50922,7 +50922,7 @@
         <v>2</v>
       </c>
       <c r="D2507">
-        <v>276.482848039607</v>
+        <v>276.7038268442717</v>
       </c>
       <c r="E2507" t="s">
         <v>2641</v>
@@ -50939,7 +50939,7 @@
         <v>1</v>
       </c>
       <c r="D2508">
-        <v>552.965696079214</v>
+        <v>553.4076536885434</v>
       </c>
       <c r="E2508" t="s">
         <v>2640</v>
@@ -50956,7 +50956,7 @@
         <v>2</v>
       </c>
       <c r="D2509">
-        <v>277.0508629010263</v>
+        <v>277.2742487190139</v>
       </c>
       <c r="E2509" t="s">
         <v>2641</v>
@@ -50973,7 +50973,7 @@
         <v>1</v>
       </c>
       <c r="D2510">
-        <v>554.1017258020527</v>
+        <v>554.5484974380279</v>
       </c>
       <c r="E2510" t="s">
         <v>2640</v>
@@ -50990,7 +50990,7 @@
         <v>2</v>
       </c>
       <c r="D2511">
-        <v>278.12995903665</v>
+        <v>278.1933735938557</v>
       </c>
       <c r="E2511" t="s">
         <v>2641</v>
@@ -51007,7 +51007,7 @@
         <v>1</v>
       </c>
       <c r="D2512">
-        <v>556.2599180733</v>
+        <v>556.3867471877114</v>
       </c>
       <c r="E2512" t="s">
         <v>2640</v>
@@ -51024,7 +51024,7 @@
         <v>2</v>
       </c>
       <c r="D2513">
-        <v>276.5544586375726</v>
+        <v>276.9262884011878</v>
       </c>
       <c r="E2513" t="s">
         <v>2641</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="D2514">
-        <v>553.1089172751452</v>
+        <v>553.8525768023756</v>
       </c>
       <c r="E2514" t="s">
         <v>2640</v>
@@ -51772,7 +51772,7 @@
         <v>5</v>
       </c>
       <c r="D2557">
-        <v>546.5</v>
+        <v>543</v>
       </c>
       <c r="E2557" t="s">
         <v>2640</v>
@@ -52112,7 +52112,7 @@
         <v>1</v>
       </c>
       <c r="D2577">
-        <v>464.7927558055543</v>
+        <v>464.4076224506659</v>
       </c>
       <c r="E2577" t="s">
         <v>2640</v>
@@ -52163,7 +52163,7 @@
         <v>12</v>
       </c>
       <c r="D2580">
-        <v>395.75</v>
+        <v>386.25</v>
       </c>
       <c r="E2580" t="s">
         <v>2640</v>
@@ -52180,7 +52180,7 @@
         <v>1</v>
       </c>
       <c r="D2581">
-        <v>464.6986449678226</v>
+        <v>463.562873693039</v>
       </c>
       <c r="E2581" t="s">
         <v>2640</v>
@@ -53812,7 +53812,7 @@
         <v>1</v>
       </c>
       <c r="D2677">
-        <v>625.9623022356294</v>
+        <v>625.9651990910103</v>
       </c>
       <c r="E2677" t="s">
         <v>2640</v>
@@ -53829,7 +53829,7 @@
         <v>1</v>
       </c>
       <c r="D2678">
-        <v>626.0437134115137</v>
+        <v>626.0519945383932</v>
       </c>
       <c r="E2678" t="s">
         <v>2640</v>
@@ -53863,7 +53863,7 @@
         <v>1</v>
       </c>
       <c r="D2680">
-        <v>624.43837087999</v>
+        <v>624.4783760835535</v>
       </c>
       <c r="E2680" t="s">
         <v>2640</v>
@@ -53897,7 +53897,7 @@
         <v>1</v>
       </c>
       <c r="D2682">
-        <v>397.6634208539173</v>
+        <v>397.6636051083657</v>
       </c>
       <c r="E2682" t="s">
         <v>2640</v>
@@ -53914,7 +53914,7 @@
         <v>1</v>
       </c>
       <c r="D2683">
-        <v>397.6632919575579</v>
+        <v>397.6634021581318</v>
       </c>
       <c r="E2683" t="s">
         <v>2640</v>
@@ -53931,7 +53931,7 @@
         <v>1</v>
       </c>
       <c r="D2684">
-        <v>397.6596842982154</v>
+        <v>397.6605860522035</v>
       </c>
       <c r="E2684" t="s">
         <v>2640</v>
@@ -53965,7 +53965,7 @@
         <v>1</v>
       </c>
       <c r="D2686">
-        <v>397.6641324431164</v>
+        <v>397.6642816241905</v>
       </c>
       <c r="E2686" t="s">
         <v>2640</v>
@@ -54781,7 +54781,7 @@
         <v>2</v>
       </c>
       <c r="D2734">
-        <v>222.5</v>
+        <v>222.25</v>
       </c>
       <c r="E2734" t="s">
         <v>2640</v>
@@ -54900,7 +54900,7 @@
         <v>1</v>
       </c>
       <c r="D2741">
-        <v>159.5</v>
+        <v>162</v>
       </c>
       <c r="E2741" t="s">
         <v>2640</v>
@@ -55036,7 +55036,7 @@
         <v>11</v>
       </c>
       <c r="D2749">
-        <v>60.2907303242134</v>
+        <v>60.38187753141423</v>
       </c>
       <c r="E2749" t="s">
         <v>2641</v>
@@ -55053,7 +55053,7 @@
         <v>15</v>
       </c>
       <c r="D2750">
-        <v>723.4887638905608</v>
+        <v>724.5825303769708</v>
       </c>
       <c r="E2750" t="s">
         <v>2640</v>
@@ -55070,7 +55070,7 @@
         <v>16</v>
       </c>
       <c r="D2751">
-        <v>1446.977527781122</v>
+        <v>1449.165060753942</v>
       </c>
       <c r="E2751" t="s">
         <v>2640</v>
@@ -55087,7 +55087,7 @@
         <v>1</v>
       </c>
       <c r="D2752">
-        <v>2893.955055562243</v>
+        <v>2898.330121507883</v>
       </c>
       <c r="E2752" t="s">
         <v>2640</v>
@@ -55359,7 +55359,7 @@
         <v>25</v>
       </c>
       <c r="D2768">
-        <v>398.25</v>
+        <v>398.75</v>
       </c>
       <c r="E2768" t="s">
         <v>2641</v>
@@ -55376,7 +55376,7 @@
         <v>29</v>
       </c>
       <c r="D2769">
-        <v>796.5</v>
+        <v>797.5</v>
       </c>
       <c r="E2769" t="s">
         <v>2640</v>
@@ -55852,7 +55852,7 @@
         <v>1</v>
       </c>
       <c r="D2797">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E2797" t="s">
         <v>2640</v>
@@ -55937,7 +55937,7 @@
         <v>3</v>
       </c>
       <c r="D2802">
-        <v>400.75</v>
+        <v>399.25</v>
       </c>
       <c r="E2802" t="s">
         <v>2641</v>
@@ -55954,7 +55954,7 @@
         <v>1</v>
       </c>
       <c r="D2803">
-        <v>801.5</v>
+        <v>798.5</v>
       </c>
       <c r="E2803" t="s">
         <v>2640</v>
@@ -56073,7 +56073,7 @@
         <v>2</v>
       </c>
       <c r="D2810">
-        <v>104.4308730437577</v>
+        <v>105.2790147700373</v>
       </c>
       <c r="E2810" t="s">
         <v>2640</v>
@@ -56090,7 +56090,7 @@
         <v>2</v>
       </c>
       <c r="D2811">
-        <v>104.4308712361096</v>
+        <v>105.2790129477083</v>
       </c>
       <c r="E2811" t="s">
         <v>2640</v>
@@ -56107,7 +56107,7 @@
         <v>2</v>
       </c>
       <c r="D2812">
-        <v>104.4308714352331</v>
+        <v>105.279013148449</v>
       </c>
       <c r="E2812" t="s">
         <v>2640</v>
@@ -56141,7 +56141,7 @@
         <v>2</v>
       </c>
       <c r="D2814">
-        <v>104.4308730386867</v>
+        <v>105.2790147649251</v>
       </c>
       <c r="E2814" t="s">
         <v>2640</v>
@@ -57620,7 +57620,7 @@
         <v>23</v>
       </c>
       <c r="D2901">
-        <v>46.5</v>
+        <v>46.75</v>
       </c>
       <c r="E2901" t="s">
         <v>2641</v>
@@ -57637,7 +57637,7 @@
         <v>15</v>
       </c>
       <c r="D2902">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="E2902" t="s">
         <v>2640</v>
@@ -57654,7 +57654,7 @@
         <v>1</v>
       </c>
       <c r="D2903">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E2903" t="s">
         <v>2640</v>
@@ -57909,7 +57909,7 @@
         <v>23</v>
       </c>
       <c r="D2918">
-        <v>50.45734548157497</v>
+        <v>50.45735174054602</v>
       </c>
       <c r="E2918" t="s">
         <v>2641</v>
@@ -57926,7 +57926,7 @@
         <v>1</v>
       </c>
       <c r="D2919">
-        <v>1210.976291557799</v>
+        <v>1210.976441773105</v>
       </c>
       <c r="E2919" t="s">
         <v>2640</v>
@@ -57943,7 +57943,7 @@
         <v>23</v>
       </c>
       <c r="D2920">
-        <v>50.45740442021891</v>
+        <v>50.4574044202189</v>
       </c>
       <c r="E2920" t="s">
         <v>2641</v>
@@ -58436,7 +58436,7 @@
         <v>1</v>
       </c>
       <c r="D2949">
-        <v>148</v>
+        <v>149.25</v>
       </c>
       <c r="E2949" t="s">
         <v>2640</v>
@@ -59099,7 +59099,7 @@
         <v>29</v>
       </c>
       <c r="D2988">
-        <v>209.75</v>
+        <v>211.25</v>
       </c>
       <c r="E2988" t="s">
         <v>2640</v>
@@ -59201,7 +59201,7 @@
         <v>29</v>
       </c>
       <c r="D2994">
-        <v>312</v>
+        <v>315.25</v>
       </c>
       <c r="E2994" t="s">
         <v>2640</v>
@@ -59490,7 +59490,7 @@
         <v>1</v>
       </c>
       <c r="D3011">
-        <v>473.25</v>
+        <v>478.5</v>
       </c>
       <c r="E3011" t="s">
         <v>2640</v>
@@ -59507,7 +59507,7 @@
         <v>29</v>
       </c>
       <c r="D3012">
-        <v>358.75</v>
+        <v>361.5</v>
       </c>
       <c r="E3012" t="s">
         <v>2640</v>
@@ -61513,7 +61513,7 @@
         <v>2</v>
       </c>
       <c r="D3130">
-        <v>144.25</v>
+        <v>145.5</v>
       </c>
       <c r="E3130" t="s">
         <v>2640</v>
@@ -61530,7 +61530,7 @@
         <v>2</v>
       </c>
       <c r="D3131">
-        <v>130.4761964076895</v>
+        <v>130.4764333135378</v>
       </c>
       <c r="E3131" t="s">
         <v>2640</v>
@@ -61547,7 +61547,7 @@
         <v>2</v>
       </c>
       <c r="D3132">
-        <v>130.4390097564838</v>
+        <v>130.4399287691504</v>
       </c>
       <c r="E3132" t="s">
         <v>2640</v>
@@ -61564,7 +61564,7 @@
         <v>2</v>
       </c>
       <c r="D3133">
-        <v>130.4650994178815</v>
+        <v>130.4659561476829</v>
       </c>
       <c r="E3133" t="s">
         <v>2640</v>
@@ -61717,7 +61717,7 @@
         <v>3</v>
       </c>
       <c r="D3142">
-        <v>82</v>
+        <v>82.25</v>
       </c>
       <c r="E3142" t="s">
         <v>2641</v>
@@ -61734,7 +61734,7 @@
         <v>1</v>
       </c>
       <c r="D3143">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E3143" t="s">
         <v>2640</v>
@@ -61751,7 +61751,7 @@
         <v>2</v>
       </c>
       <c r="D3144">
-        <v>196.75</v>
+        <v>198</v>
       </c>
       <c r="E3144" t="s">
         <v>2640</v>
@@ -62074,7 +62074,7 @@
         <v>10</v>
       </c>
       <c r="D3163">
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="E3163" t="s">
         <v>2641</v>
@@ -62091,7 +62091,7 @@
         <v>1</v>
       </c>
       <c r="D3164">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E3164" t="s">
         <v>2640</v>
@@ -63128,7 +63128,7 @@
         <v>29</v>
       </c>
       <c r="D3225">
-        <v>262.5</v>
+        <v>264.5</v>
       </c>
       <c r="E3225" t="s">
         <v>2640</v>
@@ -63298,7 +63298,7 @@
         <v>7</v>
       </c>
       <c r="D3235">
-        <v>124</v>
+        <v>122.5</v>
       </c>
       <c r="E3235" t="s">
         <v>2641</v>
@@ -63315,7 +63315,7 @@
         <v>1</v>
       </c>
       <c r="D3236">
-        <v>1488</v>
+        <v>1470</v>
       </c>
       <c r="E3236" t="s">
         <v>2640</v>
@@ -64046,7 +64046,7 @@
         <v>80</v>
       </c>
       <c r="D3279">
-        <v>337</v>
+        <v>337.0872909965379</v>
       </c>
       <c r="E3279" t="s">
         <v>2641</v>
@@ -64063,7 +64063,7 @@
         <v>29</v>
       </c>
       <c r="D3280">
-        <v>674</v>
+        <v>674.1745819930759</v>
       </c>
       <c r="E3280" t="s">
         <v>2640</v>
@@ -64114,7 +64114,7 @@
         <v>3</v>
       </c>
       <c r="D3283">
-        <v>32.25</v>
+        <v>32.75</v>
       </c>
       <c r="E3283" t="s">
         <v>2641</v>
@@ -64131,7 +64131,7 @@
         <v>1</v>
       </c>
       <c r="D3284">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="E3284" t="s">
         <v>2640</v>
@@ -64182,7 +64182,7 @@
         <v>80</v>
       </c>
       <c r="D3287">
-        <v>340.25</v>
+        <v>342.6941465955245</v>
       </c>
       <c r="E3287" t="s">
         <v>2641</v>
@@ -64199,7 +64199,7 @@
         <v>29</v>
       </c>
       <c r="D3288">
-        <v>680.5</v>
+        <v>685.388293191049</v>
       </c>
       <c r="E3288" t="s">
         <v>2640</v>
@@ -64216,7 +64216,7 @@
         <v>80</v>
       </c>
       <c r="D3289">
-        <v>369.75</v>
+        <v>373.5</v>
       </c>
       <c r="E3289" t="s">
         <v>2641</v>
@@ -64233,7 +64233,7 @@
         <v>29</v>
       </c>
       <c r="D3290">
-        <v>739.5</v>
+        <v>747</v>
       </c>
       <c r="E3290" t="s">
         <v>2640</v>
@@ -65032,7 +65032,7 @@
         <v>3</v>
       </c>
       <c r="D3337">
-        <v>68.97863779627048</v>
+        <v>68.86236896155673</v>
       </c>
       <c r="E3337" t="s">
         <v>2641</v>
@@ -65049,7 +65049,7 @@
         <v>1</v>
       </c>
       <c r="D3338">
-        <v>275.9145511850819</v>
+        <v>275.4494758462269</v>
       </c>
       <c r="E3338" t="s">
         <v>2640</v>
@@ -65100,7 +65100,7 @@
         <v>3</v>
       </c>
       <c r="D3341">
-        <v>215.2774707870758</v>
+        <v>214.8226907107597</v>
       </c>
       <c r="E3341" t="s">
         <v>2641</v>
@@ -65117,7 +65117,7 @@
         <v>1</v>
       </c>
       <c r="D3342">
-        <v>2583.32964944491</v>
+        <v>2577.872288529116</v>
       </c>
       <c r="E3342" t="s">
         <v>2640</v>
@@ -65134,7 +65134,7 @@
         <v>3</v>
       </c>
       <c r="D3343">
-        <v>215.7899923672127</v>
+        <v>215.2255200486171</v>
       </c>
       <c r="E3343" t="s">
         <v>2641</v>
@@ -65151,7 +65151,7 @@
         <v>1</v>
       </c>
       <c r="D3344">
-        <v>2589.479908406553</v>
+        <v>2582.706240583405</v>
       </c>
       <c r="E3344" t="s">
         <v>2640</v>
@@ -65168,7 +65168,7 @@
         <v>3</v>
       </c>
       <c r="D3345">
-        <v>215.7533092416116</v>
+        <v>215.2558091855383</v>
       </c>
       <c r="E3345" t="s">
         <v>2641</v>
@@ -65185,7 +65185,7 @@
         <v>1</v>
       </c>
       <c r="D3346">
-        <v>2589.039710899339</v>
+        <v>2583.06971022646</v>
       </c>
       <c r="E3346" t="s">
         <v>2640</v>
@@ -65236,7 +65236,7 @@
         <v>3</v>
       </c>
       <c r="D3349">
-        <v>215.5234450625571</v>
+        <v>215.3078128251459</v>
       </c>
       <c r="E3349" t="s">
         <v>2641</v>
@@ -65253,7 +65253,7 @@
         <v>1</v>
       </c>
       <c r="D3350">
-        <v>2586.281340750685</v>
+        <v>2583.693753901751</v>
       </c>
       <c r="E3350" t="s">
         <v>2640</v>
@@ -65270,7 +65270,7 @@
         <v>3</v>
       </c>
       <c r="D3351">
-        <v>214.75</v>
+        <v>214.3596754364074</v>
       </c>
       <c r="E3351" t="s">
         <v>2641</v>
@@ -65287,7 +65287,7 @@
         <v>1</v>
       </c>
       <c r="D3352">
-        <v>2577</v>
+        <v>2572.316105236889</v>
       </c>
       <c r="E3352" t="s">
         <v>2640</v>
@@ -66375,7 +66375,7 @@
         <v>3</v>
       </c>
       <c r="D3416">
-        <v>96.10160694325847</v>
+        <v>96.02585320160046</v>
       </c>
       <c r="E3416" t="s">
         <v>2641</v>
@@ -66392,7 +66392,7 @@
         <v>2</v>
       </c>
       <c r="D3417">
-        <v>288.3048208297754</v>
+        <v>288.0775596048014</v>
       </c>
       <c r="E3417" t="s">
         <v>2640</v>
@@ -66409,7 +66409,7 @@
         <v>3</v>
       </c>
       <c r="D3418">
-        <v>76.39986549096689</v>
+        <v>76.27845839492154</v>
       </c>
       <c r="E3418" t="s">
         <v>2641</v>
@@ -66426,7 +66426,7 @@
         <v>2</v>
       </c>
       <c r="D3419">
-        <v>229.1995964729007</v>
+        <v>228.8353751847646</v>
       </c>
       <c r="E3419" t="s">
         <v>2640</v>
@@ -66443,7 +66443,7 @@
         <v>3</v>
       </c>
       <c r="D3420">
-        <v>76.30858840382771</v>
+        <v>76.23966489281032</v>
       </c>
       <c r="E3420" t="s">
         <v>2641</v>
@@ -66460,7 +66460,7 @@
         <v>2</v>
       </c>
       <c r="D3421">
-        <v>228.9257652114831</v>
+        <v>228.718994678431</v>
       </c>
       <c r="E3421" t="s">
         <v>2640</v>
@@ -67939,7 +67939,7 @@
         <v>10</v>
       </c>
       <c r="D3508">
-        <v>69.25</v>
+        <v>69</v>
       </c>
       <c r="E3508" t="s">
         <v>2641</v>
@@ -67956,7 +67956,7 @@
         <v>3</v>
       </c>
       <c r="D3509">
-        <v>346.25</v>
+        <v>345</v>
       </c>
       <c r="E3509" t="s">
         <v>2640</v>
@@ -67973,7 +67973,7 @@
         <v>1</v>
       </c>
       <c r="D3510">
-        <v>3462.5</v>
+        <v>3450</v>
       </c>
       <c r="E3510" t="s">
         <v>2640</v>
@@ -68738,7 +68738,7 @@
         <v>7</v>
       </c>
       <c r="D3555">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="E3555" t="s">
         <v>2641</v>
@@ -68755,7 +68755,7 @@
         <v>1</v>
       </c>
       <c r="D3556">
-        <v>307.5</v>
+        <v>300</v>
       </c>
       <c r="E3556" t="s">
         <v>2640</v>
@@ -69741,7 +69741,7 @@
         <v>2</v>
       </c>
       <c r="D3614">
-        <v>205.5</v>
+        <v>196.079555162385</v>
       </c>
       <c r="E3614" t="s">
         <v>2640</v>
@@ -69775,7 +69775,7 @@
         <v>2</v>
       </c>
       <c r="D3616">
-        <v>198.9353358497346</v>
+        <v>198.398185302149</v>
       </c>
       <c r="E3616" t="s">
         <v>2640</v>
@@ -69792,7 +69792,7 @@
         <v>2</v>
       </c>
       <c r="D3617">
-        <v>201.4010746469193</v>
+        <v>201.5</v>
       </c>
       <c r="E3617" t="s">
         <v>2640</v>
@@ -69809,7 +69809,7 @@
         <v>2</v>
       </c>
       <c r="D3618">
-        <v>201.1464797165895</v>
+        <v>197.75</v>
       </c>
       <c r="E3618" t="s">
         <v>2640</v>
@@ -70166,7 +70166,7 @@
         <v>2</v>
       </c>
       <c r="D3639">
-        <v>369.25</v>
+        <v>370.75</v>
       </c>
       <c r="E3639" t="s">
         <v>2641</v>
@@ -70183,7 +70183,7 @@
         <v>1</v>
       </c>
       <c r="D3640">
-        <v>2215.5</v>
+        <v>2224.5</v>
       </c>
       <c r="E3640" t="s">
         <v>2640</v>
@@ -70200,7 +70200,7 @@
         <v>2</v>
       </c>
       <c r="D3641">
-        <v>371.9839339280296</v>
+        <v>371.8538455864378</v>
       </c>
       <c r="E3641" t="s">
         <v>2641</v>
@@ -70217,7 +70217,7 @@
         <v>1</v>
       </c>
       <c r="D3642">
-        <v>2231.903603568177</v>
+        <v>2231.123073518627</v>
       </c>
       <c r="E3642" t="s">
         <v>2640</v>
@@ -70268,7 +70268,7 @@
         <v>2</v>
       </c>
       <c r="D3645">
-        <v>371.9782795408719</v>
+        <v>374.8774243827951</v>
       </c>
       <c r="E3645" t="s">
         <v>2641</v>
@@ -70285,7 +70285,7 @@
         <v>1</v>
       </c>
       <c r="D3646">
-        <v>2231.869677245231</v>
+        <v>2249.26454629677</v>
       </c>
       <c r="E3646" t="s">
         <v>2640</v>
@@ -70302,7 +70302,7 @@
         <v>2</v>
       </c>
       <c r="D3647">
-        <v>371.2607352056113</v>
+        <v>371.1311521110149</v>
       </c>
       <c r="E3647" t="s">
         <v>2641</v>
@@ -70319,7 +70319,7 @@
         <v>1</v>
       </c>
       <c r="D3648">
-        <v>2227.564411233668</v>
+        <v>2226.786912666089</v>
       </c>
       <c r="E3648" t="s">
         <v>2640</v>
@@ -70336,7 +70336,7 @@
         <v>2</v>
       </c>
       <c r="D3649">
-        <v>165.25</v>
+        <v>165.75</v>
       </c>
       <c r="E3649" t="s">
         <v>2641</v>
@@ -70353,7 +70353,7 @@
         <v>1</v>
       </c>
       <c r="D3650">
-        <v>991.5</v>
+        <v>994.5</v>
       </c>
       <c r="E3650" t="s">
         <v>2640</v>
@@ -70404,7 +70404,7 @@
         <v>2</v>
       </c>
       <c r="D3653">
-        <v>169.5</v>
+        <v>170.25</v>
       </c>
       <c r="E3653" t="s">
         <v>2641</v>
@@ -70421,7 +70421,7 @@
         <v>1</v>
       </c>
       <c r="D3654">
-        <v>1017</v>
+        <v>1021.5</v>
       </c>
       <c r="E3654" t="s">
         <v>2640</v>
@@ -70472,7 +70472,7 @@
         <v>1</v>
       </c>
       <c r="D3657">
-        <v>491.25</v>
+        <v>495.5</v>
       </c>
       <c r="E3657" t="s">
         <v>2640</v>
@@ -70489,7 +70489,7 @@
         <v>1</v>
       </c>
       <c r="D3658">
-        <v>645.25</v>
+        <v>650.5</v>
       </c>
       <c r="E3658" t="s">
         <v>2640</v>
@@ -71662,7 +71662,7 @@
         <v>3</v>
       </c>
       <c r="D3727">
-        <v>73.25</v>
+        <v>74</v>
       </c>
       <c r="E3727" t="s">
         <v>2641</v>
@@ -71679,7 +71679,7 @@
         <v>1</v>
       </c>
       <c r="D3728">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="E3728" t="s">
         <v>2640</v>
@@ -71696,7 +71696,7 @@
         <v>2</v>
       </c>
       <c r="D3729">
-        <v>52.30613359904024</v>
+        <v>52.30613359903995</v>
       </c>
       <c r="E3729" t="s">
         <v>2641</v>
@@ -71713,7 +71713,7 @@
         <v>1</v>
       </c>
       <c r="D3730">
-        <v>627.6736031884828</v>
+        <v>627.6736031884794</v>
       </c>
       <c r="E3730" t="s">
         <v>2640</v>
@@ -71764,7 +71764,7 @@
         <v>2</v>
       </c>
       <c r="D3733">
-        <v>52.30613359890014</v>
+        <v>52.30613359894109</v>
       </c>
       <c r="E3733" t="s">
         <v>2641</v>
@@ -71781,7 +71781,7 @@
         <v>1</v>
       </c>
       <c r="D3734">
-        <v>627.6736031868016</v>
+        <v>627.6736031872931</v>
       </c>
       <c r="E3734" t="s">
         <v>2640</v>
@@ -71798,7 +71798,7 @@
         <v>2</v>
       </c>
       <c r="D3735">
-        <v>52.30613359706392</v>
+        <v>52.30613359748389</v>
       </c>
       <c r="E3735" t="s">
         <v>2641</v>
@@ -71815,7 +71815,7 @@
         <v>1</v>
       </c>
       <c r="D3736">
-        <v>627.673603164767</v>
+        <v>627.6736031698067</v>
       </c>
       <c r="E3736" t="s">
         <v>2640</v>
@@ -71849,7 +71849,7 @@
         <v>3</v>
       </c>
       <c r="D3738">
-        <v>136.3563556495986</v>
+        <v>137.747093826809</v>
       </c>
       <c r="E3738" t="s">
         <v>2641</v>
@@ -71866,7 +71866,7 @@
         <v>1</v>
       </c>
       <c r="D3739">
-        <v>818.1381338975916</v>
+        <v>826.482562960854</v>
       </c>
       <c r="E3739" t="s">
         <v>2640</v>
@@ -71883,7 +71883,7 @@
         <v>3</v>
       </c>
       <c r="D3740">
-        <v>70.75</v>
+        <v>69.75</v>
       </c>
       <c r="E3740" t="s">
         <v>2641</v>
@@ -71900,7 +71900,7 @@
         <v>1</v>
       </c>
       <c r="D3741">
-        <v>424.5</v>
+        <v>418.5</v>
       </c>
       <c r="E3741" t="s">
         <v>2640</v>
@@ -72393,7 +72393,7 @@
         <v>11</v>
       </c>
       <c r="D3770">
-        <v>17.31749460699658</v>
+        <v>17.40629608674918</v>
       </c>
       <c r="E3770" t="s">
         <v>2641</v>
@@ -72410,7 +72410,7 @@
         <v>1</v>
       </c>
       <c r="D3771">
-        <v>207.809935283959</v>
+        <v>208.8755530409902</v>
       </c>
       <c r="E3771" t="s">
         <v>2640</v>
@@ -72495,7 +72495,7 @@
         <v>11</v>
       </c>
       <c r="D3776">
-        <v>17.26440575465584</v>
+        <v>17.35293500284417</v>
       </c>
       <c r="E3776" t="s">
         <v>2641</v>
@@ -72512,7 +72512,7 @@
         <v>1</v>
       </c>
       <c r="D3777">
-        <v>207.1728690558701</v>
+        <v>208.23522003413</v>
       </c>
       <c r="E3777" t="s">
         <v>2640</v>
@@ -72529,7 +72529,7 @@
         <v>11</v>
       </c>
       <c r="D3778">
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="E3778" t="s">
         <v>2641</v>
@@ -72546,7 +72546,7 @@
         <v>1</v>
       </c>
       <c r="D3779">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E3779" t="s">
         <v>2640</v>
@@ -72597,7 +72597,7 @@
         <v>1</v>
       </c>
       <c r="D3782">
-        <v>55.5</v>
+        <v>55.31696581105631</v>
       </c>
       <c r="E3782" t="s">
         <v>2640</v>
@@ -72614,7 +72614,7 @@
         <v>1</v>
       </c>
       <c r="D3783">
-        <v>55.75</v>
+        <v>55.55310538034423</v>
       </c>
       <c r="E3783" t="s">
         <v>2640</v>
@@ -72631,7 +72631,7 @@
         <v>1</v>
       </c>
       <c r="D3784">
-        <v>56.40190817814774</v>
+        <v>56.40583422499786</v>
       </c>
       <c r="E3784" t="s">
         <v>2640</v>
@@ -72648,7 +72648,7 @@
         <v>1</v>
       </c>
       <c r="D3785">
-        <v>56.3903734566166</v>
+        <v>56.41694208775732</v>
       </c>
       <c r="E3785" t="s">
         <v>2640</v>
@@ -72699,7 +72699,7 @@
         <v>1</v>
       </c>
       <c r="D3788">
-        <v>64.06581759250224</v>
+        <v>64.54927516284181</v>
       </c>
       <c r="E3788" t="s">
         <v>2640</v>
@@ -72988,7 +72988,7 @@
         <v>1</v>
       </c>
       <c r="D3805">
-        <v>328.5</v>
+        <v>328.25</v>
       </c>
       <c r="E3805" t="s">
         <v>2640</v>
@@ -73005,7 +73005,7 @@
         <v>1</v>
       </c>
       <c r="D3806">
-        <v>79.5</v>
+        <v>77.5</v>
       </c>
       <c r="E3806" t="s">
         <v>2640</v>
@@ -73022,7 +73022,7 @@
         <v>1</v>
       </c>
       <c r="D3807">
-        <v>77.98604412205579</v>
+        <v>76.75</v>
       </c>
       <c r="E3807" t="s">
         <v>2640</v>
@@ -73039,7 +73039,7 @@
         <v>1</v>
       </c>
       <c r="D3808">
-        <v>77.94829381310849</v>
+        <v>75.5</v>
       </c>
       <c r="E3808" t="s">
         <v>2640</v>
@@ -73056,7 +73056,7 @@
         <v>1</v>
       </c>
       <c r="D3809">
-        <v>78.75</v>
+        <v>77</v>
       </c>
       <c r="E3809" t="s">
         <v>2640</v>
@@ -73923,7 +73923,7 @@
         <v>7</v>
       </c>
       <c r="D3860">
-        <v>85.5</v>
+        <v>84.91095605875019</v>
       </c>
       <c r="E3860" t="s">
         <v>2641</v>
@@ -73940,7 +73940,7 @@
         <v>1</v>
       </c>
       <c r="D3861">
-        <v>1368</v>
+        <v>1358.575296940003</v>
       </c>
       <c r="E3861" t="s">
         <v>2640</v>
@@ -73957,7 +73957,7 @@
         <v>7</v>
       </c>
       <c r="D3862">
-        <v>85.25</v>
+        <v>85.00578877986815</v>
       </c>
       <c r="E3862" t="s">
         <v>2641</v>
@@ -73974,7 +73974,7 @@
         <v>1</v>
       </c>
       <c r="D3863">
-        <v>1364</v>
+        <v>1360.09262047789</v>
       </c>
       <c r="E3863" t="s">
         <v>2640</v>
@@ -74195,7 +74195,7 @@
         <v>7</v>
       </c>
       <c r="D3876">
-        <v>132.25</v>
+        <v>132</v>
       </c>
       <c r="E3876" t="s">
         <v>2641</v>
@@ -74212,7 +74212,7 @@
         <v>1</v>
       </c>
       <c r="D3877">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E3877" t="s">
         <v>2640</v>
@@ -74348,7 +74348,7 @@
         <v>1</v>
       </c>
       <c r="D3885">
-        <v>92.5</v>
+        <v>95.50879891508491</v>
       </c>
       <c r="E3885" t="s">
         <v>2640</v>
@@ -74892,7 +74892,7 @@
         <v>3</v>
       </c>
       <c r="D3917">
-        <v>54.58997499432254</v>
+        <v>54.60254421423786</v>
       </c>
       <c r="E3917" t="s">
         <v>2641</v>
@@ -74909,7 +74909,7 @@
         <v>1</v>
       </c>
       <c r="D3918">
-        <v>655.0796999318704</v>
+        <v>655.2305305708543</v>
       </c>
       <c r="E3918" t="s">
         <v>2640</v>
@@ -75997,7 +75997,7 @@
         <v>29</v>
       </c>
       <c r="D3982">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E3982" t="s">
         <v>2640</v>
@@ -76014,7 +76014,7 @@
         <v>29</v>
       </c>
       <c r="D3983">
-        <v>410.9006081894023</v>
+        <v>413.9020427947464</v>
       </c>
       <c r="E3983" t="s">
         <v>2640</v>
@@ -76031,7 +76031,7 @@
         <v>29</v>
       </c>
       <c r="D3984">
-        <v>410.8720915221339</v>
+        <v>413.8767889887056</v>
       </c>
       <c r="E3984" t="s">
         <v>2640</v>
@@ -76048,7 +76048,7 @@
         <v>29</v>
       </c>
       <c r="D3985">
-        <v>410.889448495701</v>
+        <v>413.890795461029</v>
       </c>
       <c r="E3985" t="s">
         <v>2640</v>
@@ -76065,7 +76065,7 @@
         <v>1</v>
       </c>
       <c r="D3986">
-        <v>719</v>
+        <v>724.25</v>
       </c>
       <c r="E3986" t="s">
         <v>2640</v>

--- a/manual/output_1223_chunk_2.xlsx
+++ b/manual/output_1223_chunk_2.xlsx
@@ -9654,7 +9654,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>144.75</v>
+        <v>145.5</v>
       </c>
       <c r="E80" t="s">
         <v>2638</v>
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>2316</v>
+        <v>2328</v>
       </c>
       <c r="E81" t="s">
         <v>2637</v>
@@ -9756,7 +9756,7 @@
         <v>2</v>
       </c>
       <c r="D86">
-        <v>149.5</v>
+        <v>150.25</v>
       </c>
       <c r="E86" t="s">
         <v>2638</v>
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>2392</v>
+        <v>2404</v>
       </c>
       <c r="E87" t="s">
         <v>2637</v>
@@ -10351,7 +10351,7 @@
         <v>23</v>
       </c>
       <c r="D121">
-        <v>146.0302311250522</v>
+        <v>148.5078850264069</v>
       </c>
       <c r="E121" t="s">
         <v>2638</v>
@@ -10368,7 +10368,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>876.1813867503134</v>
+        <v>891.0473101584412</v>
       </c>
       <c r="E122" t="s">
         <v>2637</v>
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>3504.725547001254</v>
+        <v>3564.189240633765</v>
       </c>
       <c r="E123" t="s">
         <v>2637</v>
@@ -10402,7 +10402,7 @@
         <v>23</v>
       </c>
       <c r="D124">
-        <v>145.7002769155718</v>
+        <v>148.1666524339773</v>
       </c>
       <c r="E124" t="s">
         <v>2638</v>
@@ -10419,7 +10419,7 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>874.2016614934309</v>
+        <v>888.9999146038637</v>
       </c>
       <c r="E125" t="s">
         <v>2637</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>3496.806645973724</v>
+        <v>3555.999658415455</v>
       </c>
       <c r="E126" t="s">
         <v>2637</v>
@@ -10725,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>264.75</v>
+        <v>270.75</v>
       </c>
       <c r="E143" t="s">
         <v>2637</v>
@@ -14244,7 +14244,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>191.3341602152202</v>
+        <v>191.7549520439665</v>
       </c>
       <c r="E350" t="s">
         <v>2637</v>
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>191.3448577195127</v>
+        <v>191.7656966543132</v>
       </c>
       <c r="E351" t="s">
         <v>2637</v>
@@ -14278,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>191.333386754277</v>
+        <v>191.7541751772197</v>
       </c>
       <c r="E352" t="s">
         <v>2637</v>
@@ -14295,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>191.3997713929824</v>
+        <v>191.8208521796561</v>
       </c>
       <c r="E353" t="s">
         <v>2637</v>
@@ -16641,7 +16641,7 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>695</v>
+        <v>695.75</v>
       </c>
       <c r="E491" t="s">
         <v>2637</v>
@@ -19259,7 +19259,7 @@
         <v>3</v>
       </c>
       <c r="D645">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E645" t="s">
         <v>2638</v>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
       <c r="D646">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="E646" t="s">
         <v>2637</v>
@@ -19293,7 +19293,7 @@
         <v>7</v>
       </c>
       <c r="D647">
-        <v>191.25</v>
+        <v>193</v>
       </c>
       <c r="E647" t="s">
         <v>2638</v>
@@ -19310,7 +19310,7 @@
         <v>1</v>
       </c>
       <c r="D648">
-        <v>1912.5</v>
+        <v>1930</v>
       </c>
       <c r="E648" t="s">
         <v>2637</v>
@@ -19327,7 +19327,7 @@
         <v>7</v>
       </c>
       <c r="D649">
-        <v>86.75</v>
+        <v>87.25</v>
       </c>
       <c r="E649" t="s">
         <v>2638</v>
@@ -19344,7 +19344,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="E650" t="s">
         <v>2637</v>
@@ -19497,7 +19497,7 @@
         <v>7</v>
       </c>
       <c r="D659">
-        <v>137.5</v>
+        <v>138.75</v>
       </c>
       <c r="E659" t="s">
         <v>2638</v>
@@ -19514,7 +19514,7 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <v>2750</v>
+        <v>2775</v>
       </c>
       <c r="E660" t="s">
         <v>2637</v>
@@ -19565,7 +19565,7 @@
         <v>7</v>
       </c>
       <c r="D663">
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="E663" t="s">
         <v>2638</v>
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
       <c r="D664">
-        <v>2070</v>
+        <v>2080</v>
       </c>
       <c r="E664" t="s">
         <v>2637</v>
@@ -19667,7 +19667,7 @@
         <v>7</v>
       </c>
       <c r="D669">
-        <v>115</v>
+        <v>117.75</v>
       </c>
       <c r="E669" t="s">
         <v>2638</v>
@@ -19684,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="D670">
-        <v>1380</v>
+        <v>1413</v>
       </c>
       <c r="E670" t="s">
         <v>2637</v>
@@ -19803,7 +19803,7 @@
         <v>7</v>
       </c>
       <c r="D677">
-        <v>106.5</v>
+        <v>107</v>
       </c>
       <c r="E677" t="s">
         <v>2638</v>
@@ -19820,7 +19820,7 @@
         <v>1</v>
       </c>
       <c r="D678">
-        <v>2130</v>
+        <v>2140</v>
       </c>
       <c r="E678" t="s">
         <v>2637</v>
@@ -20636,7 +20636,7 @@
         <v>2</v>
       </c>
       <c r="D726">
-        <v>488.25</v>
+        <v>489.75</v>
       </c>
       <c r="E726" t="s">
         <v>2637</v>
@@ -21707,7 +21707,7 @@
         <v>332</v>
       </c>
       <c r="D789">
-        <v>131.75</v>
+        <v>134</v>
       </c>
       <c r="E789" t="s">
         <v>2638</v>
@@ -21724,7 +21724,7 @@
         <v>1</v>
       </c>
       <c r="D790">
-        <v>1317.5</v>
+        <v>1340</v>
       </c>
       <c r="E790" t="s">
         <v>2637</v>
@@ -23662,7 +23662,7 @@
         <v>7</v>
       </c>
       <c r="D904">
-        <v>229.5</v>
+        <v>229.25</v>
       </c>
       <c r="E904" t="s">
         <v>2638</v>
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="D905">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="E905" t="s">
         <v>2637</v>
@@ -23696,7 +23696,7 @@
         <v>7</v>
       </c>
       <c r="D906">
-        <v>236.25</v>
+        <v>239</v>
       </c>
       <c r="E906" t="s">
         <v>2638</v>
@@ -23713,7 +23713,7 @@
         <v>1</v>
       </c>
       <c r="D907">
-        <v>2835</v>
+        <v>2868</v>
       </c>
       <c r="E907" t="s">
         <v>2637</v>
@@ -26977,7 +26977,7 @@
         <v>7</v>
       </c>
       <c r="D1099">
-        <v>110.5898316817215</v>
+        <v>112.0182299598336</v>
       </c>
       <c r="E1099" t="s">
         <v>2638</v>
@@ -26994,7 +26994,7 @@
         <v>1</v>
       </c>
       <c r="D1100">
-        <v>1880.027138589265</v>
+        <v>1904.309909317172</v>
       </c>
       <c r="E1100" t="s">
         <v>2637</v>
@@ -27011,7 +27011,7 @@
         <v>7</v>
       </c>
       <c r="D1101">
-        <v>110.6370173076907</v>
+        <v>112.3310667844548</v>
       </c>
       <c r="E1101" t="s">
         <v>2638</v>
@@ -27028,7 +27028,7 @@
         <v>1</v>
       </c>
       <c r="D1102">
-        <v>1880.829294230742</v>
+        <v>1909.628135335731</v>
       </c>
       <c r="E1102" t="s">
         <v>2637</v>
@@ -28184,7 +28184,7 @@
         <v>1</v>
       </c>
       <c r="D1170">
-        <v>97.25</v>
+        <v>96.75</v>
       </c>
       <c r="E1170" t="s">
         <v>2637</v>
@@ -28830,7 +28830,7 @@
         <v>2</v>
       </c>
       <c r="D1208">
-        <v>262.5</v>
+        <v>262.25</v>
       </c>
       <c r="E1208" t="s">
         <v>2637</v>
@@ -29374,7 +29374,7 @@
         <v>7</v>
       </c>
       <c r="D1240">
-        <v>38.5</v>
+        <v>38.75</v>
       </c>
       <c r="E1240" t="s">
         <v>2638</v>
@@ -29391,7 +29391,7 @@
         <v>2</v>
       </c>
       <c r="D1241">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E1241" t="s">
         <v>2637</v>
@@ -34916,7 +34916,7 @@
         <v>3</v>
       </c>
       <c r="D1566">
-        <v>138</v>
+        <v>138.5</v>
       </c>
       <c r="E1566" t="s">
         <v>2638</v>
@@ -34933,7 +34933,7 @@
         <v>1</v>
       </c>
       <c r="D1567">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E1567" t="s">
         <v>2637</v>
@@ -36089,7 +36089,7 @@
         <v>2</v>
       </c>
       <c r="D1635">
-        <v>198</v>
+        <v>198.5</v>
       </c>
       <c r="E1635" t="s">
         <v>2638</v>
@@ -36106,7 +36106,7 @@
         <v>1</v>
       </c>
       <c r="D1636">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="E1636" t="s">
         <v>2637</v>
@@ -36837,7 +36837,7 @@
         <v>2</v>
       </c>
       <c r="D1679">
-        <v>597.25</v>
+        <v>599</v>
       </c>
       <c r="E1679" t="s">
         <v>2637</v>
@@ -37687,7 +37687,7 @@
         <v>10</v>
       </c>
       <c r="D1729">
-        <v>127.5</v>
+        <v>128.25</v>
       </c>
       <c r="E1729" t="s">
         <v>2638</v>
@@ -37704,7 +37704,7 @@
         <v>1</v>
       </c>
       <c r="D1730">
-        <v>765</v>
+        <v>769.5</v>
       </c>
       <c r="E1730" t="s">
         <v>2637</v>
@@ -38656,7 +38656,7 @@
         <v>2</v>
       </c>
       <c r="D1786">
-        <v>59.6956891475733</v>
+        <v>59.82472831302964</v>
       </c>
       <c r="E1786" t="s">
         <v>2638</v>
@@ -38673,7 +38673,7 @@
         <v>1</v>
       </c>
       <c r="D1787">
-        <v>716.3482697708796</v>
+        <v>717.8967397563556</v>
       </c>
       <c r="E1787" t="s">
         <v>2637</v>
@@ -38690,7 +38690,7 @@
         <v>2</v>
       </c>
       <c r="D1788">
-        <v>59.81047374934013</v>
+        <v>59.94001017079359</v>
       </c>
       <c r="E1788" t="s">
         <v>2638</v>
@@ -38707,7 +38707,7 @@
         <v>1</v>
       </c>
       <c r="D1789">
-        <v>717.7256849920816</v>
+        <v>719.2801220495231</v>
       </c>
       <c r="E1789" t="s">
         <v>2637</v>
@@ -41988,7 +41988,7 @@
         <v>2</v>
       </c>
       <c r="D1982">
-        <v>100.1605136436519</v>
+        <v>100.0351529151733</v>
       </c>
       <c r="E1982" t="s">
         <v>2637</v>
@@ -42022,7 +42022,7 @@
         <v>2</v>
       </c>
       <c r="D1984">
-        <v>100.1605136433645</v>
+        <v>100.0351529148865</v>
       </c>
       <c r="E1984" t="s">
         <v>2637</v>
@@ -42039,7 +42039,7 @@
         <v>2</v>
       </c>
       <c r="D1985">
-        <v>100.1605136436597</v>
+        <v>100.035152915181</v>
       </c>
       <c r="E1985" t="s">
         <v>2637</v>
@@ -42056,7 +42056,7 @@
         <v>2</v>
       </c>
       <c r="D1986">
-        <v>100.1605136436594</v>
+        <v>100.0351529151807</v>
       </c>
       <c r="E1986" t="s">
         <v>2637</v>
@@ -44436,7 +44436,7 @@
         <v>25</v>
       </c>
       <c r="D2126">
-        <v>323.25</v>
+        <v>323.5</v>
       </c>
       <c r="E2126" t="s">
         <v>2638</v>
@@ -44453,7 +44453,7 @@
         <v>29</v>
       </c>
       <c r="D2127">
-        <v>969.75</v>
+        <v>970.5</v>
       </c>
       <c r="E2127" t="s">
         <v>2637</v>
@@ -46187,7 +46187,7 @@
         <v>2</v>
       </c>
       <c r="D2229">
-        <v>94.76457768005999</v>
+        <v>95.41494823321217</v>
       </c>
       <c r="E2229" t="s">
         <v>2638</v>
@@ -46204,7 +46204,7 @@
         <v>1</v>
       </c>
       <c r="D2230">
-        <v>758.1166214404799</v>
+        <v>763.3195858656974</v>
       </c>
       <c r="E2230" t="s">
         <v>2637</v>
@@ -46476,7 +46476,7 @@
         <v>25</v>
       </c>
       <c r="D2246">
-        <v>254.75</v>
+        <v>254.5</v>
       </c>
       <c r="E2246" t="s">
         <v>2638</v>
@@ -46493,7 +46493,7 @@
         <v>29</v>
       </c>
       <c r="D2247">
-        <v>764.25</v>
+        <v>763.5</v>
       </c>
       <c r="E2247" t="s">
         <v>2637</v>
@@ -51899,7 +51899,7 @@
         <v>332</v>
       </c>
       <c r="D2565">
-        <v>868.4712748867721</v>
+        <v>889.1277788396117</v>
       </c>
       <c r="E2565" t="s">
         <v>2638</v>
@@ -51916,7 +51916,7 @@
         <v>1</v>
       </c>
       <c r="D2566">
-        <v>3473.885099547088</v>
+        <v>3556.511115358447</v>
       </c>
       <c r="E2566" t="s">
         <v>2637</v>
@@ -54925,7 +54925,7 @@
         <v>25</v>
       </c>
       <c r="D2743">
-        <v>38</v>
+        <v>38.25</v>
       </c>
       <c r="E2743" t="s">
         <v>2638</v>
@@ -54942,7 +54942,7 @@
         <v>1</v>
       </c>
       <c r="D2744">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E2744" t="s">
         <v>2637</v>
@@ -61776,7 +61776,7 @@
         <v>3</v>
       </c>
       <c r="D3146">
-        <v>82.25</v>
+        <v>82.75</v>
       </c>
       <c r="E3146" t="s">
         <v>2638</v>
@@ -61793,7 +61793,7 @@
         <v>1</v>
       </c>
       <c r="D3147">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E3147" t="s">
         <v>2637</v>
@@ -62065,7 +62065,7 @@
         <v>10</v>
       </c>
       <c r="D3163">
-        <v>16.10339849900849</v>
+        <v>15.97771816982844</v>
       </c>
       <c r="E3163" t="s">
         <v>2638</v>
@@ -62082,7 +62082,7 @@
         <v>1</v>
       </c>
       <c r="D3164">
-        <v>193.2407819881018</v>
+        <v>191.7326180379413</v>
       </c>
       <c r="E3164" t="s">
         <v>2637</v>
@@ -62099,7 +62099,7 @@
         <v>10</v>
       </c>
       <c r="D3165">
-        <v>16.11753080747825</v>
+        <v>15.99163065024599</v>
       </c>
       <c r="E3165" t="s">
         <v>2638</v>
@@ -62116,7 +62116,7 @@
         <v>1</v>
       </c>
       <c r="D3166">
-        <v>193.410369689739</v>
+        <v>191.8995678029519</v>
       </c>
       <c r="E3166" t="s">
         <v>2637</v>
@@ -62133,7 +62133,7 @@
         <v>10</v>
       </c>
       <c r="D3167">
-        <v>17.5</v>
+        <v>17.75</v>
       </c>
       <c r="E3167" t="s">
         <v>2638</v>
@@ -62150,7 +62150,7 @@
         <v>1</v>
       </c>
       <c r="D3168">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E3168" t="s">
         <v>2637</v>
@@ -63527,7 +63527,7 @@
         <v>7</v>
       </c>
       <c r="D3249">
-        <v>162.75</v>
+        <v>165.5</v>
       </c>
       <c r="E3249" t="s">
         <v>2638</v>
@@ -63544,7 +63544,7 @@
         <v>1</v>
       </c>
       <c r="D3250">
-        <v>1953</v>
+        <v>1986</v>
       </c>
       <c r="E3250" t="s">
         <v>2637</v>
@@ -63663,7 +63663,7 @@
         <v>332</v>
       </c>
       <c r="D3257">
-        <v>865.0955235553193</v>
+        <v>885.6717355943807</v>
       </c>
       <c r="E3257" t="s">
         <v>2638</v>
@@ -63680,7 +63680,7 @@
         <v>1</v>
       </c>
       <c r="D3258">
-        <v>3460.382094221277</v>
+        <v>3542.686942377523</v>
       </c>
       <c r="E3258" t="s">
         <v>2637</v>
@@ -64173,7 +64173,7 @@
         <v>3</v>
       </c>
       <c r="D3287">
-        <v>32.5</v>
+        <v>32.75</v>
       </c>
       <c r="E3287" t="s">
         <v>2638</v>
@@ -64190,7 +64190,7 @@
         <v>1</v>
       </c>
       <c r="D3288">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="E3288" t="s">
         <v>2637</v>
@@ -65652,7 +65652,7 @@
         <v>7</v>
       </c>
       <c r="D3374">
-        <v>129.5</v>
+        <v>130.75</v>
       </c>
       <c r="E3374" t="s">
         <v>2638</v>
@@ -65669,7 +65669,7 @@
         <v>1</v>
       </c>
       <c r="D3375">
-        <v>2590</v>
+        <v>2615</v>
       </c>
       <c r="E3375" t="s">
         <v>2637</v>
@@ -70259,7 +70259,7 @@
         <v>2</v>
       </c>
       <c r="D3645">
-        <v>371.9510640991377</v>
+        <v>371.8209987426519</v>
       </c>
       <c r="E3645" t="s">
         <v>2638</v>
@@ -70276,7 +70276,7 @@
         <v>1</v>
       </c>
       <c r="D3646">
-        <v>2231.706384594826</v>
+        <v>2230.925992455911</v>
       </c>
       <c r="E3646" t="s">
         <v>2637</v>
@@ -70361,7 +70361,7 @@
         <v>2</v>
       </c>
       <c r="D3651">
-        <v>371.2607352056113</v>
+        <v>371.1311521110149</v>
       </c>
       <c r="E3651" t="s">
         <v>2638</v>
@@ -70378,7 +70378,7 @@
         <v>1</v>
       </c>
       <c r="D3652">
-        <v>2227.564411233668</v>
+        <v>2226.786912666089</v>
       </c>
       <c r="E3652" t="s">
         <v>2637</v>
@@ -70395,7 +70395,7 @@
         <v>2</v>
       </c>
       <c r="D3653">
-        <v>165.25</v>
+        <v>165.75</v>
       </c>
       <c r="E3653" t="s">
         <v>2638</v>
@@ -70412,7 +70412,7 @@
         <v>1</v>
       </c>
       <c r="D3654">
-        <v>991.5</v>
+        <v>994.5</v>
       </c>
       <c r="E3654" t="s">
         <v>2637</v>
@@ -70463,7 +70463,7 @@
         <v>2</v>
       </c>
       <c r="D3657">
-        <v>169.5</v>
+        <v>170.25</v>
       </c>
       <c r="E3657" t="s">
         <v>2638</v>
@@ -70480,7 +70480,7 @@
         <v>1</v>
       </c>
       <c r="D3658">
-        <v>1017</v>
+        <v>1021.5</v>
       </c>
       <c r="E3658" t="s">
         <v>2637</v>
@@ -73081,7 +73081,7 @@
         <v>1</v>
       </c>
       <c r="D3811">
-        <v>76.75</v>
+        <v>75.75</v>
       </c>
       <c r="E3811" t="s">
         <v>2637</v>
@@ -75903,7 +75903,7 @@
         <v>2</v>
       </c>
       <c r="D3977">
-        <v>577.25</v>
+        <v>579.75</v>
       </c>
       <c r="E3977" t="s">
         <v>2637</v>

--- a/manual/output_1223_chunk_2.xlsx
+++ b/manual/output_1223_chunk_2.xlsx
@@ -10164,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>588.6362278319672</v>
+        <v>588.6362157215933</v>
       </c>
       <c r="E110" t="s">
         <v>2637</v>
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>609.8138630605629</v>
+        <v>609.813810970543</v>
       </c>
       <c r="E111" t="s">
         <v>2637</v>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>353.4031171345993</v>
+        <v>353.641451843457</v>
       </c>
       <c r="E152" t="s">
         <v>2637</v>
@@ -11150,7 +11150,7 @@
         <v>5</v>
       </c>
       <c r="D168">
-        <v>631</v>
+        <v>630.75</v>
       </c>
       <c r="E168" t="s">
         <v>2637</v>
@@ -14108,7 +14108,7 @@
         <v>3</v>
       </c>
       <c r="D342">
-        <v>47.90294138237015</v>
+        <v>47.91156350240912</v>
       </c>
       <c r="E342" t="s">
         <v>2638</v>
@@ -14125,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>574.8352965884418</v>
+        <v>574.9387620289094</v>
       </c>
       <c r="E343" t="s">
         <v>2637</v>
@@ -15655,7 +15655,7 @@
         <v>5</v>
       </c>
       <c r="D433">
-        <v>525.5</v>
+        <v>525.25</v>
       </c>
       <c r="E433" t="s">
         <v>2637</v>
@@ -15723,7 +15723,7 @@
         <v>12</v>
       </c>
       <c r="D437">
-        <v>1037.25</v>
+        <v>1037</v>
       </c>
       <c r="E437" t="s">
         <v>2637</v>
@@ -20891,7 +20891,7 @@
         <v>3</v>
       </c>
       <c r="D741">
-        <v>95.44329379459764</v>
+        <v>95.49961554503032</v>
       </c>
       <c r="E741" t="s">
         <v>2638</v>
@@ -20908,7 +20908,7 @@
         <v>1</v>
       </c>
       <c r="D742">
-        <v>2290.639051070343</v>
+        <v>2291.990773080728</v>
       </c>
       <c r="E742" t="s">
         <v>2637</v>
@@ -20925,7 +20925,7 @@
         <v>3</v>
       </c>
       <c r="D743">
-        <v>95.59202118946955</v>
+        <v>95.62413966757944</v>
       </c>
       <c r="E743" t="s">
         <v>2638</v>
@@ -20942,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="D744">
-        <v>2294.208508547269</v>
+        <v>2294.979352021906</v>
       </c>
       <c r="E744" t="s">
         <v>2637</v>
@@ -20959,7 +20959,7 @@
         <v>3</v>
       </c>
       <c r="D745">
-        <v>132.831531914122</v>
+        <v>132.825091913601</v>
       </c>
       <c r="E745" t="s">
         <v>2638</v>
@@ -20976,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="D746">
-        <v>3187.956765938928</v>
+        <v>3187.802205926423</v>
       </c>
       <c r="E746" t="s">
         <v>2637</v>
@@ -20993,7 +20993,7 @@
         <v>3</v>
       </c>
       <c r="D747">
-        <v>132.8468629356327</v>
+        <v>132.840614974672</v>
       </c>
       <c r="E747" t="s">
         <v>2638</v>
@@ -21010,7 +21010,7 @@
         <v>1</v>
       </c>
       <c r="D748">
-        <v>3188.324710455185</v>
+        <v>3188.174759392128</v>
       </c>
       <c r="E748" t="s">
         <v>2637</v>
@@ -21027,7 +21027,7 @@
         <v>3</v>
       </c>
       <c r="D749">
-        <v>97.25</v>
+        <v>98.25</v>
       </c>
       <c r="E749" t="s">
         <v>2638</v>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
       <c r="D750">
-        <v>2334</v>
+        <v>2358</v>
       </c>
       <c r="E750" t="s">
         <v>2637</v>
@@ -21129,7 +21129,7 @@
         <v>7</v>
       </c>
       <c r="D755">
-        <v>213.5</v>
+        <v>213.75</v>
       </c>
       <c r="E755" t="s">
         <v>2638</v>
@@ -21146,7 +21146,7 @@
         <v>1</v>
       </c>
       <c r="D756">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="E756" t="s">
         <v>2637</v>
@@ -22693,7 +22693,7 @@
         <v>1</v>
       </c>
       <c r="D847">
-        <v>569.75</v>
+        <v>570</v>
       </c>
       <c r="E847" t="s">
         <v>2637</v>
@@ -25464,7 +25464,7 @@
         <v>332</v>
       </c>
       <c r="D1010">
-        <v>100.5</v>
+        <v>100.75</v>
       </c>
       <c r="E1010" t="s">
         <v>2638</v>
@@ -25481,7 +25481,7 @@
         <v>1</v>
       </c>
       <c r="D1011">
-        <v>1005</v>
+        <v>1007.5</v>
       </c>
       <c r="E1011" t="s">
         <v>2637</v>
@@ -32655,7 +32655,7 @@
         <v>7</v>
       </c>
       <c r="D1433">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="E1433" t="s">
         <v>2638</v>
@@ -32672,7 +32672,7 @@
         <v>15</v>
       </c>
       <c r="D1434">
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="E1434" t="s">
         <v>2637</v>
@@ -32689,7 +32689,7 @@
         <v>16</v>
       </c>
       <c r="D1435">
-        <v>162.5</v>
+        <v>165</v>
       </c>
       <c r="E1435" t="s">
         <v>2637</v>
@@ -32706,7 +32706,7 @@
         <v>1</v>
       </c>
       <c r="D1436">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E1436" t="s">
         <v>2637</v>
@@ -33437,7 +33437,7 @@
         <v>7</v>
       </c>
       <c r="D1479">
-        <v>141.036227660471</v>
+        <v>141.0206872245968</v>
       </c>
       <c r="E1479" t="s">
         <v>2638</v>
@@ -33454,7 +33454,7 @@
         <v>1</v>
       </c>
       <c r="D1480">
-        <v>1410.36227660471</v>
+        <v>1410.206872245968</v>
       </c>
       <c r="E1480" t="s">
         <v>2637</v>
@@ -33505,7 +33505,7 @@
         <v>3</v>
       </c>
       <c r="D1483">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="E1483" t="s">
         <v>2638</v>
@@ -33522,7 +33522,7 @@
         <v>1</v>
       </c>
       <c r="D1484">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="E1484" t="s">
         <v>2637</v>
@@ -33539,7 +33539,7 @@
         <v>3</v>
       </c>
       <c r="D1485">
-        <v>58.5</v>
+        <v>60</v>
       </c>
       <c r="E1485" t="s">
         <v>2638</v>
@@ -33556,7 +33556,7 @@
         <v>1</v>
       </c>
       <c r="D1486">
-        <v>1053</v>
+        <v>1080</v>
       </c>
       <c r="E1486" t="s">
         <v>2637</v>
@@ -34134,7 +34134,7 @@
         <v>7</v>
       </c>
       <c r="D1520">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="E1520" t="s">
         <v>2638</v>
@@ -34151,7 +34151,7 @@
         <v>15</v>
       </c>
       <c r="D1521">
-        <v>51.25</v>
+        <v>52.5</v>
       </c>
       <c r="E1521" t="s">
         <v>2637</v>
@@ -34168,7 +34168,7 @@
         <v>16</v>
       </c>
       <c r="D1522">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="E1522" t="s">
         <v>2637</v>
@@ -34185,7 +34185,7 @@
         <v>1</v>
       </c>
       <c r="D1523">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E1523" t="s">
         <v>2637</v>
@@ -34236,7 +34236,7 @@
         <v>1</v>
       </c>
       <c r="D1526">
-        <v>358.3224681817649</v>
+        <v>358.3451607163068</v>
       </c>
       <c r="E1526" t="s">
         <v>2637</v>
@@ -34729,7 +34729,7 @@
         <v>2</v>
       </c>
       <c r="D1555">
-        <v>163.6336857417291</v>
+        <v>163.6336817315102</v>
       </c>
       <c r="E1555" t="s">
         <v>2637</v>
@@ -34746,7 +34746,7 @@
         <v>2</v>
       </c>
       <c r="D1556">
-        <v>163.6337070929144</v>
+        <v>163.6337065916981</v>
       </c>
       <c r="E1556" t="s">
         <v>2637</v>
@@ -34763,7 +34763,7 @@
         <v>2</v>
       </c>
       <c r="D1557">
-        <v>163.6336814783568</v>
+        <v>163.6336813029469</v>
       </c>
       <c r="E1557" t="s">
         <v>2637</v>
@@ -34797,7 +34797,7 @@
         <v>2</v>
       </c>
       <c r="D1559">
-        <v>163.6336808218175</v>
+        <v>163.6336808178314</v>
       </c>
       <c r="E1559" t="s">
         <v>2637</v>
@@ -34814,7 +34814,7 @@
         <v>2</v>
       </c>
       <c r="D1560">
-        <v>163.6336842390176</v>
+        <v>163.6336841460208</v>
       </c>
       <c r="E1560" t="s">
         <v>2637</v>
@@ -34831,7 +34831,7 @@
         <v>2</v>
       </c>
       <c r="D1561">
-        <v>163.6336928920024</v>
+        <v>163.633691834593</v>
       </c>
       <c r="E1561" t="s">
         <v>2637</v>
@@ -36174,7 +36174,7 @@
         <v>3</v>
       </c>
       <c r="D1640">
-        <v>43.75</v>
+        <v>43.5</v>
       </c>
       <c r="E1640" t="s">
         <v>2638</v>
@@ -36191,7 +36191,7 @@
         <v>1</v>
       </c>
       <c r="D1641">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="E1641" t="s">
         <v>2637</v>
@@ -36973,7 +36973,7 @@
         <v>7</v>
       </c>
       <c r="D1687">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="E1687" t="s">
         <v>2638</v>
@@ -36990,7 +36990,7 @@
         <v>15</v>
       </c>
       <c r="D1688">
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="E1688" t="s">
         <v>2637</v>
@@ -37007,7 +37007,7 @@
         <v>16</v>
       </c>
       <c r="D1689">
-        <v>177.5</v>
+        <v>180</v>
       </c>
       <c r="E1689" t="s">
         <v>2637</v>
@@ -37024,7 +37024,7 @@
         <v>1</v>
       </c>
       <c r="D1690">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E1690" t="s">
         <v>2637</v>
@@ -37194,7 +37194,7 @@
         <v>25</v>
       </c>
       <c r="D1700">
-        <v>334.0159356607798</v>
+        <v>334.0053384813913</v>
       </c>
       <c r="E1700" t="s">
         <v>2638</v>
@@ -37211,7 +37211,7 @@
         <v>2</v>
       </c>
       <c r="D1701">
-        <v>1002.047806982339</v>
+        <v>1002.016015444174</v>
       </c>
       <c r="E1701" t="s">
         <v>2637</v>
@@ -37721,7 +37721,7 @@
         <v>10</v>
       </c>
       <c r="D1731">
-        <v>38.5</v>
+        <v>38.75</v>
       </c>
       <c r="E1731" t="s">
         <v>2638</v>
@@ -37738,7 +37738,7 @@
         <v>1</v>
       </c>
       <c r="D1732">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="E1732" t="s">
         <v>2637</v>
@@ -38401,7 +38401,7 @@
         <v>25</v>
       </c>
       <c r="D1771">
-        <v>334.2310129373363</v>
+        <v>334.2207438999217</v>
       </c>
       <c r="E1771" t="s">
         <v>2638</v>
@@ -38418,7 +38418,7 @@
         <v>2</v>
       </c>
       <c r="D1772">
-        <v>1002.693038812009</v>
+        <v>1002.662231699765</v>
       </c>
       <c r="E1772" t="s">
         <v>2637</v>
@@ -39404,7 +39404,7 @@
         <v>1</v>
       </c>
       <c r="D1830">
-        <v>177.9235878819453</v>
+        <v>177.9387195319756</v>
       </c>
       <c r="E1830" t="s">
         <v>2637</v>
@@ -40696,7 +40696,7 @@
         <v>12</v>
       </c>
       <c r="D1906">
-        <v>867.5</v>
+        <v>868.5</v>
       </c>
       <c r="E1906" t="s">
         <v>2637</v>
@@ -41308,7 +41308,7 @@
         <v>1</v>
       </c>
       <c r="D1942">
-        <v>196.5108803939182</v>
+        <v>196.5086456257641</v>
       </c>
       <c r="E1942" t="s">
         <v>2637</v>
@@ -41325,7 +41325,7 @@
         <v>1</v>
       </c>
       <c r="D1943">
-        <v>197.1177272413042</v>
+        <v>197.110490844166</v>
       </c>
       <c r="E1943" t="s">
         <v>2637</v>
@@ -44657,7 +44657,7 @@
         <v>1</v>
       </c>
       <c r="D2139">
-        <v>455</v>
+        <v>455.25</v>
       </c>
       <c r="E2139" t="s">
         <v>2637</v>
@@ -44878,7 +44878,7 @@
         <v>3</v>
       </c>
       <c r="D2152">
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="E2152" t="s">
         <v>2638</v>
@@ -44895,7 +44895,7 @@
         <v>1</v>
       </c>
       <c r="D2153">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E2153" t="s">
         <v>2637</v>
@@ -46289,7 +46289,7 @@
         <v>1</v>
       </c>
       <c r="D2235">
-        <v>233.75</v>
+        <v>233.5</v>
       </c>
       <c r="E2235" t="s">
         <v>2637</v>
@@ -46306,7 +46306,7 @@
         <v>1</v>
       </c>
       <c r="D2236">
-        <v>875.5</v>
+        <v>873.5</v>
       </c>
       <c r="E2236" t="s">
         <v>2637</v>
@@ -46476,7 +46476,7 @@
         <v>25</v>
       </c>
       <c r="D2246">
-        <v>254.5</v>
+        <v>258.75</v>
       </c>
       <c r="E2246" t="s">
         <v>2638</v>
@@ -46493,7 +46493,7 @@
         <v>29</v>
       </c>
       <c r="D2247">
-        <v>763.5</v>
+        <v>776.25</v>
       </c>
       <c r="E2247" t="s">
         <v>2637</v>
@@ -49842,7 +49842,7 @@
         <v>1</v>
       </c>
       <c r="D2444">
-        <v>637.4618169579293</v>
+        <v>637.4177060065256</v>
       </c>
       <c r="E2444" t="s">
         <v>2637</v>
@@ -51491,7 +51491,7 @@
         <v>25</v>
       </c>
       <c r="D2541">
-        <v>437.25</v>
+        <v>440.5</v>
       </c>
       <c r="E2541" t="s">
         <v>2638</v>
@@ -51508,7 +51508,7 @@
         <v>1</v>
       </c>
       <c r="D2542">
-        <v>874.5</v>
+        <v>881</v>
       </c>
       <c r="E2542" t="s">
         <v>2637</v>
@@ -52205,7 +52205,7 @@
         <v>1</v>
       </c>
       <c r="D2583">
-        <v>464.4076224506659</v>
+        <v>464.2565316729789</v>
       </c>
       <c r="E2583" t="s">
         <v>2637</v>
@@ -52273,7 +52273,7 @@
         <v>1</v>
       </c>
       <c r="D2587">
-        <v>463.562873693039</v>
+        <v>463.2356800214953</v>
       </c>
       <c r="E2587" t="s">
         <v>2637</v>
@@ -53106,7 +53106,7 @@
         <v>332</v>
       </c>
       <c r="D2636">
-        <v>19.75</v>
+        <v>28.5</v>
       </c>
       <c r="E2636" t="s">
         <v>2638</v>
@@ -53123,7 +53123,7 @@
         <v>1</v>
       </c>
       <c r="D2637">
-        <v>790</v>
+        <v>1140</v>
       </c>
       <c r="E2637" t="s">
         <v>2637</v>
@@ -55418,7 +55418,7 @@
         <v>25</v>
       </c>
       <c r="D2772">
-        <v>398.75</v>
+        <v>399</v>
       </c>
       <c r="E2772" t="s">
         <v>2638</v>
@@ -55435,7 +55435,7 @@
         <v>29</v>
       </c>
       <c r="D2773">
-        <v>797.5</v>
+        <v>798</v>
       </c>
       <c r="E2773" t="s">
         <v>2637</v>
@@ -58002,7 +58002,7 @@
         <v>23</v>
       </c>
       <c r="D2924">
-        <v>50.4574044202189</v>
+        <v>50.45740442021891</v>
       </c>
       <c r="E2924" t="s">
         <v>2638</v>
@@ -58750,7 +58750,7 @@
         <v>1</v>
       </c>
       <c r="D2968">
-        <v>435.75</v>
+        <v>435.5</v>
       </c>
       <c r="E2968" t="s">
         <v>2637</v>
@@ -63017,7 +63017,7 @@
         <v>3</v>
       </c>
       <c r="D3219">
-        <v>47.62011394502907</v>
+        <v>47.62011438492826</v>
       </c>
       <c r="E3219" t="s">
         <v>2638</v>
@@ -63034,7 +63034,7 @@
         <v>1</v>
       </c>
       <c r="D3220">
-        <v>571.4413673403488</v>
+        <v>571.4413726191392</v>
       </c>
       <c r="E3220" t="s">
         <v>2637</v>
@@ -64105,7 +64105,7 @@
         <v>80</v>
       </c>
       <c r="D3283">
-        <v>345.0412786819323</v>
+        <v>342.62713739826</v>
       </c>
       <c r="E3283" t="s">
         <v>2638</v>
@@ -64122,7 +64122,7 @@
         <v>29</v>
       </c>
       <c r="D3284">
-        <v>690.0825573638647</v>
+        <v>685.25427479652</v>
       </c>
       <c r="E3284" t="s">
         <v>2637</v>
@@ -64241,7 +64241,7 @@
         <v>80</v>
       </c>
       <c r="D3291">
-        <v>343.0471205985339</v>
+        <v>343.0773742053925</v>
       </c>
       <c r="E3291" t="s">
         <v>2638</v>
@@ -64258,7 +64258,7 @@
         <v>29</v>
       </c>
       <c r="D3292">
-        <v>686.0942411970678</v>
+        <v>686.154748410785</v>
       </c>
       <c r="E3292" t="s">
         <v>2637</v>
@@ -64275,7 +64275,7 @@
         <v>80</v>
       </c>
       <c r="D3293">
-        <v>374</v>
+        <v>374.25</v>
       </c>
       <c r="E3293" t="s">
         <v>2638</v>
@@ -64292,7 +64292,7 @@
         <v>29</v>
       </c>
       <c r="D3294">
-        <v>748</v>
+        <v>748.5</v>
       </c>
       <c r="E3294" t="s">
         <v>2637</v>
@@ -65159,7 +65159,7 @@
         <v>3</v>
       </c>
       <c r="D3345">
-        <v>214.4658426272786</v>
+        <v>214.6714164597194</v>
       </c>
       <c r="E3345" t="s">
         <v>2638</v>
@@ -65176,7 +65176,7 @@
         <v>1</v>
       </c>
       <c r="D3346">
-        <v>2573.590111527344</v>
+        <v>2576.056997516633</v>
       </c>
       <c r="E3346" t="s">
         <v>2637</v>
@@ -66434,7 +66434,7 @@
         <v>3</v>
       </c>
       <c r="D3420">
-        <v>95.95698616372954</v>
+        <v>95.95040724558658</v>
       </c>
       <c r="E3420" t="s">
         <v>2638</v>
@@ -66451,7 +66451,7 @@
         <v>2</v>
       </c>
       <c r="D3421">
-        <v>287.8709584911886</v>
+        <v>287.8512217367597</v>
       </c>
       <c r="E3421" t="s">
         <v>2637</v>
@@ -66536,7 +66536,7 @@
         <v>3</v>
       </c>
       <c r="D3426">
-        <v>76.20971118017316</v>
+        <v>76.20814032433964</v>
       </c>
       <c r="E3426" t="s">
         <v>2638</v>
@@ -66553,7 +66553,7 @@
         <v>2</v>
       </c>
       <c r="D3427">
-        <v>228.6291335405195</v>
+        <v>228.6244209730189</v>
       </c>
       <c r="E3427" t="s">
         <v>2637</v>
@@ -71517,7 +71517,7 @@
         <v>3</v>
       </c>
       <c r="D3719">
-        <v>56.53267989377639</v>
+        <v>56.53716447994154</v>
       </c>
       <c r="E3719" t="s">
         <v>2638</v>
@@ -71534,7 +71534,7 @@
         <v>1</v>
       </c>
       <c r="D3720">
-        <v>339.1960793626583</v>
+        <v>339.2229868796493</v>
       </c>
       <c r="E3720" t="s">
         <v>2637</v>
@@ -72690,7 +72690,7 @@
         <v>1</v>
       </c>
       <c r="D3788">
-        <v>56.40583422499786</v>
+        <v>56.41595880699256</v>
       </c>
       <c r="E3788" t="s">
         <v>2637</v>
@@ -74118,7 +74118,7 @@
         <v>3</v>
       </c>
       <c r="D3872">
-        <v>251.4132628319099</v>
+        <v>251.2802240687781</v>
       </c>
       <c r="E3872" t="s">
         <v>2638</v>
@@ -74135,7 +74135,7 @@
         <v>1</v>
       </c>
       <c r="D3873">
-        <v>2011.30610265528</v>
+        <v>2010.241792550225</v>
       </c>
       <c r="E3873" t="s">
         <v>2637</v>
@@ -74152,7 +74152,7 @@
         <v>3</v>
       </c>
       <c r="D3874">
-        <v>251.1549118762522</v>
+        <v>251.1106481976067</v>
       </c>
       <c r="E3874" t="s">
         <v>2638</v>
@@ -74169,7 +74169,7 @@
         <v>1</v>
       </c>
       <c r="D3875">
-        <v>2009.239295010017</v>
+        <v>2008.885185580854</v>
       </c>
       <c r="E3875" t="s">
         <v>2637</v>
@@ -74186,7 +74186,7 @@
         <v>7</v>
       </c>
       <c r="D3876">
-        <v>104.936481304071</v>
+        <v>104.8024828164972</v>
       </c>
       <c r="E3876" t="s">
         <v>2638</v>
@@ -74203,7 +74203,7 @@
         <v>1</v>
       </c>
       <c r="D3877">
-        <v>1259.237775648852</v>
+        <v>1257.629793797966</v>
       </c>
       <c r="E3877" t="s">
         <v>2637</v>
@@ -75019,7 +75019,7 @@
         <v>3</v>
       </c>
       <c r="D3925">
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
       <c r="E3925" t="s">
         <v>2638</v>
@@ -75036,7 +75036,7 @@
         <v>1</v>
       </c>
       <c r="D3926">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E3926" t="s">
         <v>2637</v>

--- a/manual/output_1223_chunk_2.xlsx
+++ b/manual/output_1223_chunk_2.xlsx
@@ -7450,6 +7450,9 @@
     <t>خلطة ماجى للبشاميل - 70 جم</t>
   </si>
   <si>
+    <t>خلطة ماجى بشاميل بالجبنة - 70 جم</t>
+  </si>
+  <si>
     <t>انجلش ليزر صابون أزرق  - 110 جم</t>
   </si>
   <si>
@@ -7919,9 +7922,6 @@
   </si>
   <si>
     <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
-  </si>
-  <si>
-    <t>بطاطس بريميم  - 2.5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -9158,7 +9158,7 @@
         <v>23</v>
       </c>
       <c r="D51">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="E51" t="s">
         <v>2637</v>
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E52" t="s">
         <v>2636</v>
@@ -9260,7 +9260,7 @@
         <v>23</v>
       </c>
       <c r="D57">
-        <v>49</v>
+        <v>49.25</v>
       </c>
       <c r="E57" t="s">
         <v>2637</v>
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E58" t="s">
         <v>2636</v>
@@ -10110,7 +10110,7 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>144.9744697677069</v>
+        <v>146.504812890939</v>
       </c>
       <c r="E107" t="s">
         <v>2637</v>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2319.591516283311</v>
+        <v>2344.077006255024</v>
       </c>
       <c r="E108" t="s">
         <v>2636</v>
@@ -10144,7 +10144,7 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>204.227755971627</v>
+        <v>203.8343311764273</v>
       </c>
       <c r="E109" t="s">
         <v>2637</v>
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1633.822047773016</v>
+        <v>1630.674649411419</v>
       </c>
       <c r="E110" t="s">
         <v>2636</v>
@@ -10178,7 +10178,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>145.2112919882777</v>
+        <v>146.5885863031857</v>
       </c>
       <c r="E111" t="s">
         <v>2637</v>
@@ -10195,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>2323.380671812443</v>
+        <v>2345.417380850971</v>
       </c>
       <c r="E112" t="s">
         <v>2636</v>
@@ -10212,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>144.9330293507854</v>
+        <v>146.499693858058</v>
       </c>
       <c r="E113" t="s">
         <v>2637</v>
@@ -10229,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2318.928469612567</v>
+        <v>2343.995101728929</v>
       </c>
       <c r="E114" t="s">
         <v>2636</v>
@@ -10807,7 +10807,7 @@
         <v>23</v>
       </c>
       <c r="D148">
-        <v>146.1559744957245</v>
+        <v>150.2334426228137</v>
       </c>
       <c r="E148" t="s">
         <v>2637</v>
@@ -10824,7 +10824,7 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>876.9358469743472</v>
+        <v>901.4006557368821</v>
       </c>
       <c r="E149" t="s">
         <v>2636</v>
@@ -10841,7 +10841,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>3507.743387897389</v>
+        <v>3605.602622947528</v>
       </c>
       <c r="E150" t="s">
         <v>2636</v>
@@ -10858,7 +10858,7 @@
         <v>23</v>
       </c>
       <c r="D151">
-        <v>145.8254524522596</v>
+        <v>150.119224437838</v>
       </c>
       <c r="E151" t="s">
         <v>2637</v>
@@ -10875,7 +10875,7 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>874.9527147135578</v>
+        <v>900.7153466270281</v>
       </c>
       <c r="E152" t="s">
         <v>2636</v>
@@ -10892,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>3499.810858854231</v>
+        <v>3602.861386508112</v>
       </c>
       <c r="E153" t="s">
         <v>2636</v>
@@ -11606,7 +11606,7 @@
         <v>5</v>
       </c>
       <c r="D195">
-        <v>637.5</v>
+        <v>639.5</v>
       </c>
       <c r="E195" t="s">
         <v>2636</v>
@@ -12643,7 +12643,7 @@
         <v>3</v>
       </c>
       <c r="D256">
-        <v>835.4895839344625</v>
+        <v>835.5275239281963</v>
       </c>
       <c r="E256" t="s">
         <v>2637</v>
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>5012.937503606775</v>
+        <v>5013.165143569177</v>
       </c>
       <c r="E257" t="s">
         <v>2636</v>
@@ -14530,7 +14530,7 @@
         <v>3</v>
       </c>
       <c r="D367">
-        <v>48.05897420544529</v>
+        <v>48.14168063829702</v>
       </c>
       <c r="E367" t="s">
         <v>2637</v>
@@ -14547,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>576.7076904653435</v>
+        <v>577.7001676595642</v>
       </c>
       <c r="E368" t="s">
         <v>2636</v>
@@ -14564,7 +14564,7 @@
         <v>3</v>
       </c>
       <c r="D369">
-        <v>47.85582888903616</v>
+        <v>47.93584649633032</v>
       </c>
       <c r="E369" t="s">
         <v>2637</v>
@@ -14581,7 +14581,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>574.2699466684339</v>
+        <v>575.2301579559638</v>
       </c>
       <c r="E370" t="s">
         <v>2636</v>
@@ -14666,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="D375">
-        <v>195.5</v>
+        <v>194.5</v>
       </c>
       <c r="E375" t="s">
         <v>2636</v>
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="D376">
-        <v>191.1038191763551</v>
+        <v>191.0987140311024</v>
       </c>
       <c r="E376" t="s">
         <v>2636</v>
@@ -14700,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="D377">
-        <v>191.7549520439665</v>
+        <v>191.754320842361</v>
       </c>
       <c r="E377" t="s">
         <v>2636</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="D378">
-        <v>191.7641567890345</v>
+        <v>191.7633812200856</v>
       </c>
       <c r="E378" t="s">
         <v>2636</v>
@@ -14751,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="D380">
-        <v>191.8065009647201</v>
+        <v>191.8040246005538</v>
       </c>
       <c r="E380" t="s">
         <v>2636</v>
@@ -14870,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>130.1895955272781</v>
+        <v>130.1862826922689</v>
       </c>
       <c r="E387" t="s">
         <v>2636</v>
@@ -16111,7 +16111,7 @@
         <v>5</v>
       </c>
       <c r="D460">
-        <v>527.5</v>
+        <v>549.75</v>
       </c>
       <c r="E460" t="s">
         <v>2636</v>
@@ -16179,7 +16179,7 @@
         <v>12</v>
       </c>
       <c r="D464">
-        <v>1037</v>
+        <v>1030.25</v>
       </c>
       <c r="E464" t="s">
         <v>2636</v>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="D476">
-        <v>181.25</v>
+        <v>181.5</v>
       </c>
       <c r="E476" t="s">
         <v>2636</v>
@@ -16893,7 +16893,7 @@
         <v>332</v>
       </c>
       <c r="D506">
-        <v>800.25</v>
+        <v>800.0324742051716</v>
       </c>
       <c r="E506" t="s">
         <v>2637</v>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
       <c r="D507">
-        <v>3201</v>
+        <v>3200.129896820687</v>
       </c>
       <c r="E507" t="s">
         <v>2636</v>
@@ -16927,7 +16927,7 @@
         <v>332</v>
       </c>
       <c r="D508">
-        <v>791.75</v>
+        <v>796.9321298502766</v>
       </c>
       <c r="E508" t="s">
         <v>2637</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="D509">
-        <v>3167</v>
+        <v>3187.728519401106</v>
       </c>
       <c r="E509" t="s">
         <v>2636</v>
@@ -16961,7 +16961,7 @@
         <v>332</v>
       </c>
       <c r="D510">
-        <v>796</v>
+        <v>798.5</v>
       </c>
       <c r="E510" t="s">
         <v>2637</v>
@@ -16978,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="D511">
-        <v>3184</v>
+        <v>3194</v>
       </c>
       <c r="E511" t="s">
         <v>2636</v>
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>692.5</v>
+        <v>721</v>
       </c>
       <c r="E518" t="s">
         <v>2636</v>
@@ -17250,7 +17250,7 @@
         <v>22</v>
       </c>
       <c r="D527">
-        <v>1245.75</v>
+        <v>1235.5</v>
       </c>
       <c r="E527" t="s">
         <v>2636</v>
@@ -19477,7 +19477,7 @@
         <v>3</v>
       </c>
       <c r="D658">
-        <v>69.75</v>
+        <v>70</v>
       </c>
       <c r="E658" t="s">
         <v>2637</v>
@@ -19494,7 +19494,7 @@
         <v>1</v>
       </c>
       <c r="D659">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="E659" t="s">
         <v>2636</v>
@@ -20990,7 +20990,7 @@
         <v>1</v>
       </c>
       <c r="D747">
-        <v>166.4931616724748</v>
+        <v>166.426622221364</v>
       </c>
       <c r="E747" t="s">
         <v>2636</v>
@@ -23149,7 +23149,7 @@
         <v>1</v>
       </c>
       <c r="D874">
-        <v>564.25</v>
+        <v>564</v>
       </c>
       <c r="E874" t="s">
         <v>2636</v>
@@ -24849,7 +24849,7 @@
         <v>5</v>
       </c>
       <c r="D974">
-        <v>180.25</v>
+        <v>180.5</v>
       </c>
       <c r="E974" t="s">
         <v>2636</v>
@@ -25920,7 +25920,7 @@
         <v>332</v>
       </c>
       <c r="D1037">
-        <v>101</v>
+        <v>101.25</v>
       </c>
       <c r="E1037" t="s">
         <v>2637</v>
@@ -25937,7 +25937,7 @@
         <v>1</v>
       </c>
       <c r="D1038">
-        <v>1010</v>
+        <v>1012.5</v>
       </c>
       <c r="E1038" t="s">
         <v>2636</v>
@@ -25954,7 +25954,7 @@
         <v>5</v>
       </c>
       <c r="D1039">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E1039" t="s">
         <v>2636</v>
@@ -26464,7 +26464,7 @@
         <v>5</v>
       </c>
       <c r="D1069">
-        <v>834.25</v>
+        <v>834.5</v>
       </c>
       <c r="E1069" t="s">
         <v>2636</v>
@@ -26515,7 +26515,7 @@
         <v>5</v>
       </c>
       <c r="D1072">
-        <v>732.5</v>
+        <v>728.5</v>
       </c>
       <c r="E1072" t="s">
         <v>2636</v>
@@ -26770,7 +26770,7 @@
         <v>5</v>
       </c>
       <c r="D1087">
-        <v>290.75</v>
+        <v>289.25</v>
       </c>
       <c r="E1087" t="s">
         <v>2636</v>
@@ -26940,7 +26940,7 @@
         <v>7</v>
       </c>
       <c r="D1097">
-        <v>171.5</v>
+        <v>171.75</v>
       </c>
       <c r="E1097" t="s">
         <v>2637</v>
@@ -26957,7 +26957,7 @@
         <v>1</v>
       </c>
       <c r="D1098">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="E1098" t="s">
         <v>2636</v>
@@ -26974,7 +26974,7 @@
         <v>7</v>
       </c>
       <c r="D1099">
-        <v>171.75</v>
+        <v>172</v>
       </c>
       <c r="E1099" t="s">
         <v>2637</v>
@@ -26991,7 +26991,7 @@
         <v>1</v>
       </c>
       <c r="D1100">
-        <v>2404.5</v>
+        <v>2408</v>
       </c>
       <c r="E1100" t="s">
         <v>2636</v>
@@ -27008,7 +27008,7 @@
         <v>7</v>
       </c>
       <c r="D1101">
-        <v>171.5</v>
+        <v>171.75</v>
       </c>
       <c r="E1101" t="s">
         <v>2637</v>
@@ -27025,7 +27025,7 @@
         <v>1</v>
       </c>
       <c r="D1102">
-        <v>1715</v>
+        <v>1717.5</v>
       </c>
       <c r="E1102" t="s">
         <v>2636</v>
@@ -27042,7 +27042,7 @@
         <v>7</v>
       </c>
       <c r="D1103">
-        <v>90</v>
+        <v>90.25</v>
       </c>
       <c r="E1103" t="s">
         <v>2637</v>
@@ -27059,7 +27059,7 @@
         <v>1</v>
       </c>
       <c r="D1104">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="E1104" t="s">
         <v>2636</v>
@@ -27603,7 +27603,7 @@
         <v>1</v>
       </c>
       <c r="D1136">
-        <v>63.75</v>
+        <v>63.5</v>
       </c>
       <c r="E1136" t="s">
         <v>2636</v>
@@ -28640,7 +28640,7 @@
         <v>1</v>
       </c>
       <c r="D1197">
-        <v>96.75</v>
+        <v>100.25</v>
       </c>
       <c r="E1197" t="s">
         <v>2636</v>
@@ -29286,7 +29286,7 @@
         <v>2</v>
       </c>
       <c r="D1235">
-        <v>262.75</v>
+        <v>264.25</v>
       </c>
       <c r="E1235" t="s">
         <v>2636</v>
@@ -29422,7 +29422,7 @@
         <v>5</v>
       </c>
       <c r="D1243">
-        <v>375.5</v>
+        <v>372.75</v>
       </c>
       <c r="E1243" t="s">
         <v>2636</v>
@@ -29456,7 +29456,7 @@
         <v>25</v>
       </c>
       <c r="D1245">
-        <v>159.25</v>
+        <v>161</v>
       </c>
       <c r="E1245" t="s">
         <v>2637</v>
@@ -29473,7 +29473,7 @@
         <v>29</v>
       </c>
       <c r="D1246">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="E1246" t="s">
         <v>2636</v>
@@ -29524,7 +29524,7 @@
         <v>3</v>
       </c>
       <c r="D1249">
-        <v>825.1802178521572</v>
+        <v>825.4749544692486</v>
       </c>
       <c r="E1249" t="s">
         <v>2637</v>
@@ -29541,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="D1250">
-        <v>4951.081307112943</v>
+        <v>4952.849726815492</v>
       </c>
       <c r="E1250" t="s">
         <v>2636</v>
@@ -29558,7 +29558,7 @@
         <v>3</v>
       </c>
       <c r="D1251">
-        <v>100.0629531192848</v>
+        <v>100.062953119584</v>
       </c>
       <c r="E1251" t="s">
         <v>2637</v>
@@ -29575,7 +29575,7 @@
         <v>1</v>
       </c>
       <c r="D1252">
-        <v>1601.007249908556</v>
+        <v>1601.007249913345</v>
       </c>
       <c r="E1252" t="s">
         <v>2636</v>
@@ -29626,7 +29626,7 @@
         <v>3</v>
       </c>
       <c r="D1255">
-        <v>825.0558080776378</v>
+        <v>825.095804535258</v>
       </c>
       <c r="E1255" t="s">
         <v>2637</v>
@@ -29643,7 +29643,7 @@
         <v>1</v>
       </c>
       <c r="D1256">
-        <v>4950.334848465827</v>
+        <v>4950.574827211548</v>
       </c>
       <c r="E1256" t="s">
         <v>2636</v>
@@ -30017,7 +30017,7 @@
         <v>1</v>
       </c>
       <c r="D1278">
-        <v>359.25</v>
+        <v>360</v>
       </c>
       <c r="E1278" t="s">
         <v>2636</v>
@@ -31598,7 +31598,7 @@
         <v>3</v>
       </c>
       <c r="D1371">
-        <v>113.4685298774135</v>
+        <v>113.4674063839044</v>
       </c>
       <c r="E1371" t="s">
         <v>2637</v>
@@ -31615,7 +31615,7 @@
         <v>1</v>
       </c>
       <c r="D1372">
-        <v>680.811179264481</v>
+        <v>680.8044383034267</v>
       </c>
       <c r="E1372" t="s">
         <v>2636</v>
@@ -31632,7 +31632,7 @@
         <v>3</v>
       </c>
       <c r="D1373">
-        <v>113.5489595786543</v>
+        <v>113.5425976335348</v>
       </c>
       <c r="E1373" t="s">
         <v>2637</v>
@@ -31649,7 +31649,7 @@
         <v>1</v>
       </c>
       <c r="D1374">
-        <v>681.293757471926</v>
+        <v>681.2555858012086</v>
       </c>
       <c r="E1374" t="s">
         <v>2636</v>
@@ -31666,7 +31666,7 @@
         <v>3</v>
       </c>
       <c r="D1375">
-        <v>126.7429530711852</v>
+        <v>126.7458470805332</v>
       </c>
       <c r="E1375" t="s">
         <v>2637</v>
@@ -31683,7 +31683,7 @@
         <v>1</v>
       </c>
       <c r="D1376">
-        <v>760.457718427111</v>
+        <v>760.4750824831989</v>
       </c>
       <c r="E1376" t="s">
         <v>2636</v>
@@ -32907,7 +32907,7 @@
         <v>7</v>
       </c>
       <c r="D1448">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="E1448" t="s">
         <v>2637</v>
@@ -32924,7 +32924,7 @@
         <v>15</v>
       </c>
       <c r="D1449">
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="E1449" t="s">
         <v>2636</v>
@@ -32941,7 +32941,7 @@
         <v>16</v>
       </c>
       <c r="D1450">
-        <v>107.5</v>
+        <v>112.5</v>
       </c>
       <c r="E1450" t="s">
         <v>2636</v>
@@ -32958,7 +32958,7 @@
         <v>1</v>
       </c>
       <c r="D1451">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E1451" t="s">
         <v>2636</v>
@@ -33043,7 +33043,7 @@
         <v>7</v>
       </c>
       <c r="D1456">
-        <v>29.75</v>
+        <v>32.5</v>
       </c>
       <c r="E1456" t="s">
         <v>2637</v>
@@ -33060,7 +33060,7 @@
         <v>15</v>
       </c>
       <c r="D1457">
-        <v>148.75</v>
+        <v>162.5</v>
       </c>
       <c r="E1457" t="s">
         <v>2636</v>
@@ -33077,7 +33077,7 @@
         <v>16</v>
       </c>
       <c r="D1458">
-        <v>297.5</v>
+        <v>325</v>
       </c>
       <c r="E1458" t="s">
         <v>2636</v>
@@ -33094,7 +33094,7 @@
         <v>1</v>
       </c>
       <c r="D1459">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="E1459" t="s">
         <v>2636</v>
@@ -33111,7 +33111,7 @@
         <v>7</v>
       </c>
       <c r="D1460">
-        <v>18.92991647685474</v>
+        <v>20.25</v>
       </c>
       <c r="E1460" t="s">
         <v>2637</v>
@@ -33128,7 +33128,7 @@
         <v>15</v>
       </c>
       <c r="D1461">
-        <v>94.6495823842737</v>
+        <v>101.25</v>
       </c>
       <c r="E1461" t="s">
         <v>2636</v>
@@ -33145,7 +33145,7 @@
         <v>16</v>
       </c>
       <c r="D1462">
-        <v>189.2991647685474</v>
+        <v>202.5</v>
       </c>
       <c r="E1462" t="s">
         <v>2636</v>
@@ -33162,7 +33162,7 @@
         <v>1</v>
       </c>
       <c r="D1463">
-        <v>378.5983295370948</v>
+        <v>405</v>
       </c>
       <c r="E1463" t="s">
         <v>2636</v>
@@ -33179,7 +33179,7 @@
         <v>7</v>
       </c>
       <c r="D1464">
-        <v>32.5</v>
+        <v>33.25</v>
       </c>
       <c r="E1464" t="s">
         <v>2637</v>
@@ -33196,7 +33196,7 @@
         <v>15</v>
       </c>
       <c r="D1465">
-        <v>162.5</v>
+        <v>166.25</v>
       </c>
       <c r="E1465" t="s">
         <v>2636</v>
@@ -33213,7 +33213,7 @@
         <v>16</v>
       </c>
       <c r="D1466">
-        <v>325</v>
+        <v>332.5</v>
       </c>
       <c r="E1466" t="s">
         <v>2636</v>
@@ -33230,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="D1467">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E1467" t="s">
         <v>2636</v>
@@ -33247,7 +33247,7 @@
         <v>7</v>
       </c>
       <c r="D1468">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E1468" t="s">
         <v>2637</v>
@@ -33264,7 +33264,7 @@
         <v>15</v>
       </c>
       <c r="D1469">
-        <v>75</v>
+        <v>77.5</v>
       </c>
       <c r="E1469" t="s">
         <v>2636</v>
@@ -33281,7 +33281,7 @@
         <v>16</v>
       </c>
       <c r="D1470">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1470" t="s">
         <v>2636</v>
@@ -33298,7 +33298,7 @@
         <v>1</v>
       </c>
       <c r="D1471">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E1471" t="s">
         <v>2636</v>
@@ -33315,7 +33315,7 @@
         <v>7</v>
       </c>
       <c r="D1472">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="E1472" t="s">
         <v>2637</v>
@@ -33332,7 +33332,7 @@
         <v>15</v>
       </c>
       <c r="D1473">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E1473" t="s">
         <v>2636</v>
@@ -33349,7 +33349,7 @@
         <v>16</v>
       </c>
       <c r="D1474">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E1474" t="s">
         <v>2636</v>
@@ -33366,7 +33366,7 @@
         <v>1</v>
       </c>
       <c r="D1475">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="E1475" t="s">
         <v>2636</v>
@@ -34522,7 +34522,7 @@
         <v>7</v>
       </c>
       <c r="D1543">
-        <v>13.25</v>
+        <v>13.75</v>
       </c>
       <c r="E1543" t="s">
         <v>2637</v>
@@ -34539,7 +34539,7 @@
         <v>15</v>
       </c>
       <c r="D1544">
-        <v>66.25</v>
+        <v>68.75</v>
       </c>
       <c r="E1544" t="s">
         <v>2636</v>
@@ -34556,7 +34556,7 @@
         <v>16</v>
       </c>
       <c r="D1545">
-        <v>132.5</v>
+        <v>137.5</v>
       </c>
       <c r="E1545" t="s">
         <v>2636</v>
@@ -34573,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="D1546">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E1546" t="s">
         <v>2636</v>
@@ -34590,7 +34590,7 @@
         <v>7</v>
       </c>
       <c r="D1547">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="E1547" t="s">
         <v>2637</v>
@@ -34607,7 +34607,7 @@
         <v>15</v>
       </c>
       <c r="D1548">
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="E1548" t="s">
         <v>2636</v>
@@ -34624,7 +34624,7 @@
         <v>16</v>
       </c>
       <c r="D1549">
-        <v>112.5</v>
+        <v>120</v>
       </c>
       <c r="E1549" t="s">
         <v>2636</v>
@@ -34641,7 +34641,7 @@
         <v>1</v>
       </c>
       <c r="D1550">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E1550" t="s">
         <v>2636</v>
@@ -35134,7 +35134,7 @@
         <v>5</v>
       </c>
       <c r="D1579">
-        <v>933</v>
+        <v>927.25</v>
       </c>
       <c r="E1579" t="s">
         <v>2636</v>
@@ -35185,7 +35185,7 @@
         <v>2</v>
       </c>
       <c r="D1582">
-        <v>163.6336805654236</v>
+        <v>163.7873018140164</v>
       </c>
       <c r="E1582" t="s">
         <v>2636</v>
@@ -35202,7 +35202,7 @@
         <v>2</v>
       </c>
       <c r="D1583">
-        <v>163.6336984153233</v>
+        <v>163.7873177869741</v>
       </c>
       <c r="E1583" t="s">
         <v>2636</v>
@@ -35219,7 +35219,7 @@
         <v>2</v>
       </c>
       <c r="D1584">
-        <v>163.6336806820824</v>
+        <v>163.7873019247043</v>
       </c>
       <c r="E1584" t="s">
         <v>2636</v>
@@ -35236,7 +35236,7 @@
         <v>2</v>
       </c>
       <c r="D1585">
-        <v>163.6336806270937</v>
+        <v>163.7873018786365</v>
       </c>
       <c r="E1585" t="s">
         <v>2636</v>
@@ -35253,7 +35253,7 @@
         <v>2</v>
       </c>
       <c r="D1586">
-        <v>163.6336807637378</v>
+        <v>163.7873020019672</v>
       </c>
       <c r="E1586" t="s">
         <v>2636</v>
@@ -35270,7 +35270,7 @@
         <v>2</v>
       </c>
       <c r="D1587">
-        <v>163.6336834195973</v>
+        <v>163.7873044578236</v>
       </c>
       <c r="E1587" t="s">
         <v>2636</v>
@@ -35287,7 +35287,7 @@
         <v>2</v>
       </c>
       <c r="D1588">
-        <v>163.633690205268</v>
+        <v>163.7873106986379</v>
       </c>
       <c r="E1588" t="s">
         <v>2636</v>
@@ -36545,7 +36545,7 @@
         <v>2</v>
       </c>
       <c r="D1662">
-        <v>195.75</v>
+        <v>200</v>
       </c>
       <c r="E1662" t="s">
         <v>2637</v>
@@ -36562,7 +36562,7 @@
         <v>1</v>
       </c>
       <c r="D1663">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="E1663" t="s">
         <v>2636</v>
@@ -36630,7 +36630,7 @@
         <v>3</v>
       </c>
       <c r="D1667">
-        <v>43.29483075195211</v>
+        <v>43.17969513933952</v>
       </c>
       <c r="E1667" t="s">
         <v>2637</v>
@@ -36647,7 +36647,7 @@
         <v>1</v>
       </c>
       <c r="D1668">
-        <v>259.7689845117126</v>
+        <v>259.0781708360371</v>
       </c>
       <c r="E1668" t="s">
         <v>2636</v>
@@ -36664,7 +36664,7 @@
         <v>3</v>
       </c>
       <c r="D1669">
-        <v>43.11570742714331</v>
+        <v>43.08178963126952</v>
       </c>
       <c r="E1669" t="s">
         <v>2637</v>
@@ -36681,7 +36681,7 @@
         <v>1</v>
       </c>
       <c r="D1670">
-        <v>258.6942445628599</v>
+        <v>258.4907377876171</v>
       </c>
       <c r="E1670" t="s">
         <v>2636</v>
@@ -36800,7 +36800,7 @@
         <v>3</v>
       </c>
       <c r="D1677">
-        <v>24.5</v>
+        <v>24.25</v>
       </c>
       <c r="E1677" t="s">
         <v>2637</v>
@@ -36817,7 +36817,7 @@
         <v>1</v>
       </c>
       <c r="D1678">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E1678" t="s">
         <v>2636</v>
@@ -37429,7 +37429,7 @@
         <v>7</v>
       </c>
       <c r="D1714">
-        <v>18.97737122014992</v>
+        <v>19.5</v>
       </c>
       <c r="E1714" t="s">
         <v>2637</v>
@@ -37446,7 +37446,7 @@
         <v>15</v>
       </c>
       <c r="D1715">
-        <v>94.8868561007496</v>
+        <v>97.5</v>
       </c>
       <c r="E1715" t="s">
         <v>2636</v>
@@ -37463,7 +37463,7 @@
         <v>16</v>
       </c>
       <c r="D1716">
-        <v>189.7737122014992</v>
+        <v>195</v>
       </c>
       <c r="E1716" t="s">
         <v>2636</v>
@@ -37480,7 +37480,7 @@
         <v>1</v>
       </c>
       <c r="D1717">
-        <v>379.5474244029984</v>
+        <v>390</v>
       </c>
       <c r="E1717" t="s">
         <v>2636</v>
@@ -38143,7 +38143,7 @@
         <v>10</v>
       </c>
       <c r="D1756">
-        <v>130.25</v>
+        <v>131.75</v>
       </c>
       <c r="E1756" t="s">
         <v>2637</v>
@@ -38160,7 +38160,7 @@
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>781.5</v>
+        <v>790.5</v>
       </c>
       <c r="E1757" t="s">
         <v>2636</v>
@@ -38177,7 +38177,7 @@
         <v>10</v>
       </c>
       <c r="D1758">
-        <v>38.75</v>
+        <v>39</v>
       </c>
       <c r="E1758" t="s">
         <v>2637</v>
@@ -38194,7 +38194,7 @@
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="E1759" t="s">
         <v>2636</v>
@@ -38211,7 +38211,7 @@
         <v>10</v>
       </c>
       <c r="D1760">
-        <v>73.75</v>
+        <v>75</v>
       </c>
       <c r="E1760" t="s">
         <v>2637</v>
@@ -38228,7 +38228,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="E1761" t="s">
         <v>2636</v>
@@ -38245,7 +38245,7 @@
         <v>10</v>
       </c>
       <c r="D1762">
-        <v>73.25</v>
+        <v>74</v>
       </c>
       <c r="E1762" t="s">
         <v>2637</v>
@@ -38262,7 +38262,7 @@
         <v>1</v>
       </c>
       <c r="D1763">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="E1763" t="s">
         <v>2636</v>
@@ -38279,7 +38279,7 @@
         <v>10</v>
       </c>
       <c r="D1764">
-        <v>38.25</v>
+        <v>38.75</v>
       </c>
       <c r="E1764" t="s">
         <v>2637</v>
@@ -38296,7 +38296,7 @@
         <v>1</v>
       </c>
       <c r="D1765">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="E1765" t="s">
         <v>2636</v>
@@ -38891,7 +38891,7 @@
         <v>3</v>
       </c>
       <c r="D1800">
-        <v>83.98518521938516</v>
+        <v>83.9895210707093</v>
       </c>
       <c r="E1800" t="s">
         <v>2637</v>
@@ -38908,7 +38908,7 @@
         <v>1</v>
       </c>
       <c r="D1801">
-        <v>1679.703704387703</v>
+        <v>1679.790421414186</v>
       </c>
       <c r="E1801" t="s">
         <v>2636</v>
@@ -39078,7 +39078,7 @@
         <v>2</v>
       </c>
       <c r="D1811">
-        <v>61.07099230130227</v>
+        <v>61.15184465111055</v>
       </c>
       <c r="E1811" t="s">
         <v>2637</v>
@@ -39095,7 +39095,7 @@
         <v>1</v>
       </c>
       <c r="D1812">
-        <v>732.8519076156272</v>
+        <v>733.8221358133267</v>
       </c>
       <c r="E1812" t="s">
         <v>2636</v>
@@ -39112,7 +39112,7 @@
         <v>2</v>
       </c>
       <c r="D1813">
-        <v>59.82472831302964</v>
+        <v>60.7626205680311</v>
       </c>
       <c r="E1813" t="s">
         <v>2637</v>
@@ -39129,7 +39129,7 @@
         <v>1</v>
       </c>
       <c r="D1814">
-        <v>717.8967397563556</v>
+        <v>729.1514468163732</v>
       </c>
       <c r="E1814" t="s">
         <v>2636</v>
@@ -39146,7 +39146,7 @@
         <v>2</v>
       </c>
       <c r="D1815">
-        <v>59.94001017079359</v>
+        <v>60.76975485528489</v>
       </c>
       <c r="E1815" t="s">
         <v>2637</v>
@@ -39163,7 +39163,7 @@
         <v>1</v>
       </c>
       <c r="D1816">
-        <v>719.2801220495231</v>
+        <v>729.2370582634187</v>
       </c>
       <c r="E1816" t="s">
         <v>2636</v>
@@ -39180,7 +39180,7 @@
         <v>2</v>
       </c>
       <c r="D1817">
-        <v>61.03618775755143</v>
+        <v>61.12483535830729</v>
       </c>
       <c r="E1817" t="s">
         <v>2637</v>
@@ -39197,7 +39197,7 @@
         <v>1</v>
       </c>
       <c r="D1818">
-        <v>732.4342530906172</v>
+        <v>733.4980242996875</v>
       </c>
       <c r="E1818" t="s">
         <v>2636</v>
@@ -39809,7 +39809,7 @@
         <v>1</v>
       </c>
       <c r="D1854">
-        <v>275</v>
+        <v>275.75</v>
       </c>
       <c r="E1854" t="s">
         <v>2636</v>
@@ -39826,7 +39826,7 @@
         <v>1</v>
       </c>
       <c r="D1855">
-        <v>275</v>
+        <v>275.75</v>
       </c>
       <c r="E1855" t="s">
         <v>2636</v>
@@ -40302,7 +40302,7 @@
         <v>5</v>
       </c>
       <c r="D1883">
-        <v>516.25</v>
+        <v>513.75</v>
       </c>
       <c r="E1883" t="s">
         <v>2636</v>
@@ -41152,7 +41152,7 @@
         <v>12</v>
       </c>
       <c r="D1933">
-        <v>868.75</v>
+        <v>869</v>
       </c>
       <c r="E1933" t="s">
         <v>2636</v>
@@ -41526,7 +41526,7 @@
         <v>7</v>
       </c>
       <c r="D1955">
-        <v>22.75</v>
+        <v>22.25</v>
       </c>
       <c r="E1955" t="s">
         <v>2637</v>
@@ -41543,7 +41543,7 @@
         <v>1</v>
       </c>
       <c r="D1956">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E1956" t="s">
         <v>2636</v>
@@ -42019,7 +42019,7 @@
         <v>3</v>
       </c>
       <c r="D1984">
-        <v>83.96584331009031</v>
+        <v>83.97331216508674</v>
       </c>
       <c r="E1984" t="s">
         <v>2637</v>
@@ -42036,7 +42036,7 @@
         <v>1</v>
       </c>
       <c r="D1985">
-        <v>1679.316866201806</v>
+        <v>1679.466243301735</v>
       </c>
       <c r="E1985" t="s">
         <v>2636</v>
@@ -42053,7 +42053,7 @@
         <v>3</v>
       </c>
       <c r="D1986">
-        <v>84.24862774015412</v>
+        <v>84.30732709839295</v>
       </c>
       <c r="E1986" t="s">
         <v>2637</v>
@@ -42070,7 +42070,7 @@
         <v>1</v>
       </c>
       <c r="D1987">
-        <v>842.4862774015412</v>
+        <v>843.0732709839294</v>
       </c>
       <c r="E1987" t="s">
         <v>2636</v>
@@ -42087,7 +42087,7 @@
         <v>3</v>
       </c>
       <c r="D1988">
-        <v>84.05843056376386</v>
+        <v>84.14198943328732</v>
       </c>
       <c r="E1988" t="s">
         <v>2637</v>
@@ -42104,7 +42104,7 @@
         <v>1</v>
       </c>
       <c r="D1989">
-        <v>840.5843056376386</v>
+        <v>841.4198943328732</v>
       </c>
       <c r="E1989" t="s">
         <v>2636</v>
@@ -42291,7 +42291,7 @@
         <v>2</v>
       </c>
       <c r="D2000">
-        <v>132.25</v>
+        <v>136.5</v>
       </c>
       <c r="E2000" t="s">
         <v>2636</v>
@@ -42444,7 +42444,7 @@
         <v>2</v>
       </c>
       <c r="D2009">
-        <v>100.6590772917883</v>
+        <v>101.9602216505038</v>
       </c>
       <c r="E2009" t="s">
         <v>2636</v>
@@ -42461,7 +42461,7 @@
         <v>2</v>
       </c>
       <c r="D2010">
-        <v>100.75</v>
+        <v>101.25</v>
       </c>
       <c r="E2010" t="s">
         <v>2636</v>
@@ -42478,7 +42478,7 @@
         <v>2</v>
       </c>
       <c r="D2011">
-        <v>100.6590772917157</v>
+        <v>101.9602216504779</v>
       </c>
       <c r="E2011" t="s">
         <v>2636</v>
@@ -42495,7 +42495,7 @@
         <v>2</v>
       </c>
       <c r="D2012">
-        <v>100.6590772917915</v>
+        <v>101.9602216505047</v>
       </c>
       <c r="E2012" t="s">
         <v>2636</v>
@@ -42512,7 +42512,7 @@
         <v>2</v>
       </c>
       <c r="D2013">
-        <v>100.6590772917914</v>
+        <v>101.9602216505046</v>
       </c>
       <c r="E2013" t="s">
         <v>2636</v>
@@ -42835,7 +42835,7 @@
         <v>14</v>
       </c>
       <c r="D2032">
-        <v>77.04243029582364</v>
+        <v>77.04242623677806</v>
       </c>
       <c r="E2032" t="s">
         <v>2637</v>
@@ -42852,7 +42852,7 @@
         <v>1</v>
       </c>
       <c r="D2033">
-        <v>1155.636454437355</v>
+        <v>1155.636393551671</v>
       </c>
       <c r="E2033" t="s">
         <v>2636</v>
@@ -43396,7 +43396,7 @@
         <v>3</v>
       </c>
       <c r="D2065">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="E2065" t="s">
         <v>2637</v>
@@ -43413,7 +43413,7 @@
         <v>1</v>
       </c>
       <c r="D2066">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E2066" t="s">
         <v>2636</v>
@@ -43498,7 +43498,7 @@
         <v>3</v>
       </c>
       <c r="D2071">
-        <v>15</v>
+        <v>15.25</v>
       </c>
       <c r="E2071" t="s">
         <v>2637</v>
@@ -43515,7 +43515,7 @@
         <v>1</v>
       </c>
       <c r="D2072">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E2072" t="s">
         <v>2636</v>
@@ -43872,7 +43872,7 @@
         <v>2</v>
       </c>
       <c r="D2093">
-        <v>83.6820136038658</v>
+        <v>83.98625736796077</v>
       </c>
       <c r="E2093" t="s">
         <v>2637</v>
@@ -43889,7 +43889,7 @@
         <v>1</v>
       </c>
       <c r="D2094">
-        <v>1004.18416324639</v>
+        <v>1007.835088415529</v>
       </c>
       <c r="E2094" t="s">
         <v>2636</v>
@@ -43906,7 +43906,7 @@
         <v>2</v>
       </c>
       <c r="D2095">
-        <v>83.77006436635548</v>
+        <v>84.29810901527786</v>
       </c>
       <c r="E2095" t="s">
         <v>2637</v>
@@ -43923,7 +43923,7 @@
         <v>1</v>
       </c>
       <c r="D2096">
-        <v>1005.240772396266</v>
+        <v>1011.577308183334</v>
       </c>
       <c r="E2096" t="s">
         <v>2636</v>
@@ -43940,7 +43940,7 @@
         <v>2</v>
       </c>
       <c r="D2097">
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="E2097" t="s">
         <v>2637</v>
@@ -43957,7 +43957,7 @@
         <v>1</v>
       </c>
       <c r="D2098">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="E2098" t="s">
         <v>2636</v>
@@ -44331,7 +44331,7 @@
         <v>5</v>
       </c>
       <c r="D2120">
-        <v>813.5</v>
+        <v>810</v>
       </c>
       <c r="E2120" t="s">
         <v>2636</v>
@@ -44467,7 +44467,7 @@
         <v>7</v>
       </c>
       <c r="D2128">
-        <v>16.5</v>
+        <v>16.75</v>
       </c>
       <c r="E2128" t="s">
         <v>2637</v>
@@ -44484,7 +44484,7 @@
         <v>1</v>
       </c>
       <c r="D2129">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E2129" t="s">
         <v>2636</v>
@@ -44569,7 +44569,7 @@
         <v>3</v>
       </c>
       <c r="D2134">
-        <v>93.40863403516364</v>
+        <v>93.38024733523935</v>
       </c>
       <c r="E2134" t="s">
         <v>2637</v>
@@ -44586,7 +44586,7 @@
         <v>1</v>
       </c>
       <c r="D2135">
-        <v>1120.903608421964</v>
+        <v>1120.562968022872</v>
       </c>
       <c r="E2135" t="s">
         <v>2636</v>
@@ -44603,7 +44603,7 @@
         <v>3</v>
       </c>
       <c r="D2136">
-        <v>93.37354887456975</v>
+        <v>93.35819401756304</v>
       </c>
       <c r="E2136" t="s">
         <v>2637</v>
@@ -44620,7 +44620,7 @@
         <v>1</v>
       </c>
       <c r="D2137">
-        <v>1120.482586494837</v>
+        <v>1120.298328210756</v>
       </c>
       <c r="E2137" t="s">
         <v>2636</v>
@@ -44654,7 +44654,7 @@
         <v>7</v>
       </c>
       <c r="D2139">
-        <v>47</v>
+        <v>49.5</v>
       </c>
       <c r="E2139" t="s">
         <v>2637</v>
@@ -44671,7 +44671,7 @@
         <v>1</v>
       </c>
       <c r="D2140">
-        <v>940</v>
+        <v>990</v>
       </c>
       <c r="E2140" t="s">
         <v>2636</v>
@@ -44722,7 +44722,7 @@
         <v>7</v>
       </c>
       <c r="D2143">
-        <v>25.30113179363438</v>
+        <v>26.5</v>
       </c>
       <c r="E2143" t="s">
         <v>2637</v>
@@ -44739,7 +44739,7 @@
         <v>1</v>
       </c>
       <c r="D2144">
-        <v>506.0226358726876</v>
+        <v>530</v>
       </c>
       <c r="E2144" t="s">
         <v>2636</v>
@@ -44756,7 +44756,7 @@
         <v>7</v>
       </c>
       <c r="D2145">
-        <v>46.75</v>
+        <v>47.75</v>
       </c>
       <c r="E2145" t="s">
         <v>2637</v>
@@ -44773,7 +44773,7 @@
         <v>1</v>
       </c>
       <c r="D2146">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="E2146" t="s">
         <v>2636</v>
@@ -44790,7 +44790,7 @@
         <v>7</v>
       </c>
       <c r="D2147">
-        <v>28</v>
+        <v>28.25</v>
       </c>
       <c r="E2147" t="s">
         <v>2637</v>
@@ -44807,7 +44807,7 @@
         <v>1</v>
       </c>
       <c r="D2148">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E2148" t="s">
         <v>2636</v>
@@ -44824,7 +44824,7 @@
         <v>7</v>
       </c>
       <c r="D2149">
-        <v>19.75</v>
+        <v>20</v>
       </c>
       <c r="E2149" t="s">
         <v>2637</v>
@@ -44841,7 +44841,7 @@
         <v>1</v>
       </c>
       <c r="D2150">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E2150" t="s">
         <v>2636</v>
@@ -44858,7 +44858,7 @@
         <v>7</v>
       </c>
       <c r="D2151">
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
       <c r="E2151" t="s">
         <v>2637</v>
@@ -44875,7 +44875,7 @@
         <v>1</v>
       </c>
       <c r="D2152">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E2152" t="s">
         <v>2636</v>
@@ -45147,7 +45147,7 @@
         <v>2</v>
       </c>
       <c r="D2168">
-        <v>156.9553392332074</v>
+        <v>157</v>
       </c>
       <c r="E2168" t="s">
         <v>2636</v>
@@ -45300,7 +45300,7 @@
         <v>3</v>
       </c>
       <c r="D2177">
-        <v>131.25</v>
+        <v>131.5</v>
       </c>
       <c r="E2177" t="s">
         <v>2637</v>
@@ -45317,7 +45317,7 @@
         <v>1</v>
       </c>
       <c r="D2178">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E2178" t="s">
         <v>2636</v>
@@ -46575,7 +46575,7 @@
         <v>2</v>
       </c>
       <c r="D2252">
-        <v>94.97783968413522</v>
+        <v>96.00681806873784</v>
       </c>
       <c r="E2252" t="s">
         <v>2637</v>
@@ -46592,7 +46592,7 @@
         <v>1</v>
       </c>
       <c r="D2253">
-        <v>759.8227174730818</v>
+        <v>768.0545445499027</v>
       </c>
       <c r="E2253" t="s">
         <v>2636</v>
@@ -47068,7 +47068,7 @@
         <v>25</v>
       </c>
       <c r="D2281">
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="E2281" t="s">
         <v>2637</v>
@@ -47085,7 +47085,7 @@
         <v>15</v>
       </c>
       <c r="D2282">
-        <v>193.5</v>
+        <v>195</v>
       </c>
       <c r="E2282" t="s">
         <v>2636</v>
@@ -47102,7 +47102,7 @@
         <v>1</v>
       </c>
       <c r="D2283">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="E2283" t="s">
         <v>2636</v>
@@ -47459,7 +47459,7 @@
         <v>23</v>
       </c>
       <c r="D2304">
-        <v>27</v>
+        <v>27.25</v>
       </c>
       <c r="E2304" t="s">
         <v>2637</v>
@@ -47476,7 +47476,7 @@
         <v>2</v>
       </c>
       <c r="D2305">
-        <v>162</v>
+        <v>163.5</v>
       </c>
       <c r="E2305" t="s">
         <v>2636</v>
@@ -47493,7 +47493,7 @@
         <v>1</v>
       </c>
       <c r="D2306">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="E2306" t="s">
         <v>2636</v>
@@ -47714,7 +47714,7 @@
         <v>23</v>
       </c>
       <c r="D2319">
-        <v>27.28148090299329</v>
+        <v>27.46827788760485</v>
       </c>
       <c r="E2319" t="s">
         <v>2637</v>
@@ -47731,7 +47731,7 @@
         <v>2</v>
       </c>
       <c r="D2320">
-        <v>163.6888854179597</v>
+        <v>164.8096673256291</v>
       </c>
       <c r="E2320" t="s">
         <v>2636</v>
@@ -47748,7 +47748,7 @@
         <v>1</v>
       </c>
       <c r="D2321">
-        <v>982.1333125077584</v>
+        <v>988.8580039537744</v>
       </c>
       <c r="E2321" t="s">
         <v>2636</v>
@@ -47765,7 +47765,7 @@
         <v>23</v>
       </c>
       <c r="D2322">
-        <v>27.26678333638255</v>
+        <v>27.46299712108869</v>
       </c>
       <c r="E2322" t="s">
         <v>2637</v>
@@ -47782,7 +47782,7 @@
         <v>2</v>
       </c>
       <c r="D2323">
-        <v>163.6007000182953</v>
+        <v>164.7779827265322</v>
       </c>
       <c r="E2323" t="s">
         <v>2636</v>
@@ -47799,7 +47799,7 @@
         <v>1</v>
       </c>
       <c r="D2324">
-        <v>981.6042001097717</v>
+        <v>988.667896359193</v>
       </c>
       <c r="E2324" t="s">
         <v>2636</v>
@@ -48989,7 +48989,7 @@
         <v>3</v>
       </c>
       <c r="D2394">
-        <v>68.25</v>
+        <v>68.5</v>
       </c>
       <c r="E2394" t="s">
         <v>2637</v>
@@ -49006,7 +49006,7 @@
         <v>1</v>
       </c>
       <c r="D2395">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E2395" t="s">
         <v>2636</v>
@@ -50043,7 +50043,7 @@
         <v>1</v>
       </c>
       <c r="D2456">
-        <v>286.6488876640065</v>
+        <v>287.6891788613359</v>
       </c>
       <c r="E2456" t="s">
         <v>2636</v>
@@ -50281,7 +50281,7 @@
         <v>1</v>
       </c>
       <c r="D2470">
-        <v>78</v>
+        <v>79.25</v>
       </c>
       <c r="E2470" t="s">
         <v>2636</v>
@@ -50808,7 +50808,7 @@
         <v>5</v>
       </c>
       <c r="D2501">
-        <v>493.5</v>
+        <v>494</v>
       </c>
       <c r="E2501" t="s">
         <v>2636</v>
@@ -51981,7 +51981,7 @@
         <v>7</v>
       </c>
       <c r="D2570">
-        <v>18.5</v>
+        <v>18.75</v>
       </c>
       <c r="E2570" t="s">
         <v>2637</v>
@@ -51998,7 +51998,7 @@
         <v>1</v>
       </c>
       <c r="D2571">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E2571" t="s">
         <v>2636</v>
@@ -52848,7 +52848,7 @@
         <v>3</v>
       </c>
       <c r="D2621">
-        <v>114.2872916019434</v>
+        <v>114.2873693191048</v>
       </c>
       <c r="E2621" t="s">
         <v>2637</v>
@@ -52865,7 +52865,7 @@
         <v>1</v>
       </c>
       <c r="D2622">
-        <v>685.7237496116604</v>
+        <v>685.724215914629</v>
       </c>
       <c r="E2622" t="s">
         <v>2636</v>
@@ -54480,7 +54480,7 @@
         <v>3</v>
       </c>
       <c r="D2717">
-        <v>29.57556854709447</v>
+        <v>29.57556854706926</v>
       </c>
       <c r="E2717" t="s">
         <v>2637</v>
@@ -54497,7 +54497,7 @@
         <v>1</v>
       </c>
       <c r="D2718">
-        <v>1419.627290260535</v>
+        <v>1419.627290259324</v>
       </c>
       <c r="E2718" t="s">
         <v>2636</v>
@@ -54514,7 +54514,7 @@
         <v>3</v>
       </c>
       <c r="D2719">
-        <v>29.57556884674749</v>
+        <v>29.57556883372431</v>
       </c>
       <c r="E2719" t="s">
         <v>2637</v>
@@ -54531,7 +54531,7 @@
         <v>1</v>
       </c>
       <c r="D2720">
-        <v>1419.62730464388</v>
+        <v>1419.627304018767</v>
       </c>
       <c r="E2720" t="s">
         <v>2636</v>
@@ -55109,7 +55109,7 @@
         <v>3</v>
       </c>
       <c r="D2754">
-        <v>330.7785988452114</v>
+        <v>330.7786150677919</v>
       </c>
       <c r="E2754" t="s">
         <v>2637</v>
@@ -55126,7 +55126,7 @@
         <v>1</v>
       </c>
       <c r="D2755">
-        <v>2646.228790761691</v>
+        <v>2646.228920542335</v>
       </c>
       <c r="E2755" t="s">
         <v>2636</v>
@@ -55143,7 +55143,7 @@
         <v>3</v>
       </c>
       <c r="D2756">
-        <v>330.7630121895859</v>
+        <v>330.7643061148626</v>
       </c>
       <c r="E2756" t="s">
         <v>2637</v>
@@ -55160,7 +55160,7 @@
         <v>1</v>
       </c>
       <c r="D2757">
-        <v>2646.104097516687</v>
+        <v>2646.114448918901</v>
       </c>
       <c r="E2757" t="s">
         <v>2636</v>
@@ -55177,7 +55177,7 @@
         <v>3</v>
       </c>
       <c r="D2758">
-        <v>420.7676578598895</v>
+        <v>420.7684477973683</v>
       </c>
       <c r="E2758" t="s">
         <v>2637</v>
@@ -55194,7 +55194,7 @@
         <v>1</v>
       </c>
       <c r="D2759">
-        <v>3366.141262879116</v>
+        <v>3366.147582378946</v>
       </c>
       <c r="E2759" t="s">
         <v>2636</v>
@@ -55211,7 +55211,7 @@
         <v>3</v>
       </c>
       <c r="D2760">
-        <v>420.6714194899804</v>
+        <v>420.6812248671391</v>
       </c>
       <c r="E2760" t="s">
         <v>2637</v>
@@ -55228,7 +55228,7 @@
         <v>1</v>
       </c>
       <c r="D2761">
-        <v>3365.371355919843</v>
+        <v>3365.449798937113</v>
       </c>
       <c r="E2761" t="s">
         <v>2636</v>
@@ -55262,7 +55262,7 @@
         <v>2</v>
       </c>
       <c r="D2763">
-        <v>229.25</v>
+        <v>230</v>
       </c>
       <c r="E2763" t="s">
         <v>2636</v>
@@ -55279,7 +55279,7 @@
         <v>2</v>
       </c>
       <c r="D2764">
-        <v>280.75</v>
+        <v>282</v>
       </c>
       <c r="E2764" t="s">
         <v>2636</v>
@@ -55806,7 +55806,7 @@
         <v>25</v>
       </c>
       <c r="D2795">
-        <v>400</v>
+        <v>400.25</v>
       </c>
       <c r="E2795" t="s">
         <v>2637</v>
@@ -55823,7 +55823,7 @@
         <v>29</v>
       </c>
       <c r="D2796">
-        <v>800</v>
+        <v>800.5</v>
       </c>
       <c r="E2796" t="s">
         <v>2636</v>
@@ -59189,7 +59189,7 @@
         <v>3</v>
       </c>
       <c r="D2994">
-        <v>64.5</v>
+        <v>65.5</v>
       </c>
       <c r="E2994" t="s">
         <v>2637</v>
@@ -59206,7 +59206,7 @@
         <v>1</v>
       </c>
       <c r="D2995">
-        <v>2064</v>
+        <v>2096</v>
       </c>
       <c r="E2995" t="s">
         <v>2636</v>
@@ -61620,7 +61620,7 @@
         <v>7</v>
       </c>
       <c r="D3137">
-        <v>25.22477927364454</v>
+        <v>25.25</v>
       </c>
       <c r="E3137" t="s">
         <v>2637</v>
@@ -61637,7 +61637,7 @@
         <v>1</v>
       </c>
       <c r="D3138">
-        <v>504.4955854728908</v>
+        <v>505</v>
       </c>
       <c r="E3138" t="s">
         <v>2636</v>
@@ -61875,7 +61875,7 @@
         <v>3</v>
       </c>
       <c r="D3152">
-        <v>382.8365532718237</v>
+        <v>382.8374359258478</v>
       </c>
       <c r="E3152" t="s">
         <v>2637</v>
@@ -61892,7 +61892,7 @@
         <v>1</v>
       </c>
       <c r="D3153">
-        <v>4594.038639261885</v>
+        <v>4594.049231110173</v>
       </c>
       <c r="E3153" t="s">
         <v>2636</v>
@@ -61960,7 +61960,7 @@
         <v>2</v>
       </c>
       <c r="D3157">
-        <v>144</v>
+        <v>145.5</v>
       </c>
       <c r="E3157" t="s">
         <v>2636</v>
@@ -62453,7 +62453,7 @@
         <v>10</v>
       </c>
       <c r="D3186">
-        <v>16.10339849900849</v>
+        <v>16.26293374780963</v>
       </c>
       <c r="E3186" t="s">
         <v>2637</v>
@@ -62470,7 +62470,7 @@
         <v>1</v>
       </c>
       <c r="D3187">
-        <v>193.2407819881018</v>
+        <v>195.1552049737155</v>
       </c>
       <c r="E3187" t="s">
         <v>2636</v>
@@ -62487,7 +62487,7 @@
         <v>10</v>
       </c>
       <c r="D3188">
-        <v>16.11753080747825</v>
+        <v>16.27616776622378</v>
       </c>
       <c r="E3188" t="s">
         <v>2637</v>
@@ -62504,7 +62504,7 @@
         <v>1</v>
       </c>
       <c r="D3189">
-        <v>193.410369689739</v>
+        <v>195.3140131946853</v>
       </c>
       <c r="E3189" t="s">
         <v>2636</v>
@@ -63099,7 +63099,7 @@
         <v>10</v>
       </c>
       <c r="D3224">
-        <v>16.706643109111</v>
+        <v>16.73138184016181</v>
       </c>
       <c r="E3224" t="s">
         <v>2637</v>
@@ -63116,7 +63116,7 @@
         <v>1</v>
       </c>
       <c r="D3225">
-        <v>200.4797173093319</v>
+        <v>200.7765820819417</v>
       </c>
       <c r="E3225" t="s">
         <v>2636</v>
@@ -63371,7 +63371,7 @@
         <v>3</v>
       </c>
       <c r="D3240">
-        <v>47.62011816291094</v>
+        <v>47.62011816998823</v>
       </c>
       <c r="E3240" t="s">
         <v>2637</v>
@@ -63388,7 +63388,7 @@
         <v>1</v>
       </c>
       <c r="D3241">
-        <v>571.4414179549312</v>
+        <v>571.4414180398587</v>
       </c>
       <c r="E3241" t="s">
         <v>2636</v>
@@ -63405,7 +63405,7 @@
         <v>3</v>
       </c>
       <c r="D3242">
-        <v>47.62011553599501</v>
+        <v>47.62011592433231</v>
       </c>
       <c r="E3242" t="s">
         <v>2637</v>
@@ -63422,7 +63422,7 @@
         <v>1</v>
       </c>
       <c r="D3243">
-        <v>571.4413864319401</v>
+        <v>571.4413910919877</v>
       </c>
       <c r="E3243" t="s">
         <v>2636</v>
@@ -63439,7 +63439,7 @@
         <v>3</v>
       </c>
       <c r="D3244">
-        <v>47.62011823286844</v>
+        <v>47.62011823424842</v>
       </c>
       <c r="E3244" t="s">
         <v>2637</v>
@@ -63456,7 +63456,7 @@
         <v>1</v>
       </c>
       <c r="D3245">
-        <v>571.4414187944213</v>
+        <v>571.441418810981</v>
       </c>
       <c r="E3245" t="s">
         <v>2636</v>
@@ -63473,7 +63473,7 @@
         <v>3</v>
       </c>
       <c r="D3246">
-        <v>47.62011501534381</v>
+        <v>47.62011566332814</v>
       </c>
       <c r="E3246" t="s">
         <v>2637</v>
@@ -63490,7 +63490,7 @@
         <v>1</v>
       </c>
       <c r="D3247">
-        <v>571.4413801841257</v>
+        <v>571.4413879599377</v>
       </c>
       <c r="E3247" t="s">
         <v>2636</v>
@@ -63592,7 +63592,7 @@
         <v>10</v>
       </c>
       <c r="D3253">
-        <v>16.75</v>
+        <v>16.7285306367367</v>
       </c>
       <c r="E3253" t="s">
         <v>2637</v>
@@ -63609,7 +63609,7 @@
         <v>1</v>
       </c>
       <c r="D3254">
-        <v>201</v>
+        <v>200.7423676408404</v>
       </c>
       <c r="E3254" t="s">
         <v>2636</v>
@@ -64255,7 +64255,7 @@
         <v>3</v>
       </c>
       <c r="D3292">
-        <v>84</v>
+        <v>84.25</v>
       </c>
       <c r="E3292" t="s">
         <v>2637</v>
@@ -64272,7 +64272,7 @@
         <v>1</v>
       </c>
       <c r="D3293">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="E3293" t="s">
         <v>2636</v>
@@ -64493,7 +64493,7 @@
         <v>80</v>
       </c>
       <c r="D3306">
-        <v>344.5119017304623</v>
+        <v>345.0914679046555</v>
       </c>
       <c r="E3306" t="s">
         <v>2637</v>
@@ -64510,7 +64510,7 @@
         <v>29</v>
       </c>
       <c r="D3307">
-        <v>689.0238034609247</v>
+        <v>690.1829358093111</v>
       </c>
       <c r="E3307" t="s">
         <v>2636</v>
@@ -64561,7 +64561,7 @@
         <v>3</v>
       </c>
       <c r="D3310">
-        <v>32.75</v>
+        <v>33.25</v>
       </c>
       <c r="E3310" t="s">
         <v>2637</v>
@@ -64578,7 +64578,7 @@
         <v>1</v>
       </c>
       <c r="D3311">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="E3311" t="s">
         <v>2636</v>
@@ -64629,7 +64629,7 @@
         <v>80</v>
       </c>
       <c r="D3314">
-        <v>344.7867553085694</v>
+        <v>345.3324712197292</v>
       </c>
       <c r="E3314" t="s">
         <v>2637</v>
@@ -64646,7 +64646,7 @@
         <v>29</v>
       </c>
       <c r="D3315">
-        <v>689.5735106171387</v>
+        <v>690.6649424394584</v>
       </c>
       <c r="E3315" t="s">
         <v>2636</v>
@@ -64663,7 +64663,7 @@
         <v>80</v>
       </c>
       <c r="D3316">
-        <v>375.5</v>
+        <v>376.5</v>
       </c>
       <c r="E3316" t="s">
         <v>2637</v>
@@ -64680,7 +64680,7 @@
         <v>29</v>
       </c>
       <c r="D3317">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E3317" t="s">
         <v>2636</v>
@@ -64799,7 +64799,7 @@
         <v>14</v>
       </c>
       <c r="D3324">
-        <v>170.75</v>
+        <v>171</v>
       </c>
       <c r="E3324" t="s">
         <v>2637</v>
@@ -64816,7 +64816,7 @@
         <v>1</v>
       </c>
       <c r="D3325">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="E3325" t="s">
         <v>2636</v>
@@ -65241,7 +65241,7 @@
         <v>3</v>
       </c>
       <c r="D3350">
-        <v>140.25</v>
+        <v>139.5</v>
       </c>
       <c r="E3350" t="s">
         <v>2637</v>
@@ -65258,7 +65258,7 @@
         <v>1</v>
       </c>
       <c r="D3351">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="E3351" t="s">
         <v>2636</v>
@@ -65275,7 +65275,7 @@
         <v>3</v>
       </c>
       <c r="D3352">
-        <v>139.75</v>
+        <v>138.75</v>
       </c>
       <c r="E3352" t="s">
         <v>2637</v>
@@ -65292,7 +65292,7 @@
         <v>1</v>
       </c>
       <c r="D3353">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="E3353" t="s">
         <v>2636</v>
@@ -65513,7 +65513,7 @@
         <v>3</v>
       </c>
       <c r="D3366">
-        <v>215.1240941917606</v>
+        <v>215.5607762442244</v>
       </c>
       <c r="E3366" t="s">
         <v>2637</v>
@@ -65530,7 +65530,7 @@
         <v>1</v>
       </c>
       <c r="D3367">
-        <v>2581.489130301128</v>
+        <v>2586.729314930692</v>
       </c>
       <c r="E3367" t="s">
         <v>2636</v>
@@ -65615,7 +65615,7 @@
         <v>3</v>
       </c>
       <c r="D3372">
-        <v>216.5</v>
+        <v>216.3332211297908</v>
       </c>
       <c r="E3372" t="s">
         <v>2637</v>
@@ -65632,7 +65632,7 @@
         <v>1</v>
       </c>
       <c r="D3373">
-        <v>2598</v>
+        <v>2595.998653557489</v>
       </c>
       <c r="E3373" t="s">
         <v>2636</v>
@@ -65649,7 +65649,7 @@
         <v>3</v>
       </c>
       <c r="D3374">
-        <v>215.2081185166691</v>
+        <v>215.4758815938705</v>
       </c>
       <c r="E3374" t="s">
         <v>2637</v>
@@ -65666,7 +65666,7 @@
         <v>1</v>
       </c>
       <c r="D3375">
-        <v>2582.497422200029</v>
+        <v>2585.710579126446</v>
       </c>
       <c r="E3375" t="s">
         <v>2636</v>
@@ -66890,7 +66890,7 @@
         <v>3</v>
       </c>
       <c r="D3447">
-        <v>76.20814032433964</v>
+        <v>76.20314710765787</v>
       </c>
       <c r="E3447" t="s">
         <v>2637</v>
@@ -66907,7 +66907,7 @@
         <v>2</v>
       </c>
       <c r="D3448">
-        <v>228.6244209730189</v>
+        <v>228.6094413229736</v>
       </c>
       <c r="E3448" t="s">
         <v>2636</v>
@@ -67621,7 +67621,7 @@
         <v>80</v>
       </c>
       <c r="D3490">
-        <v>284</v>
+        <v>283.75</v>
       </c>
       <c r="E3490" t="s">
         <v>2637</v>
@@ -67638,7 +67638,7 @@
         <v>29</v>
       </c>
       <c r="D3491">
-        <v>852</v>
+        <v>851.25</v>
       </c>
       <c r="E3491" t="s">
         <v>2636</v>
@@ -69321,7 +69321,7 @@
         <v>3</v>
       </c>
       <c r="D3590">
-        <v>136</v>
+        <v>135.5</v>
       </c>
       <c r="E3590" t="s">
         <v>2637</v>
@@ -69338,7 +69338,7 @@
         <v>1</v>
       </c>
       <c r="D3591">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E3591" t="s">
         <v>2636</v>
@@ -70613,7 +70613,7 @@
         <v>2</v>
       </c>
       <c r="D3666">
-        <v>365.6041002668965</v>
+        <v>369.6463102451435</v>
       </c>
       <c r="E3666" t="s">
         <v>2637</v>
@@ -70630,7 +70630,7 @@
         <v>1</v>
       </c>
       <c r="D3667">
-        <v>2193.624601601379</v>
+        <v>2217.877861470861</v>
       </c>
       <c r="E3667" t="s">
         <v>2636</v>
@@ -70715,7 +70715,7 @@
         <v>2</v>
       </c>
       <c r="D3672">
-        <v>365.395028455546</v>
+        <v>369.573210254811</v>
       </c>
       <c r="E3672" t="s">
         <v>2637</v>
@@ -70732,7 +70732,7 @@
         <v>1</v>
       </c>
       <c r="D3673">
-        <v>2192.370170733276</v>
+        <v>2217.439261528866</v>
       </c>
       <c r="E3673" t="s">
         <v>2636</v>
@@ -70749,7 +70749,7 @@
         <v>2</v>
       </c>
       <c r="D3674">
-        <v>162.25</v>
+        <v>164</v>
       </c>
       <c r="E3674" t="s">
         <v>2637</v>
@@ -70766,7 +70766,7 @@
         <v>1</v>
       </c>
       <c r="D3675">
-        <v>973.5</v>
+        <v>984</v>
       </c>
       <c r="E3675" t="s">
         <v>2636</v>
@@ -70817,7 +70817,7 @@
         <v>2</v>
       </c>
       <c r="D3678">
-        <v>163.75</v>
+        <v>164.5</v>
       </c>
       <c r="E3678" t="s">
         <v>2637</v>
@@ -70834,7 +70834,7 @@
         <v>1</v>
       </c>
       <c r="D3679">
-        <v>982.5</v>
+        <v>987</v>
       </c>
       <c r="E3679" t="s">
         <v>2636</v>
@@ -70936,7 +70936,7 @@
         <v>2</v>
       </c>
       <c r="D3685">
-        <v>98.83648980163471</v>
+        <v>98.44021441221116</v>
       </c>
       <c r="E3685" t="s">
         <v>2636</v>
@@ -71667,7 +71667,7 @@
         <v>1</v>
       </c>
       <c r="D3728">
-        <v>637.75</v>
+        <v>637.5</v>
       </c>
       <c r="E3728" t="s">
         <v>2636</v>
@@ -71752,7 +71752,7 @@
         <v>1</v>
       </c>
       <c r="D3733">
-        <v>468.5</v>
+        <v>467.75</v>
       </c>
       <c r="E3733" t="s">
         <v>2636</v>
@@ -72024,7 +72024,7 @@
         <v>3</v>
       </c>
       <c r="D3749">
-        <v>759.5</v>
+        <v>759.75</v>
       </c>
       <c r="E3749" t="s">
         <v>2637</v>
@@ -72041,7 +72041,7 @@
         <v>1</v>
       </c>
       <c r="D3750">
-        <v>7595</v>
+        <v>7597.5</v>
       </c>
       <c r="E3750" t="s">
         <v>2636</v>
@@ -72083,16 +72083,16 @@
     </row>
     <row r="3753" spans="1:5">
       <c r="A3753">
-        <v>11084</v>
+        <v>11081</v>
       </c>
       <c r="B3753" t="s">
         <v>2478</v>
       </c>
       <c r="C3753">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3753">
-        <v>52.30613359903995</v>
+        <v>78</v>
       </c>
       <c r="E3753" t="s">
         <v>2637</v>
@@ -72100,7 +72100,7 @@
     </row>
     <row r="3754" spans="1:5">
       <c r="A3754">
-        <v>11084</v>
+        <v>11081</v>
       </c>
       <c r="B3754" t="s">
         <v>2478</v>
@@ -72109,7 +72109,7 @@
         <v>1</v>
       </c>
       <c r="D3754">
-        <v>627.6736031884794</v>
+        <v>936</v>
       </c>
       <c r="E3754" t="s">
         <v>2636</v>
@@ -72117,7 +72117,7 @@
     </row>
     <row r="3755" spans="1:5">
       <c r="A3755">
-        <v>11085</v>
+        <v>11084</v>
       </c>
       <c r="B3755" t="s">
         <v>2479</v>
@@ -72126,7 +72126,7 @@
         <v>2</v>
       </c>
       <c r="D3755">
-        <v>52.30613359902034</v>
+        <v>52.30613359903914</v>
       </c>
       <c r="E3755" t="s">
         <v>2637</v>
@@ -72134,7 +72134,7 @@
     </row>
     <row r="3756" spans="1:5">
       <c r="A3756">
-        <v>11085</v>
+        <v>11084</v>
       </c>
       <c r="B3756" t="s">
         <v>2479</v>
@@ -72143,7 +72143,7 @@
         <v>1</v>
       </c>
       <c r="D3756">
-        <v>627.6736031882441</v>
+        <v>627.6736031884698</v>
       </c>
       <c r="E3756" t="s">
         <v>2636</v>
@@ -72151,7 +72151,7 @@
     </row>
     <row r="3757" spans="1:5">
       <c r="A3757">
-        <v>11087</v>
+        <v>11085</v>
       </c>
       <c r="B3757" t="s">
         <v>2480</v>
@@ -72160,7 +72160,7 @@
         <v>2</v>
       </c>
       <c r="D3757">
-        <v>52.30613359894109</v>
+        <v>52.30613359902354</v>
       </c>
       <c r="E3757" t="s">
         <v>2637</v>
@@ -72168,7 +72168,7 @@
     </row>
     <row r="3758" spans="1:5">
       <c r="A3758">
-        <v>11087</v>
+        <v>11085</v>
       </c>
       <c r="B3758" t="s">
         <v>2480</v>
@@ -72177,7 +72177,7 @@
         <v>1</v>
       </c>
       <c r="D3758">
-        <v>627.6736031872931</v>
+        <v>627.6736031882824</v>
       </c>
       <c r="E3758" t="s">
         <v>2636</v>
@@ -72185,7 +72185,7 @@
     </row>
     <row r="3759" spans="1:5">
       <c r="A3759">
-        <v>11088</v>
+        <v>11087</v>
       </c>
       <c r="B3759" t="s">
         <v>2481</v>
@@ -72194,7 +72194,7 @@
         <v>2</v>
       </c>
       <c r="D3759">
-        <v>52.30613359748389</v>
+        <v>52.30613359900313</v>
       </c>
       <c r="E3759" t="s">
         <v>2637</v>
@@ -72202,7 +72202,7 @@
     </row>
     <row r="3760" spans="1:5">
       <c r="A3760">
-        <v>11088</v>
+        <v>11087</v>
       </c>
       <c r="B3760" t="s">
         <v>2481</v>
@@ -72211,7 +72211,7 @@
         <v>1</v>
       </c>
       <c r="D3760">
-        <v>627.6736031698067</v>
+        <v>627.6736031880375</v>
       </c>
       <c r="E3760" t="s">
         <v>2636</v>
@@ -72219,7 +72219,7 @@
     </row>
     <row r="3761" spans="1:5">
       <c r="A3761">
-        <v>11101</v>
+        <v>11088</v>
       </c>
       <c r="B3761" t="s">
         <v>2482</v>
@@ -72228,41 +72228,41 @@
         <v>2</v>
       </c>
       <c r="D3761">
-        <v>319.5</v>
+        <v>52.30613359748389</v>
       </c>
       <c r="E3761" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3762" spans="1:5">
       <c r="A3762">
-        <v>11104</v>
+        <v>11088</v>
       </c>
       <c r="B3762" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C3762">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3762">
-        <v>145.046001555009</v>
+        <v>627.6736031698067</v>
       </c>
       <c r="E3762" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3763" spans="1:5">
       <c r="A3763">
-        <v>11104</v>
+        <v>11101</v>
       </c>
       <c r="B3763" t="s">
         <v>2483</v>
       </c>
       <c r="C3763">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3763">
-        <v>870.2760093300542</v>
+        <v>319.5</v>
       </c>
       <c r="E3763" t="s">
         <v>2636</v>
@@ -72270,7 +72270,7 @@
     </row>
     <row r="3764" spans="1:5">
       <c r="A3764">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B3764" t="s">
         <v>2484</v>
@@ -72279,7 +72279,7 @@
         <v>3</v>
       </c>
       <c r="D3764">
-        <v>69.75</v>
+        <v>145.046001555009</v>
       </c>
       <c r="E3764" t="s">
         <v>2637</v>
@@ -72287,7 +72287,7 @@
     </row>
     <row r="3765" spans="1:5">
       <c r="A3765">
-        <v>11105</v>
+        <v>11104</v>
       </c>
       <c r="B3765" t="s">
         <v>2484</v>
@@ -72296,7 +72296,7 @@
         <v>1</v>
       </c>
       <c r="D3765">
-        <v>418.5</v>
+        <v>870.2760093300542</v>
       </c>
       <c r="E3765" t="s">
         <v>2636</v>
@@ -72304,16 +72304,16 @@
     </row>
     <row r="3766" spans="1:5">
       <c r="A3766">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B3766" t="s">
         <v>2485</v>
       </c>
       <c r="C3766">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="D3766">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E3766" t="s">
         <v>2637</v>
@@ -72321,7 +72321,7 @@
     </row>
     <row r="3767" spans="1:5">
       <c r="A3767">
-        <v>11106</v>
+        <v>11105</v>
       </c>
       <c r="B3767" t="s">
         <v>2485</v>
@@ -72330,7 +72330,7 @@
         <v>1</v>
       </c>
       <c r="D3767">
-        <v>612</v>
+        <v>426</v>
       </c>
       <c r="E3767" t="s">
         <v>2636</v>
@@ -72338,7 +72338,7 @@
     </row>
     <row r="3768" spans="1:5">
       <c r="A3768">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B3768" t="s">
         <v>2486</v>
@@ -72347,7 +72347,7 @@
         <v>431</v>
       </c>
       <c r="D3768">
-        <v>82.5</v>
+        <v>51</v>
       </c>
       <c r="E3768" t="s">
         <v>2637</v>
@@ -72355,7 +72355,7 @@
     </row>
     <row r="3769" spans="1:5">
       <c r="A3769">
-        <v>11107</v>
+        <v>11106</v>
       </c>
       <c r="B3769" t="s">
         <v>2486</v>
@@ -72364,7 +72364,7 @@
         <v>1</v>
       </c>
       <c r="D3769">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="E3769" t="s">
         <v>2636</v>
@@ -72372,7 +72372,7 @@
     </row>
     <row r="3770" spans="1:5">
       <c r="A3770">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B3770" t="s">
         <v>2487</v>
@@ -72381,7 +72381,7 @@
         <v>431</v>
       </c>
       <c r="D3770">
-        <v>46.75</v>
+        <v>82.5</v>
       </c>
       <c r="E3770" t="s">
         <v>2637</v>
@@ -72389,7 +72389,7 @@
     </row>
     <row r="3771" spans="1:5">
       <c r="A3771">
-        <v>11108</v>
+        <v>11107</v>
       </c>
       <c r="B3771" t="s">
         <v>2487</v>
@@ -72398,7 +72398,7 @@
         <v>1</v>
       </c>
       <c r="D3771">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="E3771" t="s">
         <v>2636</v>
@@ -72406,16 +72406,16 @@
     </row>
     <row r="3772" spans="1:5">
       <c r="A3772">
-        <v>11114</v>
+        <v>11108</v>
       </c>
       <c r="B3772" t="s">
         <v>2488</v>
       </c>
       <c r="C3772">
-        <v>23</v>
+        <v>431</v>
       </c>
       <c r="D3772">
-        <v>713.75</v>
+        <v>46.75</v>
       </c>
       <c r="E3772" t="s">
         <v>2637</v>
@@ -72423,7 +72423,7 @@
     </row>
     <row r="3773" spans="1:5">
       <c r="A3773">
-        <v>11114</v>
+        <v>11108</v>
       </c>
       <c r="B3773" t="s">
         <v>2488</v>
@@ -72432,7 +72432,7 @@
         <v>1</v>
       </c>
       <c r="D3773">
-        <v>2855</v>
+        <v>561</v>
       </c>
       <c r="E3773" t="s">
         <v>2636</v>
@@ -72440,16 +72440,16 @@
     </row>
     <row r="3774" spans="1:5">
       <c r="A3774">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B3774" t="s">
         <v>2489</v>
       </c>
       <c r="C3774">
-        <v>431</v>
+        <v>23</v>
       </c>
       <c r="D3774">
-        <v>46.25</v>
+        <v>713.75</v>
       </c>
       <c r="E3774" t="s">
         <v>2637</v>
@@ -72457,7 +72457,7 @@
     </row>
     <row r="3775" spans="1:5">
       <c r="A3775">
-        <v>11115</v>
+        <v>11114</v>
       </c>
       <c r="B3775" t="s">
         <v>2489</v>
@@ -72466,7 +72466,7 @@
         <v>1</v>
       </c>
       <c r="D3775">
-        <v>555</v>
+        <v>2855</v>
       </c>
       <c r="E3775" t="s">
         <v>2636</v>
@@ -72474,16 +72474,16 @@
     </row>
     <row r="3776" spans="1:5">
       <c r="A3776">
-        <v>11117</v>
+        <v>11115</v>
       </c>
       <c r="B3776" t="s">
         <v>2490</v>
       </c>
       <c r="C3776">
-        <v>7</v>
+        <v>431</v>
       </c>
       <c r="D3776">
-        <v>62.75</v>
+        <v>46.25</v>
       </c>
       <c r="E3776" t="s">
         <v>2637</v>
@@ -72491,7 +72491,7 @@
     </row>
     <row r="3777" spans="1:5">
       <c r="A3777">
-        <v>11117</v>
+        <v>11115</v>
       </c>
       <c r="B3777" t="s">
         <v>2490</v>
@@ -72500,7 +72500,7 @@
         <v>1</v>
       </c>
       <c r="D3777">
-        <v>753</v>
+        <v>555</v>
       </c>
       <c r="E3777" t="s">
         <v>2636</v>
@@ -72508,7 +72508,7 @@
     </row>
     <row r="3778" spans="1:5">
       <c r="A3778">
-        <v>11121</v>
+        <v>11117</v>
       </c>
       <c r="B3778" t="s">
         <v>2491</v>
@@ -72517,7 +72517,7 @@
         <v>7</v>
       </c>
       <c r="D3778">
-        <v>76.5</v>
+        <v>62.75</v>
       </c>
       <c r="E3778" t="s">
         <v>2637</v>
@@ -72525,7 +72525,7 @@
     </row>
     <row r="3779" spans="1:5">
       <c r="A3779">
-        <v>11121</v>
+        <v>11117</v>
       </c>
       <c r="B3779" t="s">
         <v>2491</v>
@@ -72534,7 +72534,7 @@
         <v>1</v>
       </c>
       <c r="D3779">
-        <v>918</v>
+        <v>753</v>
       </c>
       <c r="E3779" t="s">
         <v>2636</v>
@@ -72542,7 +72542,7 @@
     </row>
     <row r="3780" spans="1:5">
       <c r="A3780">
-        <v>11123</v>
+        <v>11121</v>
       </c>
       <c r="B3780" t="s">
         <v>2492</v>
@@ -72551,7 +72551,7 @@
         <v>7</v>
       </c>
       <c r="D3780">
-        <v>76.75</v>
+        <v>76.5</v>
       </c>
       <c r="E3780" t="s">
         <v>2637</v>
@@ -72559,7 +72559,7 @@
     </row>
     <row r="3781" spans="1:5">
       <c r="A3781">
-        <v>11123</v>
+        <v>11121</v>
       </c>
       <c r="B3781" t="s">
         <v>2492</v>
@@ -72568,7 +72568,7 @@
         <v>1</v>
       </c>
       <c r="D3781">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E3781" t="s">
         <v>2636</v>
@@ -72576,16 +72576,16 @@
     </row>
     <row r="3782" spans="1:5">
       <c r="A3782">
-        <v>11131</v>
+        <v>11123</v>
       </c>
       <c r="B3782" t="s">
         <v>2493</v>
       </c>
       <c r="C3782">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D3782">
-        <v>641.75</v>
+        <v>76.75</v>
       </c>
       <c r="E3782" t="s">
         <v>2637</v>
@@ -72593,7 +72593,7 @@
     </row>
     <row r="3783" spans="1:5">
       <c r="A3783">
-        <v>11131</v>
+        <v>11123</v>
       </c>
       <c r="B3783" t="s">
         <v>2493</v>
@@ -72602,7 +72602,7 @@
         <v>1</v>
       </c>
       <c r="D3783">
-        <v>2567</v>
+        <v>921</v>
       </c>
       <c r="E3783" t="s">
         <v>2636</v>
@@ -72610,33 +72610,33 @@
     </row>
     <row r="3784" spans="1:5">
       <c r="A3784">
-        <v>11132</v>
+        <v>11131</v>
       </c>
       <c r="B3784" t="s">
         <v>2494</v>
       </c>
       <c r="C3784">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D3784">
-        <v>138.0968697370155</v>
+        <v>641.75</v>
       </c>
       <c r="E3784" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3785" spans="1:5">
       <c r="A3785">
-        <v>11133</v>
+        <v>11131</v>
       </c>
       <c r="B3785" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C3785">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3785">
-        <v>138.0431256434285</v>
+        <v>2567</v>
       </c>
       <c r="E3785" t="s">
         <v>2636</v>
@@ -72644,16 +72644,16 @@
     </row>
     <row r="3786" spans="1:5">
       <c r="A3786">
-        <v>11134</v>
+        <v>11132</v>
       </c>
       <c r="B3786" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C3786">
         <v>5</v>
       </c>
       <c r="D3786">
-        <v>138.5016078018199</v>
+        <v>138.0968697370155</v>
       </c>
       <c r="E3786" t="s">
         <v>2636</v>
@@ -72661,16 +72661,16 @@
     </row>
     <row r="3787" spans="1:5">
       <c r="A3787">
-        <v>11135</v>
+        <v>11133</v>
       </c>
       <c r="B3787" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C3787">
         <v>5</v>
       </c>
       <c r="D3787">
-        <v>182</v>
+        <v>138.0431256434285</v>
       </c>
       <c r="E3787" t="s">
         <v>2636</v>
@@ -72678,16 +72678,16 @@
     </row>
     <row r="3788" spans="1:5">
       <c r="A3788">
-        <v>11136</v>
+        <v>11134</v>
       </c>
       <c r="B3788" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C3788">
         <v>5</v>
       </c>
       <c r="D3788">
-        <v>182</v>
+        <v>138.5016078018199</v>
       </c>
       <c r="E3788" t="s">
         <v>2636</v>
@@ -72695,10 +72695,10 @@
     </row>
     <row r="3789" spans="1:5">
       <c r="A3789">
-        <v>11138</v>
+        <v>11135</v>
       </c>
       <c r="B3789" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C3789">
         <v>5</v>
@@ -72712,10 +72712,10 @@
     </row>
     <row r="3790" spans="1:5">
       <c r="A3790">
-        <v>11139</v>
+        <v>11136</v>
       </c>
       <c r="B3790" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C3790">
         <v>5</v>
@@ -72729,10 +72729,10 @@
     </row>
     <row r="3791" spans="1:5">
       <c r="A3791">
-        <v>11140</v>
+        <v>11138</v>
       </c>
       <c r="B3791" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C3791">
         <v>5</v>
@@ -72746,33 +72746,33 @@
     </row>
     <row r="3792" spans="1:5">
       <c r="A3792">
-        <v>11151</v>
+        <v>11139</v>
       </c>
       <c r="B3792" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C3792">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3792">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="E3792" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3793" spans="1:5">
       <c r="A3793">
-        <v>11151</v>
+        <v>11140</v>
       </c>
       <c r="B3793" t="s">
         <v>2502</v>
       </c>
       <c r="C3793">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3793">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E3793" t="s">
         <v>2636</v>
@@ -72780,7 +72780,7 @@
     </row>
     <row r="3794" spans="1:5">
       <c r="A3794">
-        <v>11152</v>
+        <v>11151</v>
       </c>
       <c r="B3794" t="s">
         <v>2503</v>
@@ -72789,7 +72789,7 @@
         <v>11</v>
       </c>
       <c r="D3794">
-        <v>17.39849601299129</v>
+        <v>16</v>
       </c>
       <c r="E3794" t="s">
         <v>2637</v>
@@ -72797,7 +72797,7 @@
     </row>
     <row r="3795" spans="1:5">
       <c r="A3795">
-        <v>11152</v>
+        <v>11151</v>
       </c>
       <c r="B3795" t="s">
         <v>2503</v>
@@ -72806,7 +72806,7 @@
         <v>1</v>
       </c>
       <c r="D3795">
-        <v>208.7819521558955</v>
+        <v>192</v>
       </c>
       <c r="E3795" t="s">
         <v>2636</v>
@@ -72814,7 +72814,7 @@
     </row>
     <row r="3796" spans="1:5">
       <c r="A3796">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="B3796" t="s">
         <v>2504</v>
@@ -72823,7 +72823,7 @@
         <v>11</v>
       </c>
       <c r="D3796">
-        <v>15</v>
+        <v>17.39849601299129</v>
       </c>
       <c r="E3796" t="s">
         <v>2637</v>
@@ -72831,7 +72831,7 @@
     </row>
     <row r="3797" spans="1:5">
       <c r="A3797">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="B3797" t="s">
         <v>2504</v>
@@ -72840,7 +72840,7 @@
         <v>1</v>
       </c>
       <c r="D3797">
-        <v>180</v>
+        <v>208.7819521558955</v>
       </c>
       <c r="E3797" t="s">
         <v>2636</v>
@@ -72848,7 +72848,7 @@
     </row>
     <row r="3798" spans="1:5">
       <c r="A3798">
-        <v>11154</v>
+        <v>11153</v>
       </c>
       <c r="B3798" t="s">
         <v>2505</v>
@@ -72857,7 +72857,7 @@
         <v>11</v>
       </c>
       <c r="D3798">
-        <v>17.28816515445613</v>
+        <v>15</v>
       </c>
       <c r="E3798" t="s">
         <v>2637</v>
@@ -72865,7 +72865,7 @@
     </row>
     <row r="3799" spans="1:5">
       <c r="A3799">
-        <v>11154</v>
+        <v>11153</v>
       </c>
       <c r="B3799" t="s">
         <v>2505</v>
@@ -72874,7 +72874,7 @@
         <v>1</v>
       </c>
       <c r="D3799">
-        <v>207.4579818534735</v>
+        <v>180</v>
       </c>
       <c r="E3799" t="s">
         <v>2636</v>
@@ -72882,7 +72882,7 @@
     </row>
     <row r="3800" spans="1:5">
       <c r="A3800">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="B3800" t="s">
         <v>2506</v>
@@ -72891,7 +72891,7 @@
         <v>11</v>
       </c>
       <c r="D3800">
-        <v>17.35293500284417</v>
+        <v>17.28816515445613</v>
       </c>
       <c r="E3800" t="s">
         <v>2637</v>
@@ -72899,7 +72899,7 @@
     </row>
     <row r="3801" spans="1:5">
       <c r="A3801">
-        <v>11155</v>
+        <v>11154</v>
       </c>
       <c r="B3801" t="s">
         <v>2506</v>
@@ -72908,7 +72908,7 @@
         <v>1</v>
       </c>
       <c r="D3801">
-        <v>208.23522003413</v>
+        <v>207.4579818534735</v>
       </c>
       <c r="E3801" t="s">
         <v>2636</v>
@@ -72916,7 +72916,7 @@
     </row>
     <row r="3802" spans="1:5">
       <c r="A3802">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="B3802" t="s">
         <v>2507</v>
@@ -72925,7 +72925,7 @@
         <v>11</v>
       </c>
       <c r="D3802">
-        <v>17.75</v>
+        <v>17.35293500284417</v>
       </c>
       <c r="E3802" t="s">
         <v>2637</v>
@@ -72933,7 +72933,7 @@
     </row>
     <row r="3803" spans="1:5">
       <c r="A3803">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="B3803" t="s">
         <v>2507</v>
@@ -72942,7 +72942,7 @@
         <v>1</v>
       </c>
       <c r="D3803">
-        <v>213</v>
+        <v>208.23522003413</v>
       </c>
       <c r="E3803" t="s">
         <v>2636</v>
@@ -72950,7 +72950,7 @@
     </row>
     <row r="3804" spans="1:5">
       <c r="A3804">
-        <v>11157</v>
+        <v>11156</v>
       </c>
       <c r="B3804" t="s">
         <v>2508</v>
@@ -72959,7 +72959,7 @@
         <v>11</v>
       </c>
       <c r="D3804">
-        <v>17</v>
+        <v>17.75</v>
       </c>
       <c r="E3804" t="s">
         <v>2637</v>
@@ -72967,7 +72967,7 @@
     </row>
     <row r="3805" spans="1:5">
       <c r="A3805">
-        <v>11157</v>
+        <v>11156</v>
       </c>
       <c r="B3805" t="s">
         <v>2508</v>
@@ -72976,7 +72976,7 @@
         <v>1</v>
       </c>
       <c r="D3805">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E3805" t="s">
         <v>2636</v>
@@ -72984,33 +72984,33 @@
     </row>
     <row r="3806" spans="1:5">
       <c r="A3806">
-        <v>11158</v>
+        <v>11157</v>
       </c>
       <c r="B3806" t="s">
         <v>2509</v>
       </c>
       <c r="C3806">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3806">
-        <v>55.30285235825996</v>
+        <v>17</v>
       </c>
       <c r="E3806" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3807" spans="1:5">
       <c r="A3807">
-        <v>11159</v>
+        <v>11157</v>
       </c>
       <c r="B3807" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C3807">
         <v>1</v>
       </c>
       <c r="D3807">
-        <v>55.5086992060207</v>
+        <v>204</v>
       </c>
       <c r="E3807" t="s">
         <v>2636</v>
@@ -73018,16 +73018,16 @@
     </row>
     <row r="3808" spans="1:5">
       <c r="A3808">
-        <v>11161</v>
+        <v>11158</v>
       </c>
       <c r="B3808" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C3808">
         <v>1</v>
       </c>
       <c r="D3808">
-        <v>56.5</v>
+        <v>55.30285235825996</v>
       </c>
       <c r="E3808" t="s">
         <v>2636</v>
@@ -73035,16 +73035,16 @@
     </row>
     <row r="3809" spans="1:5">
       <c r="A3809">
-        <v>11162</v>
+        <v>11159</v>
       </c>
       <c r="B3809" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C3809">
         <v>1</v>
       </c>
       <c r="D3809">
-        <v>63.78579037526772</v>
+        <v>55.5086992060207</v>
       </c>
       <c r="E3809" t="s">
         <v>2636</v>
@@ -73052,16 +73052,16 @@
     </row>
     <row r="3810" spans="1:5">
       <c r="A3810">
-        <v>11163</v>
+        <v>11161</v>
       </c>
       <c r="B3810" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="C3810">
         <v>1</v>
       </c>
       <c r="D3810">
-        <v>65.25</v>
+        <v>56.5</v>
       </c>
       <c r="E3810" t="s">
         <v>2636</v>
@@ -73069,16 +73069,16 @@
     </row>
     <row r="3811" spans="1:5">
       <c r="A3811">
-        <v>11164</v>
+        <v>11162</v>
       </c>
       <c r="B3811" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C3811">
         <v>1</v>
       </c>
       <c r="D3811">
-        <v>63.82299343598999</v>
+        <v>63.78579037526772</v>
       </c>
       <c r="E3811" t="s">
         <v>2636</v>
@@ -73086,24 +73086,24 @@
     </row>
     <row r="3812" spans="1:5">
       <c r="A3812">
-        <v>11165</v>
+        <v>11163</v>
       </c>
       <c r="B3812" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C3812">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3812">
-        <v>55.75</v>
+        <v>65.25</v>
       </c>
       <c r="E3812" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3813" spans="1:5">
       <c r="A3813">
-        <v>11165</v>
+        <v>11164</v>
       </c>
       <c r="B3813" t="s">
         <v>2515</v>
@@ -73112,7 +73112,7 @@
         <v>1</v>
       </c>
       <c r="D3813">
-        <v>669</v>
+        <v>63.82299343598999</v>
       </c>
       <c r="E3813" t="s">
         <v>2636</v>
@@ -73120,16 +73120,16 @@
     </row>
     <row r="3814" spans="1:5">
       <c r="A3814">
-        <v>11167</v>
+        <v>11165</v>
       </c>
       <c r="B3814" t="s">
         <v>2516</v>
       </c>
       <c r="C3814">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D3814">
-        <v>31.5</v>
+        <v>55.75</v>
       </c>
       <c r="E3814" t="s">
         <v>2637</v>
@@ -73137,7 +73137,7 @@
     </row>
     <row r="3815" spans="1:5">
       <c r="A3815">
-        <v>11167</v>
+        <v>11165</v>
       </c>
       <c r="B3815" t="s">
         <v>2516</v>
@@ -73146,7 +73146,7 @@
         <v>1</v>
       </c>
       <c r="D3815">
-        <v>945</v>
+        <v>669</v>
       </c>
       <c r="E3815" t="s">
         <v>2636</v>
@@ -73154,16 +73154,16 @@
     </row>
     <row r="3816" spans="1:5">
       <c r="A3816">
-        <v>11168</v>
+        <v>11167</v>
       </c>
       <c r="B3816" t="s">
         <v>2517</v>
       </c>
       <c r="C3816">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3816">
-        <v>23.75</v>
+        <v>31.5</v>
       </c>
       <c r="E3816" t="s">
         <v>2637</v>
@@ -73171,7 +73171,7 @@
     </row>
     <row r="3817" spans="1:5">
       <c r="A3817">
-        <v>11168</v>
+        <v>11167</v>
       </c>
       <c r="B3817" t="s">
         <v>2517</v>
@@ -73180,7 +73180,7 @@
         <v>1</v>
       </c>
       <c r="D3817">
-        <v>570</v>
+        <v>945</v>
       </c>
       <c r="E3817" t="s">
         <v>2636</v>
@@ -73188,7 +73188,7 @@
     </row>
     <row r="3818" spans="1:5">
       <c r="A3818">
-        <v>11169</v>
+        <v>11168</v>
       </c>
       <c r="B3818" t="s">
         <v>2518</v>
@@ -73197,7 +73197,7 @@
         <v>2</v>
       </c>
       <c r="D3818">
-        <v>18.75</v>
+        <v>23.75</v>
       </c>
       <c r="E3818" t="s">
         <v>2637</v>
@@ -73205,7 +73205,7 @@
     </row>
     <row r="3819" spans="1:5">
       <c r="A3819">
-        <v>11169</v>
+        <v>11168</v>
       </c>
       <c r="B3819" t="s">
         <v>2518</v>
@@ -73214,7 +73214,7 @@
         <v>1</v>
       </c>
       <c r="D3819">
-        <v>225</v>
+        <v>570</v>
       </c>
       <c r="E3819" t="s">
         <v>2636</v>
@@ -73222,7 +73222,7 @@
     </row>
     <row r="3820" spans="1:5">
       <c r="A3820">
-        <v>11170</v>
+        <v>11169</v>
       </c>
       <c r="B3820" t="s">
         <v>2519</v>
@@ -73231,7 +73231,7 @@
         <v>2</v>
       </c>
       <c r="D3820">
-        <v>83.75</v>
+        <v>18.75</v>
       </c>
       <c r="E3820" t="s">
         <v>2637</v>
@@ -73239,7 +73239,7 @@
     </row>
     <row r="3821" spans="1:5">
       <c r="A3821">
-        <v>11170</v>
+        <v>11169</v>
       </c>
       <c r="B3821" t="s">
         <v>2519</v>
@@ -73248,7 +73248,7 @@
         <v>1</v>
       </c>
       <c r="D3821">
-        <v>1005</v>
+        <v>225</v>
       </c>
       <c r="E3821" t="s">
         <v>2636</v>
@@ -73256,16 +73256,16 @@
     </row>
     <row r="3822" spans="1:5">
       <c r="A3822">
-        <v>11173</v>
+        <v>11170</v>
       </c>
       <c r="B3822" t="s">
         <v>2520</v>
       </c>
       <c r="C3822">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D3822">
-        <v>36.75</v>
+        <v>83.75</v>
       </c>
       <c r="E3822" t="s">
         <v>2637</v>
@@ -73273,7 +73273,7 @@
     </row>
     <row r="3823" spans="1:5">
       <c r="A3823">
-        <v>11173</v>
+        <v>11170</v>
       </c>
       <c r="B3823" t="s">
         <v>2520</v>
@@ -73282,7 +73282,7 @@
         <v>1</v>
       </c>
       <c r="D3823">
-        <v>1102.5</v>
+        <v>1005</v>
       </c>
       <c r="E3823" t="s">
         <v>2636</v>
@@ -73290,7 +73290,7 @@
     </row>
     <row r="3824" spans="1:5">
       <c r="A3824">
-        <v>11174</v>
+        <v>11173</v>
       </c>
       <c r="B3824" t="s">
         <v>2521</v>
@@ -73307,7 +73307,7 @@
     </row>
     <row r="3825" spans="1:5">
       <c r="A3825">
-        <v>11174</v>
+        <v>11173</v>
       </c>
       <c r="B3825" t="s">
         <v>2521</v>
@@ -73324,16 +73324,16 @@
     </row>
     <row r="3826" spans="1:5">
       <c r="A3826">
-        <v>11177</v>
+        <v>11174</v>
       </c>
       <c r="B3826" t="s">
         <v>2522</v>
       </c>
       <c r="C3826">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D3826">
-        <v>47</v>
+        <v>36.75</v>
       </c>
       <c r="E3826" t="s">
         <v>2637</v>
@@ -73341,7 +73341,7 @@
     </row>
     <row r="3827" spans="1:5">
       <c r="A3827">
-        <v>11177</v>
+        <v>11174</v>
       </c>
       <c r="B3827" t="s">
         <v>2522</v>
@@ -73350,7 +73350,7 @@
         <v>1</v>
       </c>
       <c r="D3827">
-        <v>564</v>
+        <v>1102.5</v>
       </c>
       <c r="E3827" t="s">
         <v>2636</v>
@@ -73358,33 +73358,33 @@
     </row>
     <row r="3828" spans="1:5">
       <c r="A3828">
-        <v>11178</v>
+        <v>11177</v>
       </c>
       <c r="B3828" t="s">
         <v>2523</v>
       </c>
       <c r="C3828">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3828">
-        <v>328.25</v>
+        <v>47</v>
       </c>
       <c r="E3828" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3829" spans="1:5">
       <c r="A3829">
-        <v>11181</v>
+        <v>11177</v>
       </c>
       <c r="B3829" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C3829">
         <v>1</v>
       </c>
       <c r="D3829">
-        <v>78.5</v>
+        <v>564</v>
       </c>
       <c r="E3829" t="s">
         <v>2636</v>
@@ -73392,16 +73392,16 @@
     </row>
     <row r="3830" spans="1:5">
       <c r="A3830">
-        <v>11182</v>
+        <v>11178</v>
       </c>
       <c r="B3830" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C3830">
         <v>1</v>
       </c>
       <c r="D3830">
-        <v>77.25</v>
+        <v>328.25</v>
       </c>
       <c r="E3830" t="s">
         <v>2636</v>
@@ -73409,16 +73409,16 @@
     </row>
     <row r="3831" spans="1:5">
       <c r="A3831">
-        <v>11183</v>
+        <v>11181</v>
       </c>
       <c r="B3831" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C3831">
         <v>1</v>
       </c>
       <c r="D3831">
-        <v>76</v>
+        <v>78.5</v>
       </c>
       <c r="E3831" t="s">
         <v>2636</v>
@@ -73426,16 +73426,16 @@
     </row>
     <row r="3832" spans="1:5">
       <c r="A3832">
-        <v>11184</v>
+        <v>11182</v>
       </c>
       <c r="B3832" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C3832">
         <v>1</v>
       </c>
       <c r="D3832">
-        <v>78</v>
+        <v>77.25</v>
       </c>
       <c r="E3832" t="s">
         <v>2636</v>
@@ -73443,24 +73443,24 @@
     </row>
     <row r="3833" spans="1:5">
       <c r="A3833">
-        <v>11185</v>
+        <v>11183</v>
       </c>
       <c r="B3833" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C3833">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D3833">
-        <v>126.6307591361326</v>
+        <v>76</v>
       </c>
       <c r="E3833" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3834" spans="1:5">
       <c r="A3834">
-        <v>11185</v>
+        <v>11184</v>
       </c>
       <c r="B3834" t="s">
         <v>2528</v>
@@ -73469,7 +73469,7 @@
         <v>1</v>
       </c>
       <c r="D3834">
-        <v>3039.138219267181</v>
+        <v>78</v>
       </c>
       <c r="E3834" t="s">
         <v>2636</v>
@@ -73477,16 +73477,16 @@
     </row>
     <row r="3835" spans="1:5">
       <c r="A3835">
-        <v>11186</v>
+        <v>11185</v>
       </c>
       <c r="B3835" t="s">
         <v>2529</v>
       </c>
       <c r="C3835">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3835">
-        <v>49.25</v>
+        <v>124.962788788067</v>
       </c>
       <c r="E3835" t="s">
         <v>2637</v>
@@ -73494,7 +73494,7 @@
     </row>
     <row r="3836" spans="1:5">
       <c r="A3836">
-        <v>11186</v>
+        <v>11185</v>
       </c>
       <c r="B3836" t="s">
         <v>2529</v>
@@ -73503,7 +73503,7 @@
         <v>1</v>
       </c>
       <c r="D3836">
-        <v>591</v>
+        <v>2999.106930913607</v>
       </c>
       <c r="E3836" t="s">
         <v>2636</v>
@@ -73511,16 +73511,16 @@
     </row>
     <row r="3837" spans="1:5">
       <c r="A3837">
-        <v>11194</v>
+        <v>11186</v>
       </c>
       <c r="B3837" t="s">
         <v>2530</v>
       </c>
       <c r="C3837">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D3837">
-        <v>4</v>
+        <v>49.25</v>
       </c>
       <c r="E3837" t="s">
         <v>2637</v>
@@ -73528,16 +73528,16 @@
     </row>
     <row r="3838" spans="1:5">
       <c r="A3838">
-        <v>11194</v>
+        <v>11186</v>
       </c>
       <c r="B3838" t="s">
         <v>2530</v>
       </c>
       <c r="C3838">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3838">
-        <v>72</v>
+        <v>591</v>
       </c>
       <c r="E3838" t="s">
         <v>2636</v>
@@ -73548,16 +73548,16 @@
         <v>11194</v>
       </c>
       <c r="B3839" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C3839">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3839">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E3839" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3840" spans="1:5">
@@ -73565,13 +73565,13 @@
         <v>11194</v>
       </c>
       <c r="B3840" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C3840">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3840">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="E3840" t="s">
         <v>2636</v>
@@ -73579,33 +73579,33 @@
     </row>
     <row r="3841" spans="1:5">
       <c r="A3841">
-        <v>11195</v>
+        <v>11194</v>
       </c>
       <c r="B3841" t="s">
         <v>2531</v>
       </c>
       <c r="C3841">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3841">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="E3841" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3842" spans="1:5">
       <c r="A3842">
-        <v>11195</v>
+        <v>11194</v>
       </c>
       <c r="B3842" t="s">
         <v>2531</v>
       </c>
       <c r="C3842">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3842">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="E3842" t="s">
         <v>2636</v>
@@ -73616,16 +73616,16 @@
         <v>11195</v>
       </c>
       <c r="B3843" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="C3843">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3843">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E3843" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3844" spans="1:5">
@@ -73633,13 +73633,13 @@
         <v>11195</v>
       </c>
       <c r="B3844" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="C3844">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3844">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="E3844" t="s">
         <v>2636</v>
@@ -73647,24 +73647,24 @@
     </row>
     <row r="3845" spans="1:5">
       <c r="A3845">
-        <v>11198</v>
+        <v>11195</v>
       </c>
       <c r="B3845" t="s">
         <v>2532</v>
       </c>
       <c r="C3845">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3845">
-        <v>19.25</v>
+        <v>144</v>
       </c>
       <c r="E3845" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3846" spans="1:5">
       <c r="A3846">
-        <v>11198</v>
+        <v>11195</v>
       </c>
       <c r="B3846" t="s">
         <v>2532</v>
@@ -73673,7 +73673,7 @@
         <v>1</v>
       </c>
       <c r="D3846">
-        <v>192.5</v>
+        <v>288</v>
       </c>
       <c r="E3846" t="s">
         <v>2636</v>
@@ -73681,7 +73681,7 @@
     </row>
     <row r="3847" spans="1:5">
       <c r="A3847">
-        <v>11200</v>
+        <v>11198</v>
       </c>
       <c r="B3847" t="s">
         <v>2533</v>
@@ -73690,7 +73690,7 @@
         <v>3</v>
       </c>
       <c r="D3847">
-        <v>19</v>
+        <v>19.25</v>
       </c>
       <c r="E3847" t="s">
         <v>2637</v>
@@ -73698,7 +73698,7 @@
     </row>
     <row r="3848" spans="1:5">
       <c r="A3848">
-        <v>11200</v>
+        <v>11198</v>
       </c>
       <c r="B3848" t="s">
         <v>2533</v>
@@ -73707,7 +73707,7 @@
         <v>1</v>
       </c>
       <c r="D3848">
-        <v>190</v>
+        <v>192.5</v>
       </c>
       <c r="E3848" t="s">
         <v>2636</v>
@@ -73715,7 +73715,7 @@
     </row>
     <row r="3849" spans="1:5">
       <c r="A3849">
-        <v>11201</v>
+        <v>11200</v>
       </c>
       <c r="B3849" t="s">
         <v>2534</v>
@@ -73724,7 +73724,7 @@
         <v>3</v>
       </c>
       <c r="D3849">
-        <v>32.5</v>
+        <v>19</v>
       </c>
       <c r="E3849" t="s">
         <v>2637</v>
@@ -73732,7 +73732,7 @@
     </row>
     <row r="3850" spans="1:5">
       <c r="A3850">
-        <v>11201</v>
+        <v>11200</v>
       </c>
       <c r="B3850" t="s">
         <v>2534</v>
@@ -73741,7 +73741,7 @@
         <v>1</v>
       </c>
       <c r="D3850">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="E3850" t="s">
         <v>2636</v>
@@ -73749,7 +73749,7 @@
     </row>
     <row r="3851" spans="1:5">
       <c r="A3851">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="B3851" t="s">
         <v>2535</v>
@@ -73758,7 +73758,7 @@
         <v>3</v>
       </c>
       <c r="D3851">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="E3851" t="s">
         <v>2637</v>
@@ -73766,7 +73766,7 @@
     </row>
     <row r="3852" spans="1:5">
       <c r="A3852">
-        <v>11202</v>
+        <v>11201</v>
       </c>
       <c r="B3852" t="s">
         <v>2535</v>
@@ -73775,7 +73775,7 @@
         <v>1</v>
       </c>
       <c r="D3852">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="E3852" t="s">
         <v>2636</v>
@@ -73783,7 +73783,7 @@
     </row>
     <row r="3853" spans="1:5">
       <c r="A3853">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B3853" t="s">
         <v>2536</v>
@@ -73792,7 +73792,7 @@
         <v>3</v>
       </c>
       <c r="D3853">
-        <v>21.25</v>
+        <v>29</v>
       </c>
       <c r="E3853" t="s">
         <v>2637</v>
@@ -73800,7 +73800,7 @@
     </row>
     <row r="3854" spans="1:5">
       <c r="A3854">
-        <v>11203</v>
+        <v>11202</v>
       </c>
       <c r="B3854" t="s">
         <v>2536</v>
@@ -73809,7 +73809,7 @@
         <v>1</v>
       </c>
       <c r="D3854">
-        <v>212.5</v>
+        <v>174</v>
       </c>
       <c r="E3854" t="s">
         <v>2636</v>
@@ -73817,7 +73817,7 @@
     </row>
     <row r="3855" spans="1:5">
       <c r="A3855">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B3855" t="s">
         <v>2537</v>
@@ -73826,7 +73826,7 @@
         <v>3</v>
       </c>
       <c r="D3855">
-        <v>46.5</v>
+        <v>21.25</v>
       </c>
       <c r="E3855" t="s">
         <v>2637</v>
@@ -73834,7 +73834,7 @@
     </row>
     <row r="3856" spans="1:5">
       <c r="A3856">
-        <v>11204</v>
+        <v>11203</v>
       </c>
       <c r="B3856" t="s">
         <v>2537</v>
@@ -73843,7 +73843,7 @@
         <v>1</v>
       </c>
       <c r="D3856">
-        <v>558</v>
+        <v>212.5</v>
       </c>
       <c r="E3856" t="s">
         <v>2636</v>
@@ -73851,7 +73851,7 @@
     </row>
     <row r="3857" spans="1:5">
       <c r="A3857">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B3857" t="s">
         <v>2538</v>
@@ -73860,7 +73860,7 @@
         <v>3</v>
       </c>
       <c r="D3857">
-        <v>44.25</v>
+        <v>46.5</v>
       </c>
       <c r="E3857" t="s">
         <v>2637</v>
@@ -73868,7 +73868,7 @@
     </row>
     <row r="3858" spans="1:5">
       <c r="A3858">
-        <v>11205</v>
+        <v>11204</v>
       </c>
       <c r="B3858" t="s">
         <v>2538</v>
@@ -73877,7 +73877,7 @@
         <v>1</v>
       </c>
       <c r="D3858">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="E3858" t="s">
         <v>2636</v>
@@ -73885,16 +73885,16 @@
     </row>
     <row r="3859" spans="1:5">
       <c r="A3859">
-        <v>11211</v>
+        <v>11205</v>
       </c>
       <c r="B3859" t="s">
         <v>2539</v>
       </c>
       <c r="C3859">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D3859">
-        <v>104.75</v>
+        <v>44.25</v>
       </c>
       <c r="E3859" t="s">
         <v>2637</v>
@@ -73902,7 +73902,7 @@
     </row>
     <row r="3860" spans="1:5">
       <c r="A3860">
-        <v>11211</v>
+        <v>11205</v>
       </c>
       <c r="B3860" t="s">
         <v>2539</v>
@@ -73911,7 +73911,7 @@
         <v>1</v>
       </c>
       <c r="D3860">
-        <v>2514</v>
+        <v>531</v>
       </c>
       <c r="E3860" t="s">
         <v>2636</v>
@@ -73919,16 +73919,16 @@
     </row>
     <row r="3861" spans="1:5">
       <c r="A3861">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B3861" t="s">
         <v>2540</v>
       </c>
       <c r="C3861">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D3861">
-        <v>117.5588812670915</v>
+        <v>104.75</v>
       </c>
       <c r="E3861" t="s">
         <v>2637</v>
@@ -73936,7 +73936,7 @@
     </row>
     <row r="3862" spans="1:5">
       <c r="A3862">
-        <v>11212</v>
+        <v>11211</v>
       </c>
       <c r="B3862" t="s">
         <v>2540</v>
@@ -73945,7 +73945,7 @@
         <v>1</v>
       </c>
       <c r="D3862">
-        <v>1410.706575205098</v>
+        <v>2514</v>
       </c>
       <c r="E3862" t="s">
         <v>2636</v>
@@ -73953,7 +73953,7 @@
     </row>
     <row r="3863" spans="1:5">
       <c r="A3863">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B3863" t="s">
         <v>2541</v>
@@ -73970,7 +73970,7 @@
     </row>
     <row r="3864" spans="1:5">
       <c r="A3864">
-        <v>11213</v>
+        <v>11212</v>
       </c>
       <c r="B3864" t="s">
         <v>2541</v>
@@ -73987,7 +73987,7 @@
     </row>
     <row r="3865" spans="1:5">
       <c r="A3865">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B3865" t="s">
         <v>2542</v>
@@ -73996,7 +73996,7 @@
         <v>4</v>
       </c>
       <c r="D3865">
-        <v>121.25</v>
+        <v>117.5588812670915</v>
       </c>
       <c r="E3865" t="s">
         <v>2637</v>
@@ -74004,7 +74004,7 @@
     </row>
     <row r="3866" spans="1:5">
       <c r="A3866">
-        <v>11214</v>
+        <v>11213</v>
       </c>
       <c r="B3866" t="s">
         <v>2542</v>
@@ -74013,7 +74013,7 @@
         <v>1</v>
       </c>
       <c r="D3866">
-        <v>1455</v>
+        <v>1410.706575205098</v>
       </c>
       <c r="E3866" t="s">
         <v>2636</v>
@@ -74021,33 +74021,33 @@
     </row>
     <row r="3867" spans="1:5">
       <c r="A3867">
-        <v>11215</v>
+        <v>11214</v>
       </c>
       <c r="B3867" t="s">
         <v>2543</v>
       </c>
       <c r="C3867">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3867">
-        <v>379.75</v>
+        <v>121.25</v>
       </c>
       <c r="E3867" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3868" spans="1:5">
       <c r="A3868">
-        <v>11216</v>
+        <v>11214</v>
       </c>
       <c r="B3868" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C3868">
         <v>1</v>
       </c>
       <c r="D3868">
-        <v>379.75</v>
+        <v>1455</v>
       </c>
       <c r="E3868" t="s">
         <v>2636</v>
@@ -74055,24 +74055,24 @@
     </row>
     <row r="3869" spans="1:5">
       <c r="A3869">
-        <v>11217</v>
+        <v>11215</v>
       </c>
       <c r="B3869" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C3869">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3869">
-        <v>27.75</v>
+        <v>379.75</v>
       </c>
       <c r="E3869" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3870" spans="1:5">
       <c r="A3870">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="B3870" t="s">
         <v>2545</v>
@@ -74081,7 +74081,7 @@
         <v>1</v>
       </c>
       <c r="D3870">
-        <v>666</v>
+        <v>379.75</v>
       </c>
       <c r="E3870" t="s">
         <v>2636</v>
@@ -74089,7 +74089,7 @@
     </row>
     <row r="3871" spans="1:5">
       <c r="A3871">
-        <v>11222</v>
+        <v>11217</v>
       </c>
       <c r="B3871" t="s">
         <v>2546</v>
@@ -74106,7 +74106,7 @@
     </row>
     <row r="3872" spans="1:5">
       <c r="A3872">
-        <v>11222</v>
+        <v>11217</v>
       </c>
       <c r="B3872" t="s">
         <v>2546</v>
@@ -74115,7 +74115,7 @@
         <v>1</v>
       </c>
       <c r="D3872">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="E3872" t="s">
         <v>2636</v>
@@ -74123,33 +74123,33 @@
     </row>
     <row r="3873" spans="1:5">
       <c r="A3873">
-        <v>11223</v>
+        <v>11222</v>
       </c>
       <c r="B3873" t="s">
         <v>2547</v>
       </c>
       <c r="C3873">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3873">
-        <v>259</v>
+        <v>27.75</v>
       </c>
       <c r="E3873" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3874" spans="1:5">
       <c r="A3874">
-        <v>11224</v>
+        <v>11222</v>
       </c>
       <c r="B3874" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C3874">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3874">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="E3874" t="s">
         <v>2636</v>
@@ -74157,16 +74157,16 @@
     </row>
     <row r="3875" spans="1:5">
       <c r="A3875">
-        <v>11226</v>
+        <v>11223</v>
       </c>
       <c r="B3875" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C3875">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3875">
-        <v>626.75</v>
+        <v>259</v>
       </c>
       <c r="E3875" t="s">
         <v>2636</v>
@@ -74174,16 +74174,16 @@
     </row>
     <row r="3876" spans="1:5">
       <c r="A3876">
-        <v>11227</v>
+        <v>11224</v>
       </c>
       <c r="B3876" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C3876">
         <v>2</v>
       </c>
       <c r="D3876">
-        <v>122.5</v>
+        <v>259</v>
       </c>
       <c r="E3876" t="s">
         <v>2636</v>
@@ -74191,16 +74191,16 @@
     </row>
     <row r="3877" spans="1:5">
       <c r="A3877">
-        <v>11235</v>
+        <v>11226</v>
       </c>
       <c r="B3877" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C3877">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3877">
-        <v>132.5</v>
+        <v>626.75</v>
       </c>
       <c r="E3877" t="s">
         <v>2636</v>
@@ -74208,16 +74208,16 @@
     </row>
     <row r="3878" spans="1:5">
       <c r="A3878">
-        <v>11236</v>
+        <v>11227</v>
       </c>
       <c r="B3878" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C3878">
         <v>2</v>
       </c>
       <c r="D3878">
-        <v>129.25</v>
+        <v>122.5</v>
       </c>
       <c r="E3878" t="s">
         <v>2636</v>
@@ -74225,16 +74225,16 @@
     </row>
     <row r="3879" spans="1:5">
       <c r="A3879">
-        <v>11241</v>
+        <v>11235</v>
       </c>
       <c r="B3879" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C3879">
         <v>2</v>
       </c>
       <c r="D3879">
-        <v>325.75</v>
+        <v>132.5</v>
       </c>
       <c r="E3879" t="s">
         <v>2636</v>
@@ -74242,16 +74242,16 @@
     </row>
     <row r="3880" spans="1:5">
       <c r="A3880">
-        <v>11248</v>
+        <v>11236</v>
       </c>
       <c r="B3880" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C3880">
         <v>2</v>
       </c>
       <c r="D3880">
-        <v>88.75</v>
+        <v>129.25</v>
       </c>
       <c r="E3880" t="s">
         <v>2636</v>
@@ -74259,16 +74259,16 @@
     </row>
     <row r="3881" spans="1:5">
       <c r="A3881">
-        <v>11251</v>
+        <v>11241</v>
       </c>
       <c r="B3881" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C3881">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3881">
-        <v>616.25</v>
+        <v>325.75</v>
       </c>
       <c r="E3881" t="s">
         <v>2636</v>
@@ -74276,16 +74276,16 @@
     </row>
     <row r="3882" spans="1:5">
       <c r="A3882">
-        <v>11252</v>
+        <v>11248</v>
       </c>
       <c r="B3882" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C3882">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3882">
-        <v>616.25</v>
+        <v>88.75</v>
       </c>
       <c r="E3882" t="s">
         <v>2636</v>
@@ -74293,24 +74293,24 @@
     </row>
     <row r="3883" spans="1:5">
       <c r="A3883">
-        <v>11253</v>
+        <v>11251</v>
       </c>
       <c r="B3883" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C3883">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3883">
-        <v>84.78600090198015</v>
+        <v>616.25</v>
       </c>
       <c r="E3883" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3884" spans="1:5">
       <c r="A3884">
-        <v>11253</v>
+        <v>11252</v>
       </c>
       <c r="B3884" t="s">
         <v>2557</v>
@@ -74319,7 +74319,7 @@
         <v>1</v>
       </c>
       <c r="D3884">
-        <v>1356.576014431682</v>
+        <v>616.25</v>
       </c>
       <c r="E3884" t="s">
         <v>2636</v>
@@ -74327,7 +74327,7 @@
     </row>
     <row r="3885" spans="1:5">
       <c r="A3885">
-        <v>11254</v>
+        <v>11253</v>
       </c>
       <c r="B3885" t="s">
         <v>2558</v>
@@ -74336,7 +74336,7 @@
         <v>7</v>
       </c>
       <c r="D3885">
-        <v>84.72147456654413</v>
+        <v>84.78600090198015</v>
       </c>
       <c r="E3885" t="s">
         <v>2637</v>
@@ -74344,7 +74344,7 @@
     </row>
     <row r="3886" spans="1:5">
       <c r="A3886">
-        <v>11254</v>
+        <v>11253</v>
       </c>
       <c r="B3886" t="s">
         <v>2558</v>
@@ -74353,7 +74353,7 @@
         <v>1</v>
       </c>
       <c r="D3886">
-        <v>1355.543593064706</v>
+        <v>1356.576014431682</v>
       </c>
       <c r="E3886" t="s">
         <v>2636</v>
@@ -74361,7 +74361,7 @@
     </row>
     <row r="3887" spans="1:5">
       <c r="A3887">
-        <v>11256</v>
+        <v>11254</v>
       </c>
       <c r="B3887" t="s">
         <v>2559</v>
@@ -74370,7 +74370,7 @@
         <v>7</v>
       </c>
       <c r="D3887">
-        <v>105.5</v>
+        <v>84.72147456654413</v>
       </c>
       <c r="E3887" t="s">
         <v>2637</v>
@@ -74378,7 +74378,7 @@
     </row>
     <row r="3888" spans="1:5">
       <c r="A3888">
-        <v>11256</v>
+        <v>11254</v>
       </c>
       <c r="B3888" t="s">
         <v>2559</v>
@@ -74387,7 +74387,7 @@
         <v>1</v>
       </c>
       <c r="D3888">
-        <v>1688</v>
+        <v>1355.543593064706</v>
       </c>
       <c r="E3888" t="s">
         <v>2636</v>
@@ -74395,7 +74395,7 @@
     </row>
     <row r="3889" spans="1:5">
       <c r="A3889">
-        <v>11257</v>
+        <v>11256</v>
       </c>
       <c r="B3889" t="s">
         <v>2560</v>
@@ -74412,7 +74412,7 @@
     </row>
     <row r="3890" spans="1:5">
       <c r="A3890">
-        <v>11257</v>
+        <v>11256</v>
       </c>
       <c r="B3890" t="s">
         <v>2560</v>
@@ -74429,16 +74429,16 @@
     </row>
     <row r="3891" spans="1:5">
       <c r="A3891">
-        <v>11258</v>
+        <v>11257</v>
       </c>
       <c r="B3891" t="s">
         <v>2561</v>
       </c>
       <c r="C3891">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3891">
-        <v>251.2802240687781</v>
+        <v>105.5</v>
       </c>
       <c r="E3891" t="s">
         <v>2637</v>
@@ -74446,7 +74446,7 @@
     </row>
     <row r="3892" spans="1:5">
       <c r="A3892">
-        <v>11258</v>
+        <v>11257</v>
       </c>
       <c r="B3892" t="s">
         <v>2561</v>
@@ -74455,7 +74455,7 @@
         <v>1</v>
       </c>
       <c r="D3892">
-        <v>2010.241792550225</v>
+        <v>1688</v>
       </c>
       <c r="E3892" t="s">
         <v>2636</v>
@@ -74463,7 +74463,7 @@
     </row>
     <row r="3893" spans="1:5">
       <c r="A3893">
-        <v>11259</v>
+        <v>11258</v>
       </c>
       <c r="B3893" t="s">
         <v>2562</v>
@@ -74472,7 +74472,7 @@
         <v>3</v>
       </c>
       <c r="D3893">
-        <v>251.1106481976067</v>
+        <v>251.2802240687781</v>
       </c>
       <c r="E3893" t="s">
         <v>2637</v>
@@ -74480,7 +74480,7 @@
     </row>
     <row r="3894" spans="1:5">
       <c r="A3894">
-        <v>11259</v>
+        <v>11258</v>
       </c>
       <c r="B3894" t="s">
         <v>2562</v>
@@ -74489,7 +74489,7 @@
         <v>1</v>
       </c>
       <c r="D3894">
-        <v>2008.885185580854</v>
+        <v>2010.241792550225</v>
       </c>
       <c r="E3894" t="s">
         <v>2636</v>
@@ -74497,16 +74497,16 @@
     </row>
     <row r="3895" spans="1:5">
       <c r="A3895">
-        <v>11260</v>
+        <v>11259</v>
       </c>
       <c r="B3895" t="s">
         <v>2563</v>
       </c>
       <c r="C3895">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3895">
-        <v>104.8024828164972</v>
+        <v>251.1106481976067</v>
       </c>
       <c r="E3895" t="s">
         <v>2637</v>
@@ -74514,7 +74514,7 @@
     </row>
     <row r="3896" spans="1:5">
       <c r="A3896">
-        <v>11260</v>
+        <v>11259</v>
       </c>
       <c r="B3896" t="s">
         <v>2563</v>
@@ -74523,7 +74523,7 @@
         <v>1</v>
       </c>
       <c r="D3896">
-        <v>1257.629793797966</v>
+        <v>2008.885185580854</v>
       </c>
       <c r="E3896" t="s">
         <v>2636</v>
@@ -74531,7 +74531,7 @@
     </row>
     <row r="3897" spans="1:5">
       <c r="A3897">
-        <v>11261</v>
+        <v>11260</v>
       </c>
       <c r="B3897" t="s">
         <v>2564</v>
@@ -74540,7 +74540,7 @@
         <v>7</v>
       </c>
       <c r="D3897">
-        <v>104.5801743563948</v>
+        <v>104.8024828164972</v>
       </c>
       <c r="E3897" t="s">
         <v>2637</v>
@@ -74548,7 +74548,7 @@
     </row>
     <row r="3898" spans="1:5">
       <c r="A3898">
-        <v>11261</v>
+        <v>11260</v>
       </c>
       <c r="B3898" t="s">
         <v>2564</v>
@@ -74557,7 +74557,7 @@
         <v>1</v>
       </c>
       <c r="D3898">
-        <v>1254.962092276738</v>
+        <v>1257.629793797966</v>
       </c>
       <c r="E3898" t="s">
         <v>2636</v>
@@ -74565,7 +74565,7 @@
     </row>
     <row r="3899" spans="1:5">
       <c r="A3899">
-        <v>11262</v>
+        <v>11261</v>
       </c>
       <c r="B3899" t="s">
         <v>2565</v>
@@ -74574,7 +74574,7 @@
         <v>7</v>
       </c>
       <c r="D3899">
-        <v>131.5</v>
+        <v>104.5801743563948</v>
       </c>
       <c r="E3899" t="s">
         <v>2637</v>
@@ -74582,7 +74582,7 @@
     </row>
     <row r="3900" spans="1:5">
       <c r="A3900">
-        <v>11262</v>
+        <v>11261</v>
       </c>
       <c r="B3900" t="s">
         <v>2565</v>
@@ -74591,7 +74591,7 @@
         <v>1</v>
       </c>
       <c r="D3900">
-        <v>1578</v>
+        <v>1254.962092276738</v>
       </c>
       <c r="E3900" t="s">
         <v>2636</v>
@@ -74599,33 +74599,33 @@
     </row>
     <row r="3901" spans="1:5">
       <c r="A3901">
-        <v>11264</v>
+        <v>11262</v>
       </c>
       <c r="B3901" t="s">
         <v>2566</v>
       </c>
       <c r="C3901">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3901">
-        <v>184</v>
+        <v>131.5</v>
       </c>
       <c r="E3901" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3902" spans="1:5">
       <c r="A3902">
-        <v>11265</v>
+        <v>11262</v>
       </c>
       <c r="B3902" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C3902">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3902">
-        <v>184</v>
+        <v>1578</v>
       </c>
       <c r="E3902" t="s">
         <v>2636</v>
@@ -74633,10 +74633,10 @@
     </row>
     <row r="3903" spans="1:5">
       <c r="A3903">
-        <v>11266</v>
+        <v>11264</v>
       </c>
       <c r="B3903" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C3903">
         <v>5</v>
@@ -74650,10 +74650,10 @@
     </row>
     <row r="3904" spans="1:5">
       <c r="A3904">
-        <v>11267</v>
+        <v>11265</v>
       </c>
       <c r="B3904" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C3904">
         <v>5</v>
@@ -74667,10 +74667,10 @@
     </row>
     <row r="3905" spans="1:5">
       <c r="A3905">
-        <v>11268</v>
+        <v>11266</v>
       </c>
       <c r="B3905" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C3905">
         <v>5</v>
@@ -74684,16 +74684,16 @@
     </row>
     <row r="3906" spans="1:5">
       <c r="A3906">
-        <v>11269</v>
+        <v>11267</v>
       </c>
       <c r="B3906" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C3906">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3906">
-        <v>95.58802435334671</v>
+        <v>184</v>
       </c>
       <c r="E3906" t="s">
         <v>2636</v>
@@ -74701,16 +74701,16 @@
     </row>
     <row r="3907" spans="1:5">
       <c r="A3907">
-        <v>11270</v>
+        <v>11268</v>
       </c>
       <c r="B3907" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C3907">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3907">
-        <v>95.58584491492971</v>
+        <v>184</v>
       </c>
       <c r="E3907" t="s">
         <v>2636</v>
@@ -74718,16 +74718,16 @@
     </row>
     <row r="3908" spans="1:5">
       <c r="A3908">
-        <v>11271</v>
+        <v>11269</v>
       </c>
       <c r="B3908" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C3908">
         <v>1</v>
       </c>
       <c r="D3908">
-        <v>95.50879891508491</v>
+        <v>95.58802435334671</v>
       </c>
       <c r="E3908" t="s">
         <v>2636</v>
@@ -74735,16 +74735,16 @@
     </row>
     <row r="3909" spans="1:5">
       <c r="A3909">
-        <v>11272</v>
+        <v>11270</v>
       </c>
       <c r="B3909" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C3909">
         <v>1</v>
       </c>
       <c r="D3909">
-        <v>95.58315616329293</v>
+        <v>95.58584491492971</v>
       </c>
       <c r="E3909" t="s">
         <v>2636</v>
@@ -74752,16 +74752,16 @@
     </row>
     <row r="3910" spans="1:5">
       <c r="A3910">
-        <v>11273</v>
+        <v>11271</v>
       </c>
       <c r="B3910" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C3910">
         <v>1</v>
       </c>
       <c r="D3910">
-        <v>63.78579037526772</v>
+        <v>95.50879891508491</v>
       </c>
       <c r="E3910" t="s">
         <v>2636</v>
@@ -74769,16 +74769,16 @@
     </row>
     <row r="3911" spans="1:5">
       <c r="A3911">
-        <v>11281</v>
+        <v>11272</v>
       </c>
       <c r="B3911" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C3911">
         <v>1</v>
       </c>
       <c r="D3911">
-        <v>97.75</v>
+        <v>95.58315616329293</v>
       </c>
       <c r="E3911" t="s">
         <v>2636</v>
@@ -74786,16 +74786,16 @@
     </row>
     <row r="3912" spans="1:5">
       <c r="A3912">
-        <v>11282</v>
+        <v>11273</v>
       </c>
       <c r="B3912" t="s">
-        <v>1113</v>
+        <v>2576</v>
       </c>
       <c r="C3912">
         <v>1</v>
       </c>
       <c r="D3912">
-        <v>97.75</v>
+        <v>63.78579037526772</v>
       </c>
       <c r="E3912" t="s">
         <v>2636</v>
@@ -74803,33 +74803,33 @@
     </row>
     <row r="3913" spans="1:5">
       <c r="A3913">
-        <v>11283</v>
+        <v>11281</v>
       </c>
       <c r="B3913" t="s">
         <v>2577</v>
       </c>
       <c r="C3913">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3913">
-        <v>15.25</v>
+        <v>97.75</v>
       </c>
       <c r="E3913" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3914" spans="1:5">
       <c r="A3914">
-        <v>11283</v>
+        <v>11282</v>
       </c>
       <c r="B3914" t="s">
-        <v>2577</v>
+        <v>1113</v>
       </c>
       <c r="C3914">
         <v>1</v>
       </c>
       <c r="D3914">
-        <v>732</v>
+        <v>97.75</v>
       </c>
       <c r="E3914" t="s">
         <v>2636</v>
@@ -74837,7 +74837,7 @@
     </row>
     <row r="3915" spans="1:5">
       <c r="A3915">
-        <v>11285</v>
+        <v>11283</v>
       </c>
       <c r="B3915" t="s">
         <v>2578</v>
@@ -74846,7 +74846,7 @@
         <v>3</v>
       </c>
       <c r="D3915">
-        <v>32.25</v>
+        <v>15.25</v>
       </c>
       <c r="E3915" t="s">
         <v>2637</v>
@@ -74854,7 +74854,7 @@
     </row>
     <row r="3916" spans="1:5">
       <c r="A3916">
-        <v>11285</v>
+        <v>11283</v>
       </c>
       <c r="B3916" t="s">
         <v>2578</v>
@@ -74863,7 +74863,7 @@
         <v>1</v>
       </c>
       <c r="D3916">
-        <v>516</v>
+        <v>732</v>
       </c>
       <c r="E3916" t="s">
         <v>2636</v>
@@ -74871,33 +74871,33 @@
     </row>
     <row r="3917" spans="1:5">
       <c r="A3917">
-        <v>11287</v>
+        <v>11285</v>
       </c>
       <c r="B3917" t="s">
         <v>2579</v>
       </c>
       <c r="C3917">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3917">
-        <v>458.75</v>
+        <v>32.25</v>
       </c>
       <c r="E3917" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3918" spans="1:5">
       <c r="A3918">
-        <v>11288</v>
+        <v>11285</v>
       </c>
       <c r="B3918" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C3918">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3918">
-        <v>314.6314946292564</v>
+        <v>516</v>
       </c>
       <c r="E3918" t="s">
         <v>2636</v>
@@ -74905,16 +74905,16 @@
     </row>
     <row r="3919" spans="1:5">
       <c r="A3919">
-        <v>11289</v>
+        <v>11287</v>
       </c>
       <c r="B3919" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C3919">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3919">
-        <v>314.4849708669519</v>
+        <v>458.75</v>
       </c>
       <c r="E3919" t="s">
         <v>2636</v>
@@ -74922,16 +74922,16 @@
     </row>
     <row r="3920" spans="1:5">
       <c r="A3920">
-        <v>11290</v>
+        <v>11288</v>
       </c>
       <c r="B3920" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C3920">
         <v>2</v>
       </c>
       <c r="D3920">
-        <v>314.6715955374008</v>
+        <v>314.6314946292564</v>
       </c>
       <c r="E3920" t="s">
         <v>2636</v>
@@ -74939,16 +74939,16 @@
     </row>
     <row r="3921" spans="1:5">
       <c r="A3921">
-        <v>11293</v>
+        <v>11289</v>
       </c>
       <c r="B3921" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C3921">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3921">
-        <v>388.5</v>
+        <v>314.4849708669519</v>
       </c>
       <c r="E3921" t="s">
         <v>2636</v>
@@ -74956,16 +74956,16 @@
     </row>
     <row r="3922" spans="1:5">
       <c r="A3922">
-        <v>11294</v>
+        <v>11290</v>
       </c>
       <c r="B3922" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C3922">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3922">
-        <v>892</v>
+        <v>314.6715955374008</v>
       </c>
       <c r="E3922" t="s">
         <v>2636</v>
@@ -74973,16 +74973,16 @@
     </row>
     <row r="3923" spans="1:5">
       <c r="A3923">
-        <v>11295</v>
+        <v>11293</v>
       </c>
       <c r="B3923" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C3923">
         <v>1</v>
       </c>
       <c r="D3923">
-        <v>876</v>
+        <v>388.5</v>
       </c>
       <c r="E3923" t="s">
         <v>2636</v>
@@ -74990,16 +74990,16 @@
     </row>
     <row r="3924" spans="1:5">
       <c r="A3924">
-        <v>11304</v>
+        <v>11294</v>
       </c>
       <c r="B3924" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C3924">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3924">
-        <v>314.6690045260966</v>
+        <v>892</v>
       </c>
       <c r="E3924" t="s">
         <v>2636</v>
@@ -75007,16 +75007,16 @@
     </row>
     <row r="3925" spans="1:5">
       <c r="A3925">
-        <v>11305</v>
+        <v>11295</v>
       </c>
       <c r="B3925" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C3925">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3925">
-        <v>697.5</v>
+        <v>876</v>
       </c>
       <c r="E3925" t="s">
         <v>2636</v>
@@ -75024,16 +75024,16 @@
     </row>
     <row r="3926" spans="1:5">
       <c r="A3926">
-        <v>11306</v>
+        <v>11304</v>
       </c>
       <c r="B3926" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="C3926">
         <v>2</v>
       </c>
       <c r="D3926">
-        <v>728.25</v>
+        <v>314.6690045260966</v>
       </c>
       <c r="E3926" t="s">
         <v>2636</v>
@@ -75041,16 +75041,16 @@
     </row>
     <row r="3927" spans="1:5">
       <c r="A3927">
-        <v>11307</v>
+        <v>11305</v>
       </c>
       <c r="B3927" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C3927">
         <v>2</v>
       </c>
       <c r="D3927">
-        <v>723.25</v>
+        <v>697.5</v>
       </c>
       <c r="E3927" t="s">
         <v>2636</v>
@@ -75058,33 +75058,33 @@
     </row>
     <row r="3928" spans="1:5">
       <c r="A3928">
-        <v>11316</v>
+        <v>11306</v>
       </c>
       <c r="B3928" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C3928">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3928">
-        <v>66.5</v>
+        <v>728.25</v>
       </c>
       <c r="E3928" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3929" spans="1:5">
       <c r="A3929">
-        <v>11316</v>
+        <v>11307</v>
       </c>
       <c r="B3929" t="s">
         <v>2590</v>
       </c>
       <c r="C3929">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3929">
-        <v>798</v>
+        <v>723.25</v>
       </c>
       <c r="E3929" t="s">
         <v>2636</v>
@@ -75092,7 +75092,7 @@
     </row>
     <row r="3930" spans="1:5">
       <c r="A3930">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B3930" t="s">
         <v>2591</v>
@@ -75101,7 +75101,7 @@
         <v>3</v>
       </c>
       <c r="D3930">
-        <v>37.25</v>
+        <v>66.5</v>
       </c>
       <c r="E3930" t="s">
         <v>2637</v>
@@ -75109,7 +75109,7 @@
     </row>
     <row r="3931" spans="1:5">
       <c r="A3931">
-        <v>11317</v>
+        <v>11316</v>
       </c>
       <c r="B3931" t="s">
         <v>2591</v>
@@ -75118,7 +75118,7 @@
         <v>1</v>
       </c>
       <c r="D3931">
-        <v>447</v>
+        <v>798</v>
       </c>
       <c r="E3931" t="s">
         <v>2636</v>
@@ -75126,7 +75126,7 @@
     </row>
     <row r="3932" spans="1:5">
       <c r="A3932">
-        <v>11321</v>
+        <v>11317</v>
       </c>
       <c r="B3932" t="s">
         <v>2592</v>
@@ -75135,7 +75135,7 @@
         <v>3</v>
       </c>
       <c r="D3932">
-        <v>54.75</v>
+        <v>37.25</v>
       </c>
       <c r="E3932" t="s">
         <v>2637</v>
@@ -75143,7 +75143,7 @@
     </row>
     <row r="3933" spans="1:5">
       <c r="A3933">
-        <v>11321</v>
+        <v>11317</v>
       </c>
       <c r="B3933" t="s">
         <v>2592</v>
@@ -75152,7 +75152,7 @@
         <v>1</v>
       </c>
       <c r="D3933">
-        <v>657</v>
+        <v>447</v>
       </c>
       <c r="E3933" t="s">
         <v>2636</v>
@@ -75160,7 +75160,7 @@
     </row>
     <row r="3934" spans="1:5">
       <c r="A3934">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B3934" t="s">
         <v>2593</v>
@@ -75169,7 +75169,7 @@
         <v>3</v>
       </c>
       <c r="D3934">
-        <v>54.81534193474381</v>
+        <v>54.75</v>
       </c>
       <c r="E3934" t="s">
         <v>2637</v>
@@ -75177,7 +75177,7 @@
     </row>
     <row r="3935" spans="1:5">
       <c r="A3935">
-        <v>11322</v>
+        <v>11321</v>
       </c>
       <c r="B3935" t="s">
         <v>2593</v>
@@ -75186,7 +75186,7 @@
         <v>1</v>
       </c>
       <c r="D3935">
-        <v>657.7841032169257</v>
+        <v>657</v>
       </c>
       <c r="E3935" t="s">
         <v>2636</v>
@@ -75194,7 +75194,7 @@
     </row>
     <row r="3936" spans="1:5">
       <c r="A3936">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B3936" t="s">
         <v>2594</v>
@@ -75203,7 +75203,7 @@
         <v>3</v>
       </c>
       <c r="D3936">
-        <v>54</v>
+        <v>54.81534193474381</v>
       </c>
       <c r="E3936" t="s">
         <v>2637</v>
@@ -75211,7 +75211,7 @@
     </row>
     <row r="3937" spans="1:5">
       <c r="A3937">
-        <v>11323</v>
+        <v>11322</v>
       </c>
       <c r="B3937" t="s">
         <v>2594</v>
@@ -75220,7 +75220,7 @@
         <v>1</v>
       </c>
       <c r="D3937">
-        <v>324</v>
+        <v>657.7841032169257</v>
       </c>
       <c r="E3937" t="s">
         <v>2636</v>
@@ -75228,7 +75228,7 @@
     </row>
     <row r="3938" spans="1:5">
       <c r="A3938">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B3938" t="s">
         <v>2595</v>
@@ -75237,7 +75237,7 @@
         <v>3</v>
       </c>
       <c r="D3938">
-        <v>53.25</v>
+        <v>54</v>
       </c>
       <c r="E3938" t="s">
         <v>2637</v>
@@ -75245,7 +75245,7 @@
     </row>
     <row r="3939" spans="1:5">
       <c r="A3939">
-        <v>11324</v>
+        <v>11323</v>
       </c>
       <c r="B3939" t="s">
         <v>2595</v>
@@ -75254,7 +75254,7 @@
         <v>1</v>
       </c>
       <c r="D3939">
-        <v>639</v>
+        <v>324</v>
       </c>
       <c r="E3939" t="s">
         <v>2636</v>
@@ -75262,7 +75262,7 @@
     </row>
     <row r="3940" spans="1:5">
       <c r="A3940">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B3940" t="s">
         <v>2596</v>
@@ -75271,7 +75271,7 @@
         <v>3</v>
       </c>
       <c r="D3940">
-        <v>54.61478525608751</v>
+        <v>53.25</v>
       </c>
       <c r="E3940" t="s">
         <v>2637</v>
@@ -75279,7 +75279,7 @@
     </row>
     <row r="3941" spans="1:5">
       <c r="A3941">
-        <v>11325</v>
+        <v>11324</v>
       </c>
       <c r="B3941" t="s">
         <v>2596</v>
@@ -75288,7 +75288,7 @@
         <v>1</v>
       </c>
       <c r="D3941">
-        <v>655.3774230730501</v>
+        <v>639</v>
       </c>
       <c r="E3941" t="s">
         <v>2636</v>
@@ -75296,7 +75296,7 @@
     </row>
     <row r="3942" spans="1:5">
       <c r="A3942">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B3942" t="s">
         <v>2597</v>
@@ -75305,7 +75305,7 @@
         <v>3</v>
       </c>
       <c r="D3942">
-        <v>55</v>
+        <v>54.61478525608751</v>
       </c>
       <c r="E3942" t="s">
         <v>2637</v>
@@ -75313,7 +75313,7 @@
     </row>
     <row r="3943" spans="1:5">
       <c r="A3943">
-        <v>11327</v>
+        <v>11325</v>
       </c>
       <c r="B3943" t="s">
         <v>2597</v>
@@ -75322,7 +75322,7 @@
         <v>1</v>
       </c>
       <c r="D3943">
-        <v>660</v>
+        <v>655.3774230730501</v>
       </c>
       <c r="E3943" t="s">
         <v>2636</v>
@@ -75330,7 +75330,7 @@
     </row>
     <row r="3944" spans="1:5">
       <c r="A3944">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B3944" t="s">
         <v>2598</v>
@@ -75339,7 +75339,7 @@
         <v>3</v>
       </c>
       <c r="D3944">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="E3944" t="s">
         <v>2637</v>
@@ -75347,7 +75347,7 @@
     </row>
     <row r="3945" spans="1:5">
       <c r="A3945">
-        <v>11328</v>
+        <v>11327</v>
       </c>
       <c r="B3945" t="s">
         <v>2598</v>
@@ -75356,7 +75356,7 @@
         <v>1</v>
       </c>
       <c r="D3945">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="E3945" t="s">
         <v>2636</v>
@@ -75364,7 +75364,7 @@
     </row>
     <row r="3946" spans="1:5">
       <c r="A3946">
-        <v>11331</v>
+        <v>11328</v>
       </c>
       <c r="B3946" t="s">
         <v>2599</v>
@@ -75373,7 +75373,7 @@
         <v>3</v>
       </c>
       <c r="D3946">
-        <v>52.5</v>
+        <v>54.5</v>
       </c>
       <c r="E3946" t="s">
         <v>2637</v>
@@ -75381,7 +75381,7 @@
     </row>
     <row r="3947" spans="1:5">
       <c r="A3947">
-        <v>11331</v>
+        <v>11328</v>
       </c>
       <c r="B3947" t="s">
         <v>2599</v>
@@ -75390,7 +75390,7 @@
         <v>1</v>
       </c>
       <c r="D3947">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="E3947" t="s">
         <v>2636</v>
@@ -75398,16 +75398,16 @@
     </row>
     <row r="3948" spans="1:5">
       <c r="A3948">
-        <v>11332</v>
+        <v>11331</v>
       </c>
       <c r="B3948" t="s">
         <v>2600</v>
       </c>
       <c r="C3948">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3948">
-        <v>28</v>
+        <v>52.5</v>
       </c>
       <c r="E3948" t="s">
         <v>2637</v>
@@ -75415,7 +75415,7 @@
     </row>
     <row r="3949" spans="1:5">
       <c r="A3949">
-        <v>11332</v>
+        <v>11331</v>
       </c>
       <c r="B3949" t="s">
         <v>2600</v>
@@ -75424,7 +75424,7 @@
         <v>1</v>
       </c>
       <c r="D3949">
-        <v>448</v>
+        <v>630</v>
       </c>
       <c r="E3949" t="s">
         <v>2636</v>
@@ -75432,7 +75432,7 @@
     </row>
     <row r="3950" spans="1:5">
       <c r="A3950">
-        <v>11333</v>
+        <v>11332</v>
       </c>
       <c r="B3950" t="s">
         <v>2601</v>
@@ -75441,7 +75441,7 @@
         <v>7</v>
       </c>
       <c r="D3950">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3950" t="s">
         <v>2637</v>
@@ -75449,7 +75449,7 @@
     </row>
     <row r="3951" spans="1:5">
       <c r="A3951">
-        <v>11333</v>
+        <v>11332</v>
       </c>
       <c r="B3951" t="s">
         <v>2601</v>
@@ -75458,7 +75458,7 @@
         <v>1</v>
       </c>
       <c r="D3951">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="E3951" t="s">
         <v>2636</v>
@@ -75466,7 +75466,7 @@
     </row>
     <row r="3952" spans="1:5">
       <c r="A3952">
-        <v>11337</v>
+        <v>11333</v>
       </c>
       <c r="B3952" t="s">
         <v>2602</v>
@@ -75475,7 +75475,7 @@
         <v>7</v>
       </c>
       <c r="D3952">
-        <v>87.5</v>
+        <v>29</v>
       </c>
       <c r="E3952" t="s">
         <v>2637</v>
@@ -75483,7 +75483,7 @@
     </row>
     <row r="3953" spans="1:5">
       <c r="A3953">
-        <v>11337</v>
+        <v>11333</v>
       </c>
       <c r="B3953" t="s">
         <v>2602</v>
@@ -75492,7 +75492,7 @@
         <v>1</v>
       </c>
       <c r="D3953">
-        <v>875</v>
+        <v>464</v>
       </c>
       <c r="E3953" t="s">
         <v>2636</v>
@@ -75500,7 +75500,7 @@
     </row>
     <row r="3954" spans="1:5">
       <c r="A3954">
-        <v>11338</v>
+        <v>11337</v>
       </c>
       <c r="B3954" t="s">
         <v>2603</v>
@@ -75509,7 +75509,7 @@
         <v>7</v>
       </c>
       <c r="D3954">
-        <v>91</v>
+        <v>87.5</v>
       </c>
       <c r="E3954" t="s">
         <v>2637</v>
@@ -75517,7 +75517,7 @@
     </row>
     <row r="3955" spans="1:5">
       <c r="A3955">
-        <v>11338</v>
+        <v>11337</v>
       </c>
       <c r="B3955" t="s">
         <v>2603</v>
@@ -75526,7 +75526,7 @@
         <v>1</v>
       </c>
       <c r="D3955">
-        <v>910</v>
+        <v>875</v>
       </c>
       <c r="E3955" t="s">
         <v>2636</v>
@@ -75534,16 +75534,16 @@
     </row>
     <row r="3956" spans="1:5">
       <c r="A3956">
-        <v>11339</v>
+        <v>11338</v>
       </c>
       <c r="B3956" t="s">
         <v>2604</v>
       </c>
       <c r="C3956">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3956">
-        <v>100.0626279145577</v>
+        <v>91</v>
       </c>
       <c r="E3956" t="s">
         <v>2637</v>
@@ -75551,7 +75551,7 @@
     </row>
     <row r="3957" spans="1:5">
       <c r="A3957">
-        <v>11339</v>
+        <v>11338</v>
       </c>
       <c r="B3957" t="s">
         <v>2604</v>
@@ -75560,7 +75560,7 @@
         <v>1</v>
       </c>
       <c r="D3957">
-        <v>1601.002046632923</v>
+        <v>910</v>
       </c>
       <c r="E3957" t="s">
         <v>2636</v>
@@ -75568,7 +75568,7 @@
     </row>
     <row r="3958" spans="1:5">
       <c r="A3958">
-        <v>11345</v>
+        <v>11339</v>
       </c>
       <c r="B3958" t="s">
         <v>2605</v>
@@ -75577,24 +75577,24 @@
         <v>3</v>
       </c>
       <c r="D3958">
-        <v>128.4237913164091</v>
+        <v>100.0626636760514</v>
       </c>
       <c r="E3958" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3959" spans="1:5">
       <c r="A3959">
-        <v>11346</v>
+        <v>11339</v>
       </c>
       <c r="B3959" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C3959">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3959">
-        <v>128.4246584219693</v>
+        <v>1601.002618816822</v>
       </c>
       <c r="E3959" t="s">
         <v>2636</v>
@@ -75602,16 +75602,16 @@
     </row>
     <row r="3960" spans="1:5">
       <c r="A3960">
-        <v>11347</v>
+        <v>11345</v>
       </c>
       <c r="B3960" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C3960">
         <v>3</v>
       </c>
       <c r="D3960">
-        <v>132.25</v>
+        <v>128.4237913164091</v>
       </c>
       <c r="E3960" t="s">
         <v>2636</v>
@@ -75619,16 +75619,16 @@
     </row>
     <row r="3961" spans="1:5">
       <c r="A3961">
-        <v>11349</v>
+        <v>11346</v>
       </c>
       <c r="B3961" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C3961">
         <v>3</v>
       </c>
       <c r="D3961">
-        <v>133.5</v>
+        <v>128.4246584219693</v>
       </c>
       <c r="E3961" t="s">
         <v>2636</v>
@@ -75636,16 +75636,16 @@
     </row>
     <row r="3962" spans="1:5">
       <c r="A3962">
-        <v>11350</v>
+        <v>11347</v>
       </c>
       <c r="B3962" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C3962">
         <v>3</v>
       </c>
       <c r="D3962">
-        <v>134</v>
+        <v>132.25</v>
       </c>
       <c r="E3962" t="s">
         <v>2636</v>
@@ -75653,16 +75653,16 @@
     </row>
     <row r="3963" spans="1:5">
       <c r="A3963">
-        <v>11351</v>
+        <v>11349</v>
       </c>
       <c r="B3963" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C3963">
         <v>3</v>
       </c>
       <c r="D3963">
-        <v>133.75</v>
+        <v>133.5</v>
       </c>
       <c r="E3963" t="s">
         <v>2636</v>
@@ -75670,33 +75670,33 @@
     </row>
     <row r="3964" spans="1:5">
       <c r="A3964">
-        <v>11352</v>
+        <v>11350</v>
       </c>
       <c r="B3964" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C3964">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3964">
-        <v>25.5</v>
+        <v>134</v>
       </c>
       <c r="E3964" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3965" spans="1:5">
       <c r="A3965">
-        <v>11352</v>
+        <v>11351</v>
       </c>
       <c r="B3965" t="s">
         <v>2611</v>
       </c>
       <c r="C3965">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3965">
-        <v>255</v>
+        <v>133.75</v>
       </c>
       <c r="E3965" t="s">
         <v>2636</v>
@@ -75704,7 +75704,7 @@
     </row>
     <row r="3966" spans="1:5">
       <c r="A3966">
-        <v>11353</v>
+        <v>11352</v>
       </c>
       <c r="B3966" t="s">
         <v>2612</v>
@@ -75713,7 +75713,7 @@
         <v>7</v>
       </c>
       <c r="D3966">
-        <v>21.5</v>
+        <v>25.5</v>
       </c>
       <c r="E3966" t="s">
         <v>2637</v>
@@ -75721,7 +75721,7 @@
     </row>
     <row r="3967" spans="1:5">
       <c r="A3967">
-        <v>11353</v>
+        <v>11352</v>
       </c>
       <c r="B3967" t="s">
         <v>2612</v>
@@ -75730,7 +75730,7 @@
         <v>1</v>
       </c>
       <c r="D3967">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="E3967" t="s">
         <v>2636</v>
@@ -75738,7 +75738,7 @@
     </row>
     <row r="3968" spans="1:5">
       <c r="A3968">
-        <v>11354</v>
+        <v>11353</v>
       </c>
       <c r="B3968" t="s">
         <v>2613</v>
@@ -75747,7 +75747,7 @@
         <v>7</v>
       </c>
       <c r="D3968">
-        <v>38.75</v>
+        <v>21.5</v>
       </c>
       <c r="E3968" t="s">
         <v>2637</v>
@@ -75755,7 +75755,7 @@
     </row>
     <row r="3969" spans="1:5">
       <c r="A3969">
-        <v>11354</v>
+        <v>11353</v>
       </c>
       <c r="B3969" t="s">
         <v>2613</v>
@@ -75764,7 +75764,7 @@
         <v>1</v>
       </c>
       <c r="D3969">
-        <v>387.5</v>
+        <v>215</v>
       </c>
       <c r="E3969" t="s">
         <v>2636</v>
@@ -75772,7 +75772,7 @@
     </row>
     <row r="3970" spans="1:5">
       <c r="A3970">
-        <v>11355</v>
+        <v>11354</v>
       </c>
       <c r="B3970" t="s">
         <v>2614</v>
@@ -75781,7 +75781,7 @@
         <v>7</v>
       </c>
       <c r="D3970">
-        <v>17</v>
+        <v>38.75</v>
       </c>
       <c r="E3970" t="s">
         <v>2637</v>
@@ -75789,7 +75789,7 @@
     </row>
     <row r="3971" spans="1:5">
       <c r="A3971">
-        <v>11355</v>
+        <v>11354</v>
       </c>
       <c r="B3971" t="s">
         <v>2614</v>
@@ -75798,7 +75798,7 @@
         <v>1</v>
       </c>
       <c r="D3971">
-        <v>170</v>
+        <v>387.5</v>
       </c>
       <c r="E3971" t="s">
         <v>2636</v>
@@ -75806,7 +75806,7 @@
     </row>
     <row r="3972" spans="1:5">
       <c r="A3972">
-        <v>11356</v>
+        <v>11355</v>
       </c>
       <c r="B3972" t="s">
         <v>2615</v>
@@ -75815,7 +75815,7 @@
         <v>7</v>
       </c>
       <c r="D3972">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="E3972" t="s">
         <v>2637</v>
@@ -75823,7 +75823,7 @@
     </row>
     <row r="3973" spans="1:5">
       <c r="A3973">
-        <v>11356</v>
+        <v>11355</v>
       </c>
       <c r="B3973" t="s">
         <v>2615</v>
@@ -75832,7 +75832,7 @@
         <v>1</v>
       </c>
       <c r="D3973">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E3973" t="s">
         <v>2636</v>
@@ -75840,33 +75840,33 @@
     </row>
     <row r="3974" spans="1:5">
       <c r="A3974">
-        <v>11357</v>
+        <v>11356</v>
       </c>
       <c r="B3974" t="s">
         <v>2616</v>
       </c>
       <c r="C3974">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3974">
-        <v>326.2066022427501</v>
+        <v>19.5</v>
       </c>
       <c r="E3974" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3975" spans="1:5">
       <c r="A3975">
-        <v>11358</v>
+        <v>11356</v>
       </c>
       <c r="B3975" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C3975">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3975">
-        <v>326.0831754686534</v>
+        <v>195</v>
       </c>
       <c r="E3975" t="s">
         <v>2636</v>
@@ -75874,16 +75874,16 @@
     </row>
     <row r="3976" spans="1:5">
       <c r="A3976">
-        <v>11368</v>
+        <v>11357</v>
       </c>
       <c r="B3976" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C3976">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3976">
-        <v>208.25</v>
+        <v>326.2066022427501</v>
       </c>
       <c r="E3976" t="s">
         <v>2636</v>
@@ -75891,16 +75891,16 @@
     </row>
     <row r="3977" spans="1:5">
       <c r="A3977">
-        <v>11369</v>
+        <v>11358</v>
       </c>
       <c r="B3977" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C3977">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3977">
-        <v>225.5</v>
+        <v>326.0855149758172</v>
       </c>
       <c r="E3977" t="s">
         <v>2636</v>
@@ -75908,16 +75908,16 @@
     </row>
     <row r="3978" spans="1:5">
       <c r="A3978">
-        <v>11372</v>
+        <v>11368</v>
       </c>
       <c r="B3978" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C3978">
         <v>2</v>
       </c>
       <c r="D3978">
-        <v>148.75</v>
+        <v>208.25</v>
       </c>
       <c r="E3978" t="s">
         <v>2636</v>
@@ -75925,16 +75925,16 @@
     </row>
     <row r="3979" spans="1:5">
       <c r="A3979">
-        <v>11373</v>
+        <v>11369</v>
       </c>
       <c r="B3979" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C3979">
         <v>2</v>
       </c>
       <c r="D3979">
-        <v>83.5</v>
+        <v>225.5</v>
       </c>
       <c r="E3979" t="s">
         <v>2636</v>
@@ -75942,16 +75942,16 @@
     </row>
     <row r="3980" spans="1:5">
       <c r="A3980">
-        <v>11375</v>
+        <v>11372</v>
       </c>
       <c r="B3980" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C3980">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3980">
-        <v>734.5</v>
+        <v>148.75</v>
       </c>
       <c r="E3980" t="s">
         <v>2636</v>
@@ -75959,33 +75959,33 @@
     </row>
     <row r="3981" spans="1:5">
       <c r="A3981">
-        <v>11376</v>
+        <v>11373</v>
       </c>
       <c r="B3981" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C3981">
-        <v>332</v>
+        <v>2</v>
       </c>
       <c r="D3981">
-        <v>1206.5</v>
+        <v>83.5</v>
       </c>
       <c r="E3981" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3982" spans="1:5">
       <c r="A3982">
-        <v>11376</v>
+        <v>11375</v>
       </c>
       <c r="B3982" t="s">
         <v>2623</v>
       </c>
       <c r="C3982">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D3982">
-        <v>6032.5</v>
+        <v>734.5</v>
       </c>
       <c r="E3982" t="s">
         <v>2636</v>
@@ -75993,7 +75993,7 @@
     </row>
     <row r="3983" spans="1:5">
       <c r="A3983">
-        <v>11377</v>
+        <v>11376</v>
       </c>
       <c r="B3983" t="s">
         <v>2624</v>
@@ -76002,7 +76002,7 @@
         <v>332</v>
       </c>
       <c r="D3983">
-        <v>538.75</v>
+        <v>1206.5</v>
       </c>
       <c r="E3983" t="s">
         <v>2637</v>
@@ -76010,7 +76010,7 @@
     </row>
     <row r="3984" spans="1:5">
       <c r="A3984">
-        <v>11377</v>
+        <v>11376</v>
       </c>
       <c r="B3984" t="s">
         <v>2624</v>
@@ -76019,7 +76019,7 @@
         <v>1</v>
       </c>
       <c r="D3984">
-        <v>4848.75</v>
+        <v>6032.5</v>
       </c>
       <c r="E3984" t="s">
         <v>2636</v>
@@ -76027,7 +76027,7 @@
     </row>
     <row r="3985" spans="1:5">
       <c r="A3985">
-        <v>11380</v>
+        <v>11377</v>
       </c>
       <c r="B3985" t="s">
         <v>2625</v>
@@ -76036,7 +76036,7 @@
         <v>332</v>
       </c>
       <c r="D3985">
-        <v>48.75</v>
+        <v>538.75</v>
       </c>
       <c r="E3985" t="s">
         <v>2637</v>
@@ -76044,7 +76044,7 @@
     </row>
     <row r="3986" spans="1:5">
       <c r="A3986">
-        <v>11380</v>
+        <v>11377</v>
       </c>
       <c r="B3986" t="s">
         <v>2625</v>
@@ -76053,7 +76053,7 @@
         <v>1</v>
       </c>
       <c r="D3986">
-        <v>1462.5</v>
+        <v>4848.75</v>
       </c>
       <c r="E3986" t="s">
         <v>2636</v>
@@ -76061,7 +76061,7 @@
     </row>
     <row r="3987" spans="1:5">
       <c r="A3987">
-        <v>11383</v>
+        <v>11380</v>
       </c>
       <c r="B3987" t="s">
         <v>2626</v>
@@ -76070,7 +76070,7 @@
         <v>332</v>
       </c>
       <c r="D3987">
-        <v>48.5</v>
+        <v>48.75</v>
       </c>
       <c r="E3987" t="s">
         <v>2637</v>
@@ -76078,7 +76078,7 @@
     </row>
     <row r="3988" spans="1:5">
       <c r="A3988">
-        <v>11383</v>
+        <v>11380</v>
       </c>
       <c r="B3988" t="s">
         <v>2626</v>
@@ -76087,7 +76087,7 @@
         <v>1</v>
       </c>
       <c r="D3988">
-        <v>1455</v>
+        <v>1462.5</v>
       </c>
       <c r="E3988" t="s">
         <v>2636</v>
@@ -76095,7 +76095,7 @@
     </row>
     <row r="3989" spans="1:5">
       <c r="A3989">
-        <v>11384</v>
+        <v>11383</v>
       </c>
       <c r="B3989" t="s">
         <v>2627</v>
@@ -76104,7 +76104,7 @@
         <v>332</v>
       </c>
       <c r="D3989">
-        <v>48.75</v>
+        <v>48.5</v>
       </c>
       <c r="E3989" t="s">
         <v>2637</v>
@@ -76112,7 +76112,7 @@
     </row>
     <row r="3990" spans="1:5">
       <c r="A3990">
-        <v>11384</v>
+        <v>11383</v>
       </c>
       <c r="B3990" t="s">
         <v>2627</v>
@@ -76121,7 +76121,7 @@
         <v>1</v>
       </c>
       <c r="D3990">
-        <v>1462.5</v>
+        <v>1455</v>
       </c>
       <c r="E3990" t="s">
         <v>2636</v>
@@ -76129,7 +76129,7 @@
     </row>
     <row r="3991" spans="1:5">
       <c r="A3991">
-        <v>11387</v>
+        <v>11384</v>
       </c>
       <c r="B3991" t="s">
         <v>2628</v>
@@ -76146,7 +76146,7 @@
     </row>
     <row r="3992" spans="1:5">
       <c r="A3992">
-        <v>11387</v>
+        <v>11384</v>
       </c>
       <c r="B3992" t="s">
         <v>2628</v>
@@ -76163,50 +76163,50 @@
     </row>
     <row r="3993" spans="1:5">
       <c r="A3993">
-        <v>11390</v>
+        <v>11387</v>
       </c>
       <c r="B3993" t="s">
         <v>2629</v>
       </c>
       <c r="C3993">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="D3993">
-        <v>134.4991407609874</v>
+        <v>48.75</v>
       </c>
       <c r="E3993" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3994" spans="1:5">
       <c r="A3994">
-        <v>11391</v>
+        <v>11387</v>
       </c>
       <c r="B3994" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C3994">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="D3994">
-        <v>58.75</v>
+        <v>1462.5</v>
       </c>
       <c r="E3994" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="3995" spans="1:5">
       <c r="A3995">
-        <v>11391</v>
+        <v>11390</v>
       </c>
       <c r="B3995" t="s">
         <v>2630</v>
       </c>
       <c r="C3995">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3995">
-        <v>1762.5</v>
+        <v>134.4991407609874</v>
       </c>
       <c r="E3995" t="s">
         <v>2636</v>
@@ -76214,33 +76214,33 @@
     </row>
     <row r="3996" spans="1:5">
       <c r="A3996">
-        <v>11396</v>
+        <v>11391</v>
       </c>
       <c r="B3996" t="s">
         <v>2631</v>
       </c>
       <c r="C3996">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="D3996">
-        <v>313.75</v>
+        <v>58.75</v>
       </c>
       <c r="E3996" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="3997" spans="1:5">
       <c r="A3997">
-        <v>11399</v>
+        <v>11391</v>
       </c>
       <c r="B3997" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C3997">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3997">
-        <v>577</v>
+        <v>1762.5</v>
       </c>
       <c r="E3997" t="s">
         <v>2636</v>
@@ -76248,16 +76248,16 @@
     </row>
     <row r="3998" spans="1:5">
       <c r="A3998">
-        <v>11402</v>
+        <v>11396</v>
       </c>
       <c r="B3998" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C3998">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3998">
-        <v>645.25</v>
+        <v>313.75</v>
       </c>
       <c r="E3998" t="s">
         <v>2636</v>
@@ -76265,16 +76265,16 @@
     </row>
     <row r="3999" spans="1:5">
       <c r="A3999">
-        <v>11403</v>
+        <v>11399</v>
       </c>
       <c r="B3999" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C3999">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3999">
-        <v>322.5</v>
+        <v>576.5</v>
       </c>
       <c r="E3999" t="s">
         <v>2636</v>
@@ -76282,24 +76282,24 @@
     </row>
     <row r="4000" spans="1:5">
       <c r="A4000">
-        <v>11405</v>
+        <v>11402</v>
       </c>
       <c r="B4000" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C4000">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4000">
-        <v>132</v>
+        <v>645.5</v>
       </c>
       <c r="E4000" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="4001" spans="1:5">
       <c r="A4001">
-        <v>11405</v>
+        <v>11403</v>
       </c>
       <c r="B4001" t="s">
         <v>2635</v>
@@ -76308,7 +76308,7 @@
         <v>1</v>
       </c>
       <c r="D4001">
-        <v>528</v>
+        <v>322.5</v>
       </c>
       <c r="E4001" t="s">
         <v>2636</v>

--- a/manual/output_1223_chunk_2.xlsx
+++ b/manual/output_1223_chunk_2.xlsx
@@ -1087,7 +1087,7 @@
     <t>شوكولاتة باونتى محشو جوز الهند - 28.5 جم</t>
   </si>
   <si>
-    <t>امريكانا حبوب ذرة حلوة - 400 جم</t>
+    <t>امريكانا حبوب ذرة حلوة - 330 جم</t>
   </si>
   <si>
     <t>امريكانا تونة قطع - 140 جم</t>
@@ -8602,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>656.25</v>
+        <v>656.5</v>
       </c>
       <c r="E19" t="s">
         <v>2632</v>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>656.25</v>
+        <v>656.5</v>
       </c>
       <c r="E20" t="s">
         <v>2632</v>
@@ -9979,7 +9979,7 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>120.25</v>
+        <v>120</v>
       </c>
       <c r="E100" t="s">
         <v>2633</v>
@@ -9996,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E101" t="s">
         <v>2632</v>
@@ -11560,7 +11560,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>654.7538007661535</v>
+        <v>654.8683684283569</v>
       </c>
       <c r="E193" t="s">
         <v>2632</v>
@@ -11713,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>146.25</v>
+        <v>146.5</v>
       </c>
       <c r="E202" t="s">
         <v>2633</v>
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="E203" t="s">
         <v>2632</v>
@@ -13515,7 +13515,7 @@
         <v>3</v>
       </c>
       <c r="D308">
-        <v>140.25</v>
+        <v>140.75</v>
       </c>
       <c r="E308" t="s">
         <v>2633</v>
@@ -13532,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>841.5</v>
+        <v>844.5</v>
       </c>
       <c r="E309" t="s">
         <v>2632</v>
@@ -14212,7 +14212,7 @@
         <v>3</v>
       </c>
       <c r="D349">
-        <v>836.7631397787836</v>
+        <v>834.4592830814147</v>
       </c>
       <c r="E349" t="s">
         <v>2633</v>
@@ -14229,7 +14229,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>5020.578838672702</v>
+        <v>5006.755698488489</v>
       </c>
       <c r="E350" t="s">
         <v>2632</v>
@@ -14246,7 +14246,7 @@
         <v>3</v>
       </c>
       <c r="D351">
-        <v>836.7738986244201</v>
+        <v>834.4696242979314</v>
       </c>
       <c r="E351" t="s">
         <v>2633</v>
@@ -14263,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>5020.64339174652</v>
+        <v>5006.817745787588</v>
       </c>
       <c r="E352" t="s">
         <v>2632</v>
@@ -14280,7 +14280,7 @@
         <v>3</v>
       </c>
       <c r="D353">
-        <v>836.7435580085145</v>
+        <v>834.4438128198638</v>
       </c>
       <c r="E353" t="s">
         <v>2633</v>
@@ -14297,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>5020.461348051087</v>
+        <v>5006.662876919183</v>
       </c>
       <c r="E354" t="s">
         <v>2632</v>
@@ -14994,7 +14994,7 @@
         <v>2</v>
       </c>
       <c r="D395">
-        <v>554.0798237645976</v>
+        <v>554.0798238010806</v>
       </c>
       <c r="E395" t="s">
         <v>2632</v>
@@ -15130,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="D403">
-        <v>509.5463073524148</v>
+        <v>509.5463073525543</v>
       </c>
       <c r="E403" t="s">
         <v>2632</v>
@@ -16099,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="D460">
-        <v>836.7729291362371</v>
+        <v>834.4686922443701</v>
       </c>
       <c r="E460" t="s">
         <v>2633</v>
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>5020.637574817422</v>
+        <v>5006.81215346622</v>
       </c>
       <c r="E461" t="s">
         <v>2632</v>
@@ -16184,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>183.5887153177484</v>
+        <v>183.5887153177485</v>
       </c>
       <c r="E465" t="s">
         <v>2632</v>
@@ -16218,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="D467">
-        <v>185.3516217020251</v>
+        <v>185.285568441054</v>
       </c>
       <c r="E467" t="s">
         <v>2632</v>
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="D469">
-        <v>184.7916974562718</v>
+        <v>184.7052935326227</v>
       </c>
       <c r="E469" t="s">
         <v>2632</v>
@@ -16388,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>131.8359372500078</v>
+        <v>131.8335545100353</v>
       </c>
       <c r="E477" t="s">
         <v>2632</v>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="D478">
-        <v>131.8183802152758</v>
+        <v>131.8174956885194</v>
       </c>
       <c r="E478" t="s">
         <v>2632</v>
@@ -16439,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>131.8204068371982</v>
+        <v>131.8192387606815</v>
       </c>
       <c r="E480" t="s">
         <v>2632</v>
@@ -17425,7 +17425,7 @@
         <v>1</v>
       </c>
       <c r="D538">
-        <v>253.75</v>
+        <v>256.25</v>
       </c>
       <c r="E538" t="s">
         <v>2632</v>
@@ -17629,7 +17629,7 @@
         <v>5</v>
       </c>
       <c r="D550">
-        <v>548</v>
+        <v>547.75</v>
       </c>
       <c r="E550" t="s">
         <v>2632</v>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>1741.5</v>
+        <v>1745.75</v>
       </c>
       <c r="E556" t="s">
         <v>2632</v>
@@ -19516,7 +19516,7 @@
         <v>3</v>
       </c>
       <c r="D661">
-        <v>115.25</v>
+        <v>115</v>
       </c>
       <c r="E661" t="s">
         <v>2633</v>
@@ -19533,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="D662">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="E662" t="s">
         <v>2632</v>
@@ -22576,7 +22576,7 @@
         <v>1</v>
       </c>
       <c r="D841">
-        <v>169.15</v>
+        <v>168.90125</v>
       </c>
       <c r="E841" t="s">
         <v>2632</v>
@@ -22593,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="D842">
-        <v>169.15</v>
+        <v>168.90125</v>
       </c>
       <c r="E842" t="s">
         <v>2632</v>
@@ -22610,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="D843">
-        <v>169.15</v>
+        <v>168.90125</v>
       </c>
       <c r="E843" t="s">
         <v>2632</v>
@@ -26129,7 +26129,7 @@
         <v>2</v>
       </c>
       <c r="D1050">
-        <v>107</v>
+        <v>106.75</v>
       </c>
       <c r="E1050" t="s">
         <v>2633</v>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="D1051">
-        <v>642</v>
+        <v>640.5</v>
       </c>
       <c r="E1051" t="s">
         <v>2632</v>
@@ -26367,7 +26367,7 @@
         <v>2</v>
       </c>
       <c r="D1064">
-        <v>103</v>
+        <v>106.5</v>
       </c>
       <c r="E1064" t="s">
         <v>2633</v>
@@ -26384,7 +26384,7 @@
         <v>1</v>
       </c>
       <c r="D1065">
-        <v>618</v>
+        <v>639</v>
       </c>
       <c r="E1065" t="s">
         <v>2632</v>
@@ -26792,7 +26792,7 @@
         <v>3</v>
       </c>
       <c r="D1089">
-        <v>356.25</v>
+        <v>355</v>
       </c>
       <c r="E1089" t="s">
         <v>2633</v>
@@ -26809,7 +26809,7 @@
         <v>1</v>
       </c>
       <c r="D1090">
-        <v>2137.5</v>
+        <v>2130</v>
       </c>
       <c r="E1090" t="s">
         <v>2632</v>
@@ -26826,7 +26826,7 @@
         <v>3</v>
       </c>
       <c r="D1091">
-        <v>281.5</v>
+        <v>280.5</v>
       </c>
       <c r="E1091" t="s">
         <v>2633</v>
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="E1092" t="s">
         <v>2632</v>
@@ -26860,7 +26860,7 @@
         <v>3</v>
       </c>
       <c r="D1093">
-        <v>364.5</v>
+        <v>360.75</v>
       </c>
       <c r="E1093" t="s">
         <v>2633</v>
@@ -26877,7 +26877,7 @@
         <v>1</v>
       </c>
       <c r="D1094">
-        <v>4374</v>
+        <v>4329</v>
       </c>
       <c r="E1094" t="s">
         <v>2632</v>
@@ -26894,7 +26894,7 @@
         <v>3</v>
       </c>
       <c r="D1095">
-        <v>279.5908665837817</v>
+        <v>278.308793090555</v>
       </c>
       <c r="E1095" t="s">
         <v>2633</v>
@@ -26911,7 +26911,7 @@
         <v>1</v>
       </c>
       <c r="D1096">
-        <v>3355.09039900538</v>
+        <v>3339.70551708666</v>
       </c>
       <c r="E1096" t="s">
         <v>2632</v>
@@ -28288,7 +28288,7 @@
         <v>1</v>
       </c>
       <c r="D1177">
-        <v>298.5</v>
+        <v>297.25</v>
       </c>
       <c r="E1177" t="s">
         <v>2632</v>
@@ -31076,7 +31076,7 @@
         <v>25</v>
       </c>
       <c r="D1341">
-        <v>160.5</v>
+        <v>160.75</v>
       </c>
       <c r="E1341" t="s">
         <v>2633</v>
@@ -31093,7 +31093,7 @@
         <v>29</v>
       </c>
       <c r="D1342">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E1342" t="s">
         <v>2632</v>
@@ -31144,7 +31144,7 @@
         <v>3</v>
       </c>
       <c r="D1345">
-        <v>828.9563713868396</v>
+        <v>823.5076878015724</v>
       </c>
       <c r="E1345" t="s">
         <v>2633</v>
@@ -31161,7 +31161,7 @@
         <v>1</v>
       </c>
       <c r="D1346">
-        <v>4973.738228321037</v>
+        <v>4941.046126809434</v>
       </c>
       <c r="E1346" t="s">
         <v>2632</v>
@@ -31246,7 +31246,7 @@
         <v>3</v>
       </c>
       <c r="D1351">
-        <v>828.9241560716099</v>
+        <v>823.4758945853129</v>
       </c>
       <c r="E1351" t="s">
         <v>2633</v>
@@ -31263,7 +31263,7 @@
         <v>1</v>
       </c>
       <c r="D1352">
-        <v>4973.544936429659</v>
+        <v>4940.855367511877</v>
       </c>
       <c r="E1352" t="s">
         <v>2632</v>
@@ -34629,7 +34629,7 @@
         <v>1</v>
       </c>
       <c r="D1550">
-        <v>1484.25</v>
+        <v>1484.75</v>
       </c>
       <c r="E1550" t="s">
         <v>2632</v>
@@ -34646,7 +34646,7 @@
         <v>7</v>
       </c>
       <c r="D1551">
-        <v>37</v>
+        <v>37.25</v>
       </c>
       <c r="E1551" t="s">
         <v>2633</v>
@@ -34663,7 +34663,7 @@
         <v>15</v>
       </c>
       <c r="D1552">
-        <v>185</v>
+        <v>186.25</v>
       </c>
       <c r="E1552" t="s">
         <v>2632</v>
@@ -34680,7 +34680,7 @@
         <v>16</v>
       </c>
       <c r="D1553">
-        <v>370</v>
+        <v>372.5</v>
       </c>
       <c r="E1553" t="s">
         <v>2632</v>
@@ -34697,7 +34697,7 @@
         <v>1</v>
       </c>
       <c r="D1554">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="E1554" t="s">
         <v>2632</v>
@@ -34850,7 +34850,7 @@
         <v>7</v>
       </c>
       <c r="D1563">
-        <v>15.75</v>
+        <v>16</v>
       </c>
       <c r="E1563" t="s">
         <v>2633</v>
@@ -34867,7 +34867,7 @@
         <v>15</v>
       </c>
       <c r="D1564">
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="E1564" t="s">
         <v>2632</v>
@@ -34884,7 +34884,7 @@
         <v>16</v>
       </c>
       <c r="D1565">
-        <v>157.5</v>
+        <v>160</v>
       </c>
       <c r="E1565" t="s">
         <v>2632</v>
@@ -34901,7 +34901,7 @@
         <v>1</v>
       </c>
       <c r="D1566">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E1566" t="s">
         <v>2632</v>
@@ -36295,7 +36295,7 @@
         <v>1</v>
       </c>
       <c r="D1648">
-        <v>362.6775</v>
+        <v>361.185</v>
       </c>
       <c r="E1648" t="s">
         <v>2632</v>
@@ -38199,7 +38199,7 @@
         <v>3</v>
       </c>
       <c r="D1760">
-        <v>43.60164930457215</v>
+        <v>43.60188230835166</v>
       </c>
       <c r="E1760" t="s">
         <v>2633</v>
@@ -38216,7 +38216,7 @@
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>261.6098958274329</v>
+        <v>261.6112938501099</v>
       </c>
       <c r="E1761" t="s">
         <v>2632</v>
@@ -38335,7 +38335,7 @@
         <v>2</v>
       </c>
       <c r="D1768">
-        <v>239.5</v>
+        <v>233</v>
       </c>
       <c r="E1768" t="s">
         <v>2633</v>
@@ -38352,7 +38352,7 @@
         <v>1</v>
       </c>
       <c r="D1769">
-        <v>2395</v>
+        <v>2330</v>
       </c>
       <c r="E1769" t="s">
         <v>2632</v>
@@ -39185,7 +39185,7 @@
         <v>25</v>
       </c>
       <c r="D1818">
-        <v>333.6493494953559</v>
+        <v>333.5768301865834</v>
       </c>
       <c r="E1818" t="s">
         <v>2633</v>
@@ -39202,7 +39202,7 @@
         <v>2</v>
       </c>
       <c r="D1819">
-        <v>1000.948048486068</v>
+        <v>1000.73049055975</v>
       </c>
       <c r="E1819" t="s">
         <v>2632</v>
@@ -39780,7 +39780,7 @@
         <v>10</v>
       </c>
       <c r="D1853">
-        <v>73.75</v>
+        <v>74</v>
       </c>
       <c r="E1853" t="s">
         <v>2633</v>
@@ -39797,7 +39797,7 @@
         <v>1</v>
       </c>
       <c r="D1854">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E1854" t="s">
         <v>2632</v>
@@ -40409,7 +40409,7 @@
         <v>3</v>
       </c>
       <c r="D1890">
-        <v>84.01757013499417</v>
+        <v>84.01867447382008</v>
       </c>
       <c r="E1890" t="s">
         <v>2633</v>
@@ -40426,7 +40426,7 @@
         <v>1</v>
       </c>
       <c r="D1891">
-        <v>1680.351402699883</v>
+        <v>1680.373489476402</v>
       </c>
       <c r="E1891" t="s">
         <v>2632</v>
@@ -41276,7 +41276,7 @@
         <v>1</v>
       </c>
       <c r="D1941">
-        <v>656.25</v>
+        <v>656.5</v>
       </c>
       <c r="E1941" t="s">
         <v>2632</v>
@@ -41327,7 +41327,7 @@
         <v>1</v>
       </c>
       <c r="D1944">
-        <v>180.5</v>
+        <v>181.25</v>
       </c>
       <c r="E1944" t="s">
         <v>2632</v>
@@ -42262,7 +42262,7 @@
         <v>3</v>
       </c>
       <c r="D1999">
-        <v>433.75</v>
+        <v>434.25</v>
       </c>
       <c r="E1999" t="s">
         <v>2632</v>
@@ -42636,7 +42636,7 @@
         <v>12</v>
       </c>
       <c r="D2021">
-        <v>868.25</v>
+        <v>868</v>
       </c>
       <c r="E2021" t="s">
         <v>2632</v>
@@ -42806,7 +42806,7 @@
         <v>3</v>
       </c>
       <c r="D2031">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2031" t="s">
         <v>2633</v>
@@ -42823,7 +42823,7 @@
         <v>1</v>
       </c>
       <c r="D2032">
-        <v>3432</v>
+        <v>3456</v>
       </c>
       <c r="E2032" t="s">
         <v>2632</v>
@@ -43469,7 +43469,7 @@
         <v>3</v>
       </c>
       <c r="D2070">
-        <v>84.01515230354916</v>
+        <v>84.01657441294969</v>
       </c>
       <c r="E2070" t="s">
         <v>2633</v>
@@ -43486,7 +43486,7 @@
         <v>1</v>
       </c>
       <c r="D2071">
-        <v>1680.303046070983</v>
+        <v>1680.331488258994</v>
       </c>
       <c r="E2071" t="s">
         <v>2632</v>
@@ -43503,7 +43503,7 @@
         <v>3</v>
       </c>
       <c r="D2072">
-        <v>85.31897007883859</v>
+        <v>84.2829453294151</v>
       </c>
       <c r="E2072" t="s">
         <v>2633</v>
@@ -43520,7 +43520,7 @@
         <v>1</v>
       </c>
       <c r="D2073">
-        <v>853.1897007883858</v>
+        <v>842.829453294151</v>
       </c>
       <c r="E2073" t="s">
         <v>2632</v>
@@ -43537,7 +43537,7 @@
         <v>3</v>
       </c>
       <c r="D2074">
-        <v>85.312016427017</v>
+        <v>84.27628366867137</v>
       </c>
       <c r="E2074" t="s">
         <v>2633</v>
@@ -43554,7 +43554,7 @@
         <v>1</v>
       </c>
       <c r="D2075">
-        <v>853.12016427017</v>
+        <v>842.7628366867136</v>
       </c>
       <c r="E2075" t="s">
         <v>2632</v>
@@ -43809,7 +43809,7 @@
         <v>1</v>
       </c>
       <c r="D2090">
-        <v>737.6739199426065</v>
+        <v>734.2594604098767</v>
       </c>
       <c r="E2090" t="s">
         <v>2632</v>
@@ -43877,7 +43877,7 @@
         <v>2</v>
       </c>
       <c r="D2094">
-        <v>100.1732044148797</v>
+        <v>100.1770729777252</v>
       </c>
       <c r="E2094" t="s">
         <v>2632</v>
@@ -43911,7 +43911,7 @@
         <v>2</v>
       </c>
       <c r="D2096">
-        <v>100.1236299677191</v>
+        <v>100.1335173346001</v>
       </c>
       <c r="E2096" t="s">
         <v>2632</v>
@@ -43928,7 +43928,7 @@
         <v>2</v>
       </c>
       <c r="D2097">
-        <v>100.2338829018485</v>
+        <v>100.2351364224935</v>
       </c>
       <c r="E2097" t="s">
         <v>2632</v>
@@ -43945,7 +43945,7 @@
         <v>2</v>
       </c>
       <c r="D2098">
-        <v>100.1861442616085</v>
+        <v>100.1900039126321</v>
       </c>
       <c r="E2098" t="s">
         <v>2632</v>
@@ -44268,7 +44268,7 @@
         <v>14</v>
       </c>
       <c r="D2117">
-        <v>77.06069295654086</v>
+        <v>77.06069629203274</v>
       </c>
       <c r="E2117" t="s">
         <v>2633</v>
@@ -44285,7 +44285,7 @@
         <v>1</v>
       </c>
       <c r="D2118">
-        <v>1155.910394348113</v>
+        <v>1155.910444380491</v>
       </c>
       <c r="E2118" t="s">
         <v>2632</v>
@@ -46002,7 +46002,7 @@
         <v>1</v>
       </c>
       <c r="D2219">
-        <v>327.75</v>
+        <v>324.5</v>
       </c>
       <c r="E2219" t="s">
         <v>2632</v>
@@ -46019,7 +46019,7 @@
         <v>3</v>
       </c>
       <c r="D2220">
-        <v>95.10188260250032</v>
+        <v>95.10178265524252</v>
       </c>
       <c r="E2220" t="s">
         <v>2633</v>
@@ -46036,7 +46036,7 @@
         <v>1</v>
       </c>
       <c r="D2221">
-        <v>1141.222591230004</v>
+        <v>1141.22139186291</v>
       </c>
       <c r="E2221" t="s">
         <v>2632</v>
@@ -46053,7 +46053,7 @@
         <v>3</v>
       </c>
       <c r="D2222">
-        <v>95.10139278771616</v>
+        <v>95.10128412966822</v>
       </c>
       <c r="E2222" t="s">
         <v>2633</v>
@@ -46070,7 +46070,7 @@
         <v>1</v>
       </c>
       <c r="D2223">
-        <v>1141.216713452594</v>
+        <v>1141.215409556019</v>
       </c>
       <c r="E2223" t="s">
         <v>2632</v>
@@ -47056,7 +47056,7 @@
         <v>1</v>
       </c>
       <c r="D2281">
-        <v>335.9391229338837</v>
+        <v>335.7393674614846</v>
       </c>
       <c r="E2281" t="s">
         <v>2632</v>
@@ -47141,7 +47141,7 @@
         <v>1</v>
       </c>
       <c r="D2286">
-        <v>737.7236102656407</v>
+        <v>734.2666466502316</v>
       </c>
       <c r="E2286" t="s">
         <v>2632</v>
@@ -48093,7 +48093,7 @@
         <v>1</v>
       </c>
       <c r="D2342">
-        <v>238.5</v>
+        <v>239.5</v>
       </c>
       <c r="E2342" t="s">
         <v>2632</v>
@@ -49538,7 +49538,7 @@
         <v>1</v>
       </c>
       <c r="D2427">
-        <v>178</v>
+        <v>177.5</v>
       </c>
       <c r="E2427" t="s">
         <v>2632</v>
@@ -51544,7 +51544,7 @@
         <v>1</v>
       </c>
       <c r="D2545">
-        <v>638.3302112910588</v>
+        <v>638.3095557286032</v>
       </c>
       <c r="E2545" t="s">
         <v>2632</v>
@@ -51561,7 +51561,7 @@
         <v>1</v>
       </c>
       <c r="D2546">
-        <v>639.5002541006681</v>
+        <v>639.4774127803752</v>
       </c>
       <c r="E2546" t="s">
         <v>2632</v>
@@ -51578,7 +51578,7 @@
         <v>5</v>
       </c>
       <c r="D2547">
-        <v>310.75</v>
+        <v>310.5</v>
       </c>
       <c r="E2547" t="s">
         <v>2632</v>
@@ -51595,7 +51595,7 @@
         <v>5</v>
       </c>
       <c r="D2548">
-        <v>288.25</v>
+        <v>299</v>
       </c>
       <c r="E2548" t="s">
         <v>2632</v>
@@ -52275,7 +52275,7 @@
         <v>1</v>
       </c>
       <c r="D2588">
-        <v>616.1202985317206</v>
+        <v>616.2041551389822</v>
       </c>
       <c r="E2588" t="s">
         <v>2632</v>
@@ -52292,7 +52292,7 @@
         <v>1</v>
       </c>
       <c r="D2589">
-        <v>738.1681115771023</v>
+        <v>734.3351302239427</v>
       </c>
       <c r="E2589" t="s">
         <v>2632</v>
@@ -53244,7 +53244,7 @@
         <v>25</v>
       </c>
       <c r="D2645">
-        <v>444.25</v>
+        <v>443.25</v>
       </c>
       <c r="E2645" t="s">
         <v>2633</v>
@@ -53261,7 +53261,7 @@
         <v>1</v>
       </c>
       <c r="D2646">
-        <v>888.5</v>
+        <v>886.5</v>
       </c>
       <c r="E2646" t="s">
         <v>2632</v>
@@ -53584,7 +53584,7 @@
         <v>5</v>
       </c>
       <c r="D2665">
-        <v>549.25</v>
+        <v>549.5</v>
       </c>
       <c r="E2665" t="s">
         <v>2632</v>
@@ -53924,7 +53924,7 @@
         <v>1</v>
       </c>
       <c r="D2685">
-        <v>462.42625</v>
+        <v>463.67</v>
       </c>
       <c r="E2685" t="s">
         <v>2632</v>
@@ -53992,7 +53992,7 @@
         <v>1</v>
       </c>
       <c r="D2689">
-        <v>462.42625</v>
+        <v>463.4628897517051</v>
       </c>
       <c r="E2689" t="s">
         <v>2632</v>
@@ -56066,7 +56066,7 @@
         <v>3</v>
       </c>
       <c r="D2811">
-        <v>68.75</v>
+        <v>70.25</v>
       </c>
       <c r="E2811" t="s">
         <v>2633</v>
@@ -56083,7 +56083,7 @@
         <v>1</v>
       </c>
       <c r="D2812">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="E2812" t="s">
         <v>2632</v>
@@ -56321,7 +56321,7 @@
         <v>3</v>
       </c>
       <c r="D2826">
-        <v>308</v>
+        <v>308.5</v>
       </c>
       <c r="E2826" t="s">
         <v>2633</v>
@@ -56338,7 +56338,7 @@
         <v>1</v>
       </c>
       <c r="D2827">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="E2827" t="s">
         <v>2632</v>
@@ -56355,7 +56355,7 @@
         <v>3</v>
       </c>
       <c r="D2828">
-        <v>393.25</v>
+        <v>393</v>
       </c>
       <c r="E2828" t="s">
         <v>2633</v>
@@ -56372,7 +56372,7 @@
         <v>1</v>
       </c>
       <c r="D2829">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="E2829" t="s">
         <v>2632</v>
@@ -56389,7 +56389,7 @@
         <v>3</v>
       </c>
       <c r="D2830">
-        <v>401.75</v>
+        <v>401.25</v>
       </c>
       <c r="E2830" t="s">
         <v>2633</v>
@@ -56406,7 +56406,7 @@
         <v>1</v>
       </c>
       <c r="D2831">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="E2831" t="s">
         <v>2632</v>
@@ -56491,7 +56491,7 @@
         <v>1</v>
       </c>
       <c r="D2836">
-        <v>159.75</v>
+        <v>158.5</v>
       </c>
       <c r="E2836" t="s">
         <v>2632</v>
@@ -56525,7 +56525,7 @@
         <v>10</v>
       </c>
       <c r="D2838">
-        <v>347.75</v>
+        <v>347.25</v>
       </c>
       <c r="E2838" t="s">
         <v>2633</v>
@@ -56542,7 +56542,7 @@
         <v>1</v>
       </c>
       <c r="D2839">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="E2839" t="s">
         <v>2632</v>
@@ -57630,7 +57630,7 @@
         <v>2</v>
       </c>
       <c r="D2903">
-        <v>105.5</v>
+        <v>104</v>
       </c>
       <c r="E2903" t="s">
         <v>2632</v>
@@ -57647,7 +57647,7 @@
         <v>2</v>
       </c>
       <c r="D2904">
-        <v>105.5</v>
+        <v>104</v>
       </c>
       <c r="E2904" t="s">
         <v>2632</v>
@@ -60163,7 +60163,7 @@
         <v>3</v>
       </c>
       <c r="D3052">
-        <v>67.25</v>
+        <v>67</v>
       </c>
       <c r="E3052" t="s">
         <v>2633</v>
@@ -60180,7 +60180,7 @@
         <v>1</v>
       </c>
       <c r="D3053">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="E3053" t="s">
         <v>2632</v>
@@ -60401,7 +60401,7 @@
         <v>1</v>
       </c>
       <c r="D3066">
-        <v>540.5</v>
+        <v>539.25</v>
       </c>
       <c r="E3066" t="s">
         <v>2632</v>
@@ -60486,7 +60486,7 @@
         <v>1</v>
       </c>
       <c r="D3071">
-        <v>615.5</v>
+        <v>615.25</v>
       </c>
       <c r="E3071" t="s">
         <v>2632</v>
@@ -60877,7 +60877,7 @@
         <v>1</v>
       </c>
       <c r="D3094">
-        <v>477.25</v>
+        <v>473.25</v>
       </c>
       <c r="E3094" t="s">
         <v>2632</v>
@@ -61149,7 +61149,7 @@
         <v>3</v>
       </c>
       <c r="D3110">
-        <v>828.5</v>
+        <v>829.75</v>
       </c>
       <c r="E3110" t="s">
         <v>2632</v>
@@ -62781,7 +62781,7 @@
         <v>3</v>
       </c>
       <c r="D3206">
-        <v>386.4410061519382</v>
+        <v>387.2762974112899</v>
       </c>
       <c r="E3206" t="s">
         <v>2633</v>
@@ -62798,7 +62798,7 @@
         <v>1</v>
       </c>
       <c r="D3207">
-        <v>4637.292073823259</v>
+        <v>4647.315568935479</v>
       </c>
       <c r="E3207" t="s">
         <v>2632</v>
@@ -62832,7 +62832,7 @@
         <v>3</v>
       </c>
       <c r="D3209">
-        <v>161.25</v>
+        <v>161</v>
       </c>
       <c r="E3209" t="s">
         <v>2633</v>
@@ -62849,7 +62849,7 @@
         <v>1</v>
       </c>
       <c r="D3210">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E3210" t="s">
         <v>2632</v>
@@ -63104,7 +63104,7 @@
         <v>2</v>
       </c>
       <c r="D3225">
-        <v>202</v>
+        <v>201.5</v>
       </c>
       <c r="E3225" t="s">
         <v>2632</v>
@@ -63359,7 +63359,7 @@
         <v>10</v>
       </c>
       <c r="D3240">
-        <v>16.54704914732555</v>
+        <v>16.60329738614167</v>
       </c>
       <c r="E3240" t="s">
         <v>2633</v>
@@ -63376,7 +63376,7 @@
         <v>1</v>
       </c>
       <c r="D3241">
-        <v>198.5645897679066</v>
+        <v>199.2395686337</v>
       </c>
       <c r="E3241" t="s">
         <v>2632</v>
@@ -63393,7 +63393,7 @@
         <v>10</v>
       </c>
       <c r="D3242">
-        <v>16.48316716071358</v>
+        <v>16.52233568864575</v>
       </c>
       <c r="E3242" t="s">
         <v>2633</v>
@@ -63410,7 +63410,7 @@
         <v>1</v>
       </c>
       <c r="D3243">
-        <v>197.798005928563</v>
+        <v>198.268028263749</v>
       </c>
       <c r="E3243" t="s">
         <v>2632</v>
@@ -65501,7 +65501,7 @@
         <v>3</v>
       </c>
       <c r="D3366">
-        <v>66.25</v>
+        <v>66</v>
       </c>
       <c r="E3366" t="s">
         <v>2633</v>
@@ -65518,7 +65518,7 @@
         <v>1</v>
       </c>
       <c r="D3367">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="E3367" t="s">
         <v>2632</v>
@@ -65569,7 +65569,7 @@
         <v>80</v>
       </c>
       <c r="D3370">
-        <v>379.25</v>
+        <v>379.5</v>
       </c>
       <c r="E3370" t="s">
         <v>2633</v>
@@ -65586,7 +65586,7 @@
         <v>29</v>
       </c>
       <c r="D3371">
-        <v>758.5</v>
+        <v>759</v>
       </c>
       <c r="E3371" t="s">
         <v>2632</v>
@@ -66385,7 +66385,7 @@
         <v>3</v>
       </c>
       <c r="D3418">
-        <v>212.7525738399222</v>
+        <v>212.6791509972196</v>
       </c>
       <c r="E3418" t="s">
         <v>2633</v>
@@ -66402,7 +66402,7 @@
         <v>1</v>
       </c>
       <c r="D3419">
-        <v>2553.030886079066</v>
+        <v>2552.149811966635</v>
       </c>
       <c r="E3419" t="s">
         <v>2632</v>
@@ -66555,7 +66555,7 @@
         <v>3</v>
       </c>
       <c r="D3428">
-        <v>213.5833516234278</v>
+        <v>213.4590447682516</v>
       </c>
       <c r="E3428" t="s">
         <v>2633</v>
@@ -66572,7 +66572,7 @@
         <v>1</v>
       </c>
       <c r="D3429">
-        <v>2563.000219481134</v>
+        <v>2561.50853721902</v>
       </c>
       <c r="E3429" t="s">
         <v>2632</v>
@@ -68442,7 +68442,7 @@
         <v>3</v>
       </c>
       <c r="D3539">
-        <v>305.75</v>
+        <v>301.5</v>
       </c>
       <c r="E3539" t="s">
         <v>2633</v>
@@ -68459,7 +68459,7 @@
         <v>1</v>
       </c>
       <c r="D3540">
-        <v>2446</v>
+        <v>2412</v>
       </c>
       <c r="E3540" t="s">
         <v>2632</v>
@@ -68476,7 +68476,7 @@
         <v>3</v>
       </c>
       <c r="D3541">
-        <v>240.5</v>
+        <v>240</v>
       </c>
       <c r="E3541" t="s">
         <v>2633</v>
@@ -68493,7 +68493,7 @@
         <v>1</v>
       </c>
       <c r="D3542">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="E3542" t="s">
         <v>2632</v>
@@ -68544,7 +68544,7 @@
         <v>2</v>
       </c>
       <c r="D3545">
-        <v>184.5</v>
+        <v>186.75</v>
       </c>
       <c r="E3545" t="s">
         <v>2633</v>
@@ -68561,7 +68561,7 @@
         <v>1</v>
       </c>
       <c r="D3546">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="E3546" t="s">
         <v>2632</v>
@@ -70703,7 +70703,7 @@
         <v>1</v>
       </c>
       <c r="D3672">
-        <v>79.5</v>
+        <v>79.25</v>
       </c>
       <c r="E3672" t="s">
         <v>2632</v>
@@ -71128,7 +71128,7 @@
         <v>2</v>
       </c>
       <c r="D3697">
-        <v>216.1921922468669</v>
+        <v>217.4931317199373</v>
       </c>
       <c r="E3697" t="s">
         <v>2632</v>
@@ -71179,7 +71179,7 @@
         <v>2</v>
       </c>
       <c r="D3700">
-        <v>215.25</v>
+        <v>216.5</v>
       </c>
       <c r="E3700" t="s">
         <v>2632</v>
@@ -71196,7 +71196,7 @@
         <v>2</v>
       </c>
       <c r="D3701">
-        <v>215.2735800282279</v>
+        <v>216.5237755916169</v>
       </c>
       <c r="E3701" t="s">
         <v>2632</v>
@@ -71213,7 +71213,7 @@
         <v>2</v>
       </c>
       <c r="D3702">
-        <v>215.2786687078891</v>
+        <v>217.1607993603835</v>
       </c>
       <c r="E3702" t="s">
         <v>2632</v>
@@ -71638,7 +71638,7 @@
         <v>2</v>
       </c>
       <c r="D3727">
-        <v>162.75</v>
+        <v>161.5</v>
       </c>
       <c r="E3727" t="s">
         <v>2633</v>
@@ -71655,7 +71655,7 @@
         <v>1</v>
       </c>
       <c r="D3728">
-        <v>976.5</v>
+        <v>969</v>
       </c>
       <c r="E3728" t="s">
         <v>2632</v>
@@ -72182,7 +72182,7 @@
         <v>3</v>
       </c>
       <c r="D3759">
-        <v>51.5</v>
+        <v>51.25</v>
       </c>
       <c r="E3759" t="s">
         <v>2633</v>
@@ -72199,7 +72199,7 @@
         <v>1</v>
       </c>
       <c r="D3760">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E3760" t="s">
         <v>2632</v>
@@ -72250,7 +72250,7 @@
         <v>3</v>
       </c>
       <c r="D3763">
-        <v>53.25</v>
+        <v>52.75</v>
       </c>
       <c r="E3763" t="s">
         <v>2633</v>
@@ -72267,7 +72267,7 @@
         <v>1</v>
       </c>
       <c r="D3764">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E3764" t="s">
         <v>2632</v>
@@ -73202,7 +73202,7 @@
         <v>3</v>
       </c>
       <c r="D3819">
-        <v>71.75</v>
+        <v>71.5</v>
       </c>
       <c r="E3819" t="s">
         <v>2633</v>
@@ -73219,7 +73219,7 @@
         <v>1</v>
       </c>
       <c r="D3820">
-        <v>430.5</v>
+        <v>429</v>
       </c>
       <c r="E3820" t="s">
         <v>2632</v>
@@ -74307,7 +74307,7 @@
         <v>23</v>
       </c>
       <c r="D3884">
-        <v>125.9600769432706</v>
+        <v>127.6348497646192</v>
       </c>
       <c r="E3884" t="s">
         <v>2633</v>
@@ -74324,7 +74324,7 @@
         <v>1</v>
       </c>
       <c r="D3885">
-        <v>3023.041846638494</v>
+        <v>3063.236394350862</v>
       </c>
       <c r="E3885" t="s">
         <v>2632</v>
@@ -75837,7 +75837,7 @@
         <v>2</v>
       </c>
       <c r="D3974">
-        <v>735.5</v>
+        <v>727.75</v>
       </c>
       <c r="E3974" t="s">
         <v>2632</v>
@@ -75854,7 +75854,7 @@
         <v>2</v>
       </c>
       <c r="D3975">
-        <v>758.25</v>
+        <v>758.5</v>
       </c>
       <c r="E3975" t="s">
         <v>2632</v>
@@ -76160,7 +76160,7 @@
         <v>3</v>
       </c>
       <c r="D3993">
-        <v>54.5</v>
+        <v>54.25</v>
       </c>
       <c r="E3993" t="s">
         <v>2633</v>
@@ -76177,7 +76177,7 @@
         <v>1</v>
       </c>
       <c r="D3994">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E3994" t="s">
         <v>2632</v>
@@ -76194,7 +76194,7 @@
         <v>3</v>
       </c>
       <c r="D3995">
-        <v>54.25</v>
+        <v>54</v>
       </c>
       <c r="E3995" t="s">
         <v>2633</v>
@@ -76211,7 +76211,7 @@
         <v>1</v>
       </c>
       <c r="D3996">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E3996" t="s">
         <v>2632</v>
